--- a/Level 1.xlsx
+++ b/Level 1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17220" tabRatio="500"/>
+    <workbookView windowWidth="19410" windowHeight="8655" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -11855,12 +11855,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -11882,59 +11882,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -11950,32 +11903,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11996,7 +11933,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12010,6 +11986,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -12019,14 +12003,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12053,7 +12046,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12065,61 +12178,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12131,13 +12190,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12149,85 +12220,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12241,17 +12234,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12265,13 +12261,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12291,26 +12291,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12332,157 +12323,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -12546,12 +12539,7 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -12587,7 +12575,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2425700" y="4572000"/>
+          <a:off x="2728595" y="1190625"/>
           <a:ext cx="190500" cy="139700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12630,7 +12618,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>6074</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>499</xdr:row>
       <xdr:rowOff>57426</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12654,8 +12642,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9613900" y="304800"/>
-          <a:ext cx="4806315" cy="2190750"/>
+          <a:off x="10815955" y="238125"/>
+          <a:ext cx="5406390" cy="1724025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12672,7 +12660,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -12919,6 +12907,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -12927,16 +12916,16 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D1295"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A359" workbookViewId="0">
-      <selection activeCell="G393" sqref="G393"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1296" sqref="C1296"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="10.8333333333333" style="1"/>
+    <col min="1" max="1" width="10.8296296296296" style="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="19.8333333333333" customWidth="1"/>
-    <col min="4" max="4" width="38.5" customWidth="1"/>
+    <col min="3" max="3" width="19.837037037037" customWidth="1"/>
+    <col min="4" max="4" width="38.5037037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -12953,7 +12942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="48" hidden="1" spans="2:4">
+    <row r="2" ht="37.5" hidden="1" spans="2:4">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -12964,7 +12953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="48" hidden="1" spans="2:4">
+    <row r="3" ht="37.5" hidden="1" spans="2:4">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -12975,7 +12964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="48" hidden="1" spans="2:4">
+    <row r="4" ht="37.5" hidden="1" spans="2:4">
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
@@ -12986,9 +12975,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="48" spans="1:4">
+    <row r="5" ht="37.5" hidden="1" spans="1:4">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -13000,9 +12989,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="48" spans="1:4">
+    <row r="6" ht="37.5" spans="1:4">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>16</v>
@@ -13014,7 +13003,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="48" hidden="1" spans="2:4">
+    <row r="7" ht="37.5" hidden="1" spans="2:4">
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
@@ -13025,7 +13014,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" ht="48" hidden="1" spans="2:4">
+    <row r="8" ht="37.5" hidden="1" spans="2:4">
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -13036,7 +13025,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" ht="48" hidden="1" spans="2:4">
+    <row r="9" ht="37.5" hidden="1" spans="2:4">
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
@@ -13047,7 +13036,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" ht="48" hidden="1" spans="2:4">
+    <row r="10" ht="37.5" hidden="1" spans="2:4">
       <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
@@ -13058,7 +13047,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" ht="48" hidden="1" spans="2:4">
+    <row r="11" ht="37.5" hidden="1" spans="2:4">
       <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
@@ -13069,7 +13058,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" ht="48" hidden="1" spans="2:4">
+    <row r="12" ht="37.5" hidden="1" spans="2:4">
       <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
@@ -13080,7 +13069,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" ht="48" hidden="1" spans="2:4">
+    <row r="13" ht="37.5" hidden="1" spans="2:4">
       <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
@@ -13091,7 +13080,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" ht="48" hidden="1" spans="2:4">
+    <row r="14" ht="37.5" hidden="1" spans="2:4">
       <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
@@ -13102,7 +13091,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" ht="48" hidden="1" spans="2:4">
+    <row r="15" ht="37.5" hidden="1" spans="2:4">
       <c r="B15" s="1" t="s">
         <v>43</v>
       </c>
@@ -13322,9 +13311,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" hidden="1" spans="1:4">
       <c r="A35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>103</v>
@@ -13336,9 +13325,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" hidden="1" spans="1:4">
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>106</v>
@@ -13559,7 +13548,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" ht="48" hidden="1" spans="2:4">
+    <row r="56" hidden="1" spans="2:4">
       <c r="B56" s="1" t="s">
         <v>166</v>
       </c>
@@ -13900,7 +13889,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="87" ht="48" hidden="1" spans="2:4">
+    <row r="87" hidden="1" spans="2:4">
       <c r="B87" s="1" t="s">
         <v>259</v>
       </c>
@@ -13944,9 +13933,9 @@
         <v>270</v>
       </c>
     </row>
-    <row r="91" hidden="1" spans="1:4">
+    <row r="91" spans="1:4">
       <c r="A91" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>271</v>
@@ -14035,7 +14024,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="99" ht="48" hidden="1" spans="2:4">
+    <row r="99" hidden="1" spans="2:4">
       <c r="B99" s="1" t="s">
         <v>295</v>
       </c>
@@ -14068,7 +14057,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="102" ht="48" hidden="1" spans="2:4">
+    <row r="102" hidden="1" spans="2:4">
       <c r="B102" s="1" t="s">
         <v>304</v>
       </c>
@@ -14090,9 +14079,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" hidden="1" spans="1:4">
       <c r="A104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>310</v>
@@ -14170,7 +14159,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" hidden="1" spans="1:4">
       <c r="A111" s="1">
         <v>1</v>
       </c>
@@ -14272,9 +14261,9 @@
         <v>357</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" hidden="1" spans="1:4">
       <c r="A120" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>358</v>
@@ -14321,7 +14310,7 @@
     </row>
     <row r="124" hidden="1" spans="1:4">
       <c r="A124" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>370</v>
@@ -14432,7 +14421,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="134" ht="48" hidden="1" spans="2:4">
+    <row r="134" hidden="1" spans="2:4">
       <c r="B134" s="1" t="s">
         <v>400</v>
       </c>
@@ -14575,9 +14564,9 @@
         <v>438</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" hidden="1" spans="1:4">
       <c r="A147" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>439</v>
@@ -14622,7 +14611,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="151" ht="48" hidden="1" spans="2:4">
+    <row r="151" hidden="1" spans="2:4">
       <c r="B151" s="1" t="s">
         <v>451</v>
       </c>
@@ -14677,9 +14666,9 @@
         <v>465</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" hidden="1" spans="1:4">
       <c r="A156" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>466</v>
@@ -14691,7 +14680,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" hidden="1" spans="1:4">
       <c r="A157" s="1">
         <v>1</v>
       </c>
@@ -14716,7 +14705,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="159" ht="48" hidden="1" spans="2:4">
+    <row r="159" hidden="1" spans="2:4">
       <c r="B159" s="1" t="s">
         <v>475</v>
       </c>
@@ -14749,9 +14738,9 @@
         <v>483</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" hidden="1" spans="1:4">
       <c r="A162" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>484</v>
@@ -14884,7 +14873,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="174" ht="48" hidden="1" spans="2:4">
+    <row r="174" ht="37.5" hidden="1" spans="2:4">
       <c r="B174" s="1" t="s">
         <v>520</v>
       </c>
@@ -14917,9 +14906,9 @@
         <v>528</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" hidden="1" spans="1:4">
       <c r="A177" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>529</v>
@@ -14931,7 +14920,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="178" ht="48" hidden="1" spans="2:4">
+    <row r="178" hidden="1" spans="2:4">
       <c r="B178" s="1" t="s">
         <v>532</v>
       </c>
@@ -15019,9 +15008,9 @@
         <v>554</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" hidden="1" spans="1:4">
       <c r="A186" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>555</v>
@@ -15055,7 +15044,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="189" ht="48" hidden="1" spans="2:4">
+    <row r="189" hidden="1" spans="2:4">
       <c r="B189" s="1" t="s">
         <v>564</v>
       </c>
@@ -15134,7 +15123,7 @@
     </row>
     <row r="196" hidden="1" spans="1:4">
       <c r="A196" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>585</v>
@@ -15234,7 +15223,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="205" ht="48" hidden="1" spans="2:4">
+    <row r="205" hidden="1" spans="2:4">
       <c r="B205" s="1" t="s">
         <v>612</v>
       </c>
@@ -15245,9 +15234,9 @@
         <v>614</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" hidden="1" spans="1:4">
       <c r="A206" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>615</v>
@@ -15270,7 +15259,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="208" ht="48" hidden="1" spans="2:4">
+    <row r="208" ht="37.5" hidden="1" spans="2:4">
       <c r="B208" s="1" t="s">
         <v>621</v>
       </c>
@@ -15314,7 +15303,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="212" ht="48" hidden="1" spans="2:4">
+    <row r="212" hidden="1" spans="2:4">
       <c r="B212" s="1" t="s">
         <v>633</v>
       </c>
@@ -15391,9 +15380,9 @@
         <v>653</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" hidden="1" spans="1:4">
       <c r="A219" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>654</v>
@@ -15471,9 +15460,9 @@
         <v>674</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" hidden="1" spans="1:4">
       <c r="A226" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>675</v>
@@ -15485,7 +15474,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="227" ht="48" hidden="1" spans="2:4">
+    <row r="227" ht="37.5" hidden="1" spans="2:4">
       <c r="B227" s="1" t="s">
         <v>678</v>
       </c>
@@ -15529,9 +15518,9 @@
         <v>689</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" hidden="1" spans="1:4">
       <c r="A231" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>690</v>
@@ -15644,7 +15633,7 @@
     </row>
     <row r="241" hidden="1" spans="1:4">
       <c r="A241" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>720</v>
@@ -15669,7 +15658,7 @@
     </row>
     <row r="243" hidden="1" spans="1:4">
       <c r="A243" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>726</v>
@@ -15681,7 +15670,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" hidden="1" spans="1:4">
       <c r="A244" s="1">
         <v>1</v>
       </c>
@@ -15728,9 +15717,9 @@
         <v>740</v>
       </c>
     </row>
-    <row r="248" hidden="1" spans="1:4">
+    <row r="248" spans="1:4">
       <c r="A248" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>741</v>
@@ -15797,9 +15786,9 @@
         <v>758</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" hidden="1" spans="1:4">
       <c r="A254" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>759</v>
@@ -15811,9 +15800,9 @@
         <v>761</v>
       </c>
     </row>
-    <row r="255" hidden="1" spans="1:4">
+    <row r="255" spans="1:4">
       <c r="A255" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>762</v>
@@ -15827,7 +15816,7 @@
     </row>
     <row r="256" hidden="1" spans="1:4">
       <c r="A256" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>765</v>
@@ -15839,9 +15828,9 @@
         <v>767</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" hidden="1" spans="1:4">
       <c r="A257" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>768</v>
@@ -15853,9 +15842,9 @@
         <v>770</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" hidden="1" spans="1:4">
       <c r="A258" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>771</v>
@@ -15867,7 +15856,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="259" ht="48" hidden="1" spans="2:4">
+    <row r="259" ht="37.5" hidden="1" spans="2:4">
       <c r="B259" s="1" t="s">
         <v>774</v>
       </c>
@@ -15900,9 +15889,9 @@
         <v>782</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" hidden="1" spans="1:4">
       <c r="A262" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>783</v>
@@ -15914,9 +15903,9 @@
         <v>785</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" hidden="1" spans="1:4">
       <c r="A263" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>786</v>
@@ -15994,7 +15983,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" hidden="1" spans="1:4">
       <c r="A270" s="1">
         <v>1</v>
       </c>
@@ -16019,9 +16008,9 @@
         <v>812</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" hidden="1" spans="1:4">
       <c r="A272" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>813</v>
@@ -16046,7 +16035,7 @@
     </row>
     <row r="274" hidden="1" spans="1:4">
       <c r="A274" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>819</v>
@@ -16223,9 +16212,9 @@
         <v>866</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" hidden="1" spans="1:4">
       <c r="A290" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>867</v>
@@ -16303,9 +16292,9 @@
         <v>887</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" hidden="1" spans="1:4">
       <c r="A297" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>888</v>
@@ -16317,9 +16306,9 @@
         <v>890</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" hidden="1" spans="1:4">
       <c r="A298" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>891</v>
@@ -16430,7 +16419,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="308" ht="48" hidden="1" spans="2:4">
+    <row r="308" ht="37.5" hidden="1" spans="2:4">
       <c r="B308" s="1" t="s">
         <v>921</v>
       </c>
@@ -16465,7 +16454,7 @@
     </row>
     <row r="311" hidden="1" spans="1:4">
       <c r="A311" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>930</v>
@@ -16479,7 +16468,7 @@
     </row>
     <row r="312" hidden="1" spans="1:4">
       <c r="A312" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>933</v>
@@ -16548,7 +16537,7 @@
     </row>
     <row r="318" hidden="1" spans="1:4">
       <c r="A318" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>951</v>
@@ -16593,9 +16582,9 @@
         <v>962</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" hidden="1" spans="1:4">
       <c r="A322" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>963</v>
@@ -16741,7 +16730,7 @@
     </row>
     <row r="335" hidden="1" spans="1:4">
       <c r="A335" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>1002</v>
@@ -16775,9 +16764,9 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" hidden="1" spans="1:4">
       <c r="A338" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>1011</v>
@@ -16811,9 +16800,9 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" hidden="1" spans="1:4">
       <c r="A341" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>1020</v>
@@ -16825,9 +16814,9 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" hidden="1" spans="1:4">
       <c r="A342" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>1023</v>
@@ -16916,9 +16905,9 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" hidden="1" spans="1:4">
       <c r="A350" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>1047</v>
@@ -16941,9 +16930,9 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" hidden="1" spans="1:4">
       <c r="A352" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>1053</v>
@@ -16988,7 +16977,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="356" ht="48" hidden="1" spans="2:4">
+    <row r="356" hidden="1" spans="2:4">
       <c r="B356" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17021,9 +17010,9 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" hidden="1" spans="1:4">
       <c r="A359" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>1074</v>
@@ -17035,7 +17024,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="360" ht="48" hidden="1" spans="2:4">
+    <row r="360" ht="37.5" hidden="1" spans="2:4">
       <c r="B360" s="1" t="s">
         <v>1077</v>
       </c>
@@ -17068,9 +17057,9 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" hidden="1" spans="1:4">
       <c r="A363" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>1086</v>
@@ -17082,9 +17071,9 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" hidden="1" spans="1:4">
       <c r="A364" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>1089</v>
@@ -17107,9 +17096,9 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" hidden="1" spans="1:4">
       <c r="A366" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>1095</v>
@@ -17121,9 +17110,9 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" hidden="1" spans="1:4">
       <c r="A367" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>1098</v>
@@ -17135,9 +17124,9 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" hidden="1" spans="1:4">
       <c r="A368" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>1101</v>
@@ -17215,7 +17204,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" hidden="1" spans="1:4">
       <c r="A375" s="1">
         <v>1</v>
       </c>
@@ -17240,9 +17229,9 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" hidden="1" spans="1:4">
       <c r="A377" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>1127</v>
@@ -17276,9 +17265,9 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="380" ht="48" spans="1:4">
+    <row r="380" ht="37.5" hidden="1" spans="1:4">
       <c r="A380" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B380" s="1" t="s">
         <v>1136</v>
@@ -17367,9 +17356,9 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" hidden="1" spans="1:4">
       <c r="A388" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B388" s="1" t="s">
         <v>1160</v>
@@ -17425,9 +17414,9 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" hidden="1" spans="1:4">
       <c r="A393" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>1175</v>
@@ -17747,9 +17736,9 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" hidden="1" spans="1:4">
       <c r="A422" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B422" s="1" t="s">
         <v>1261</v>
@@ -17860,9 +17849,9 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" hidden="1" spans="1:4">
       <c r="A432" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B432" s="1" t="s">
         <v>1291</v>
@@ -17874,7 +17863,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" hidden="1" spans="1:4">
       <c r="A433" s="1">
         <v>1</v>
       </c>
@@ -17899,9 +17888,9 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" hidden="1" spans="1:4">
       <c r="A435" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B435" s="1" t="s">
         <v>1300</v>
@@ -17913,7 +17902,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" hidden="1" spans="1:4">
       <c r="A436" s="1">
         <v>1</v>
       </c>
@@ -17949,7 +17938,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" hidden="1" spans="1:4">
       <c r="A439" s="1">
         <v>1</v>
       </c>
@@ -17985,9 +17974,9 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" hidden="1" spans="1:4">
       <c r="A442" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B442" s="1" t="s">
         <v>1321</v>
@@ -18109,7 +18098,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" hidden="1" spans="1:4">
       <c r="A453" s="1">
         <v>1</v>
       </c>
@@ -18156,7 +18145,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" hidden="1" spans="1:4">
       <c r="A457" s="1">
         <v>1</v>
       </c>
@@ -18181,9 +18170,9 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
+    <row r="459" hidden="1" spans="1:4">
       <c r="A459" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B459" s="1" t="s">
         <v>1372</v>
@@ -18217,9 +18206,9 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
+    <row r="462" hidden="1" spans="1:4">
       <c r="A462" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B462" s="1" t="s">
         <v>1381</v>
@@ -18242,9 +18231,9 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
+    <row r="464" hidden="1" spans="1:4">
       <c r="A464" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B464" s="1" t="s">
         <v>1387</v>
@@ -18278,9 +18267,9 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
+    <row r="467" hidden="1" spans="1:4">
       <c r="A467" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B467" s="1" t="s">
         <v>1396</v>
@@ -18292,9 +18281,9 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
+    <row r="468" hidden="1" spans="1:4">
       <c r="A468" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B468" s="1" t="s">
         <v>1399</v>
@@ -18427,9 +18416,9 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="480" spans="1:4">
+    <row r="480" hidden="1" spans="1:4">
       <c r="A480" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B480" s="1" t="s">
         <v>1435</v>
@@ -18441,9 +18430,9 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="481" spans="1:4">
+    <row r="481" hidden="1" spans="1:4">
       <c r="A481" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B481" s="1" t="s">
         <v>1438</v>
@@ -18523,7 +18512,7 @@
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B488" s="1" t="s">
         <v>1459</v>
@@ -18557,7 +18546,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
+    <row r="491" hidden="1" spans="1:4">
       <c r="A491" s="1">
         <v>1</v>
       </c>
@@ -18626,7 +18615,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="497" ht="48" hidden="1" spans="2:4">
+    <row r="497" ht="37.5" hidden="1" spans="2:4">
       <c r="B497" s="1" t="s">
         <v>1486</v>
       </c>
@@ -18661,7 +18650,7 @@
     </row>
     <row r="500" spans="1:4">
       <c r="A500" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B500" s="1" t="s">
         <v>1495</v>
@@ -18827,7 +18816,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="515" ht="48" hidden="1" spans="2:4">
+    <row r="515" ht="37.5" hidden="1" spans="2:4">
       <c r="B515" s="1" t="s">
         <v>1540</v>
       </c>
@@ -18893,7 +18882,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="521" ht="48" hidden="1" spans="2:4">
+    <row r="521" ht="37.5" hidden="1" spans="2:4">
       <c r="B521" s="1" t="s">
         <v>1558</v>
       </c>
@@ -18926,7 +18915,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="524" ht="48" hidden="1" spans="2:4">
+    <row r="524" ht="37.5" hidden="1" spans="2:4">
       <c r="B524" s="1" t="s">
         <v>1567</v>
       </c>
@@ -19080,7 +19069,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="538" ht="48" hidden="1" spans="2:4">
+    <row r="538" hidden="1" spans="2:4">
       <c r="B538" s="1" t="s">
         <v>1609</v>
       </c>
@@ -19553,7 +19542,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="581" ht="48" hidden="1" spans="2:4">
+    <row r="581" hidden="1" spans="2:4">
       <c r="B581" s="1" t="s">
         <v>1738</v>
       </c>
@@ -20103,7 +20092,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="631" ht="48" hidden="1" spans="2:4">
+    <row r="631" ht="30" hidden="1" spans="2:4">
       <c r="B631" s="1" t="s">
         <v>1888</v>
       </c>
@@ -20587,7 +20576,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="675" ht="48" hidden="1" spans="2:4">
+    <row r="675" hidden="1" spans="2:4">
       <c r="B675" s="1" t="s">
         <v>2019</v>
       </c>
@@ -20950,7 +20939,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="708" ht="48" hidden="1" spans="2:4">
+    <row r="708" hidden="1" spans="2:4">
       <c r="B708" s="1" t="s">
         <v>2118</v>
       </c>
@@ -21445,7 +21434,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="753" ht="48" hidden="1" spans="2:4">
+    <row r="753" ht="37.5" hidden="1" spans="2:4">
       <c r="B753" s="1" t="s">
         <v>2253</v>
       </c>
@@ -21533,7 +21522,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="761" ht="48" hidden="1" spans="2:4">
+    <row r="761" ht="37.5" hidden="1" spans="2:4">
       <c r="B761" s="1" t="s">
         <v>2277</v>
       </c>
@@ -22215,7 +22204,7 @@
         <v>2462</v>
       </c>
     </row>
-    <row r="823" ht="48" hidden="1" spans="2:4">
+    <row r="823" ht="37.5" hidden="1" spans="2:4">
       <c r="B823" s="1" t="s">
         <v>2463</v>
       </c>
@@ -22281,7 +22270,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="829" ht="48" hidden="1" spans="2:4">
+    <row r="829" ht="37.5" hidden="1" spans="2:4">
       <c r="B829" s="1" t="s">
         <v>2481</v>
       </c>
@@ -22633,7 +22622,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="861" ht="48" hidden="1" spans="2:4">
+    <row r="861" ht="37.5" hidden="1" spans="2:4">
       <c r="B861" s="1" t="s">
         <v>2576</v>
       </c>
@@ -22798,7 +22787,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="876" ht="48" hidden="1" spans="2:4">
+    <row r="876" ht="37.5" hidden="1" spans="2:4">
       <c r="B876" s="1" t="s">
         <v>2621</v>
       </c>
@@ -23007,7 +22996,7 @@
         <v>2677</v>
       </c>
     </row>
-    <row r="895" ht="48" hidden="1" spans="2:4">
+    <row r="895" ht="37.5" hidden="1" spans="2:4">
       <c r="B895" s="1" t="s">
         <v>2678</v>
       </c>
@@ -23040,7 +23029,7 @@
         <v>2686</v>
       </c>
     </row>
-    <row r="898" ht="48" hidden="1" spans="2:4">
+    <row r="898" ht="37.5" hidden="1" spans="2:4">
       <c r="B898" s="1" t="s">
         <v>2687</v>
       </c>
@@ -23150,7 +23139,7 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="908" ht="48" hidden="1" spans="2:4">
+    <row r="908" ht="37.5" hidden="1" spans="2:4">
       <c r="B908" s="1" t="s">
         <v>2717</v>
       </c>
@@ -23161,7 +23150,7 @@
         <v>2719</v>
       </c>
     </row>
-    <row r="909" ht="48" hidden="1" spans="2:4">
+    <row r="909" hidden="1" spans="2:4">
       <c r="B909" s="1" t="s">
         <v>2720</v>
       </c>
@@ -23172,7 +23161,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="910" ht="48" hidden="1" spans="2:4">
+    <row r="910" hidden="1" spans="2:4">
       <c r="B910" s="1" t="s">
         <v>2723</v>
       </c>
@@ -23392,7 +23381,7 @@
         <v>2782</v>
       </c>
     </row>
-    <row r="930" ht="48" hidden="1" spans="2:4">
+    <row r="930" hidden="1" spans="2:4">
       <c r="B930" s="1" t="s">
         <v>2783</v>
       </c>
@@ -23568,7 +23557,7 @@
         <v>2830</v>
       </c>
     </row>
-    <row r="946" ht="48" hidden="1" spans="2:4">
+    <row r="946" hidden="1" spans="2:4">
       <c r="B946" s="1" t="s">
         <v>2831</v>
       </c>
@@ -23645,7 +23634,7 @@
         <v>2851</v>
       </c>
     </row>
-    <row r="953" ht="48" hidden="1" spans="2:4">
+    <row r="953" hidden="1" spans="2:4">
       <c r="B953" s="1" t="s">
         <v>2852</v>
       </c>
@@ -23898,7 +23887,7 @@
         <v>2920</v>
       </c>
     </row>
-    <row r="976" ht="48" hidden="1" spans="2:4">
+    <row r="976" ht="37.5" hidden="1" spans="2:4">
       <c r="B976" s="1" t="s">
         <v>2921</v>
       </c>
@@ -23953,7 +23942,7 @@
         <v>2935</v>
       </c>
     </row>
-    <row r="981" ht="48" hidden="1" spans="2:4">
+    <row r="981" ht="37.5" hidden="1" spans="2:4">
       <c r="B981" s="1" t="s">
         <v>2936</v>
       </c>
@@ -24316,7 +24305,7 @@
         <v>3034</v>
       </c>
     </row>
-    <row r="1014" ht="48" hidden="1" spans="2:4">
+    <row r="1014" hidden="1" spans="2:4">
       <c r="B1014" s="1" t="s">
         <v>3035</v>
       </c>
@@ -24558,7 +24547,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="1036" ht="48" hidden="1" spans="2:4">
+    <row r="1036" ht="30" hidden="1" spans="2:4">
       <c r="B1036" s="1" t="s">
         <v>3101</v>
       </c>
@@ -24745,7 +24734,7 @@
         <v>3151</v>
       </c>
     </row>
-    <row r="1053" ht="48" hidden="1" spans="2:4">
+    <row r="1053" ht="37.5" hidden="1" spans="2:4">
       <c r="B1053" s="1" t="s">
         <v>3152</v>
       </c>
@@ -25075,7 +25064,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="1083" ht="48" hidden="1" spans="2:4">
+    <row r="1083" ht="37.5" hidden="1" spans="2:4">
       <c r="B1083" s="1" t="s">
         <v>3241</v>
       </c>
@@ -25152,7 +25141,7 @@
         <v>3261</v>
       </c>
     </row>
-    <row r="1090" ht="48" hidden="1" spans="2:4">
+    <row r="1090" ht="37.5" hidden="1" spans="2:4">
       <c r="B1090" s="1" t="s">
         <v>3262</v>
       </c>
@@ -25416,7 +25405,7 @@
         <v>3332</v>
       </c>
     </row>
-    <row r="1114" ht="48" hidden="1" spans="2:4">
+    <row r="1114" ht="37.5" hidden="1" spans="2:4">
       <c r="B1114" s="1" t="s">
         <v>3333</v>
       </c>
@@ -25559,7 +25548,7 @@
         <v>3371</v>
       </c>
     </row>
-    <row r="1127" ht="48" hidden="1" spans="2:4">
+    <row r="1127" ht="37.5" hidden="1" spans="2:4">
       <c r="B1127" s="1" t="s">
         <v>3372</v>
       </c>
@@ -26395,7 +26384,7 @@
         <v>3595</v>
       </c>
     </row>
-    <row r="1203" ht="48" hidden="1" spans="2:4">
+    <row r="1203" hidden="1" spans="2:4">
       <c r="B1203" s="1" t="s">
         <v>3596</v>
       </c>
@@ -26417,7 +26406,7 @@
         <v>3601</v>
       </c>
     </row>
-    <row r="1205" ht="48" hidden="1" spans="2:4">
+    <row r="1205" hidden="1" spans="2:4">
       <c r="B1205" s="1" t="s">
         <v>3602</v>
       </c>
@@ -26560,7 +26549,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="1218" ht="48" hidden="1" spans="2:4">
+    <row r="1218" hidden="1" spans="2:4">
       <c r="B1218" s="1" t="s">
         <v>3641</v>
       </c>
@@ -27422,7 +27411,8 @@
   <autoFilter ref="A1:A1295">
     <filterColumn colId="0">
       <customFilters>
-        <customFilter operator="equal" val="1"/>
+        <customFilter operator="equal" val="2"/>
+        <customFilter operator="equal" val="3"/>
       </customFilters>
     </filterColumn>
   </autoFilter>

--- a/Level 1.xlsx
+++ b/Level 1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19410" windowHeight="8655" tabRatio="500"/>
+    <workbookView windowHeight="17220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -11855,10 +11855,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -11895,11 +11895,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -11912,46 +11911,41 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -11971,8 +11965,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11986,19 +11989,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -12009,17 +12018,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12046,19 +12046,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12070,13 +12058,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12088,31 +12082,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12130,13 +12112,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12148,7 +12124,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12160,19 +12178,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12184,43 +12202,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12239,15 +12239,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12276,6 +12267,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -12291,17 +12297,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12320,156 +12331,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -12540,6 +12540,11 @@
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -12575,7 +12580,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2728595" y="1190625"/>
+          <a:off x="2425700" y="5791200"/>
           <a:ext cx="190500" cy="139700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12618,7 +12623,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>6074</xdr:colOff>
-      <xdr:row>499</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>57426</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12642,8 +12647,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10815955" y="238125"/>
-          <a:ext cx="5406390" cy="1724025"/>
+          <a:off x="9805670" y="304800"/>
+          <a:ext cx="4806315" cy="2190750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12660,7 +12665,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4C4C4C"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -12907,7 +12912,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -12917,15 +12921,15 @@
   <dimension ref="A1:D1295"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1296" sqref="C1296"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="10.8296296296296" style="1"/>
+    <col min="1" max="1" width="10.8333333333333" style="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="19.837037037037" customWidth="1"/>
-    <col min="4" max="4" width="38.5037037037037" customWidth="1"/>
+    <col min="3" max="3" width="22.35" customWidth="1"/>
+    <col min="4" max="4" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -12942,7 +12946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="37.5" hidden="1" spans="2:4">
+    <row r="2" ht="48" hidden="1" spans="2:4">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -12953,7 +12957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="37.5" hidden="1" spans="2:4">
+    <row r="3" ht="48" hidden="1" spans="2:4">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -12964,7 +12968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="37.5" hidden="1" spans="2:4">
+    <row r="4" ht="48" hidden="1" spans="2:4">
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
@@ -12975,7 +12979,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="37.5" hidden="1" spans="1:4">
+    <row r="5" ht="48" spans="1:4">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -12989,9 +12993,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="37.5" spans="1:4">
+    <row r="6" ht="48" spans="1:4">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>16</v>
@@ -13003,7 +13007,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="37.5" hidden="1" spans="2:4">
+    <row r="7" ht="48" hidden="1" spans="2:4">
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
@@ -13014,7 +13018,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" ht="37.5" hidden="1" spans="2:4">
+    <row r="8" ht="48" hidden="1" spans="2:4">
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -13025,7 +13029,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" ht="37.5" hidden="1" spans="2:4">
+    <row r="9" ht="48" hidden="1" spans="2:4">
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
@@ -13036,7 +13040,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" ht="37.5" hidden="1" spans="2:4">
+    <row r="10" ht="48" hidden="1" spans="2:4">
       <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
@@ -13047,7 +13051,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" ht="37.5" hidden="1" spans="2:4">
+    <row r="11" ht="48" hidden="1" spans="2:4">
       <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
@@ -13058,7 +13062,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" ht="37.5" hidden="1" spans="2:4">
+    <row r="12" ht="48" hidden="1" spans="2:4">
       <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
@@ -13069,7 +13073,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" ht="37.5" hidden="1" spans="2:4">
+    <row r="13" ht="48" hidden="1" spans="2:4">
       <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
@@ -13080,7 +13084,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" ht="37.5" hidden="1" spans="2:4">
+    <row r="14" ht="48" hidden="1" spans="2:4">
       <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
@@ -13091,7 +13095,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" ht="37.5" hidden="1" spans="2:4">
+    <row r="15" ht="48" hidden="1" spans="2:4">
       <c r="B15" s="1" t="s">
         <v>43</v>
       </c>
@@ -13311,7 +13315,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" hidden="1" spans="1:4">
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -13327,7 +13331,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>106</v>
@@ -13548,7 +13552,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" hidden="1" spans="2:4">
+    <row r="56" ht="48" hidden="1" spans="2:4">
       <c r="B56" s="1" t="s">
         <v>166</v>
       </c>
@@ -13889,7 +13893,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="87" hidden="1" spans="2:4">
+    <row r="87" ht="48" hidden="1" spans="2:4">
       <c r="B87" s="1" t="s">
         <v>259</v>
       </c>
@@ -13935,7 +13939,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>271</v>
@@ -14024,7 +14028,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="99" hidden="1" spans="2:4">
+    <row r="99" ht="48" hidden="1" spans="2:4">
       <c r="B99" s="1" t="s">
         <v>295</v>
       </c>
@@ -14057,7 +14061,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="102" hidden="1" spans="2:4">
+    <row r="102" ht="48" hidden="1" spans="2:4">
       <c r="B102" s="1" t="s">
         <v>304</v>
       </c>
@@ -14079,7 +14083,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="104" hidden="1" spans="1:4">
+    <row r="104" spans="1:4">
       <c r="A104" s="1">
         <v>0</v>
       </c>
@@ -14159,9 +14163,9 @@
         <v>330</v>
       </c>
     </row>
-    <row r="111" hidden="1" spans="1:4">
+    <row r="111" spans="1:4">
       <c r="A111" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>331</v>
@@ -14261,7 +14265,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="120" hidden="1" spans="1:4">
+    <row r="120" spans="1:4">
       <c r="A120" s="1">
         <v>0</v>
       </c>
@@ -14308,9 +14312,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="124" hidden="1" spans="1:4">
+    <row r="124" spans="1:4">
       <c r="A124" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>370</v>
@@ -14421,7 +14425,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="134" hidden="1" spans="2:4">
+    <row r="134" ht="48" hidden="1" spans="2:4">
       <c r="B134" s="1" t="s">
         <v>400</v>
       </c>
@@ -14564,7 +14568,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="147" hidden="1" spans="1:4">
+    <row r="147" spans="1:4">
       <c r="A147" s="1">
         <v>0</v>
       </c>
@@ -14611,7 +14615,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="151" hidden="1" spans="2:4">
+    <row r="151" ht="48" hidden="1" spans="2:4">
       <c r="B151" s="1" t="s">
         <v>451</v>
       </c>
@@ -14666,7 +14670,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="156" hidden="1" spans="1:4">
+    <row r="156" spans="1:4">
       <c r="A156" s="1">
         <v>0</v>
       </c>
@@ -14680,9 +14684,9 @@
         <v>468</v>
       </c>
     </row>
-    <row r="157" hidden="1" spans="1:4">
+    <row r="157" spans="1:4">
       <c r="A157" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>469</v>
@@ -14705,7 +14709,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="159" hidden="1" spans="2:4">
+    <row r="159" ht="48" hidden="1" spans="2:4">
       <c r="B159" s="1" t="s">
         <v>475</v>
       </c>
@@ -14738,7 +14742,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="162" hidden="1" spans="1:4">
+    <row r="162" spans="1:4">
       <c r="A162" s="1">
         <v>0</v>
       </c>
@@ -14873,7 +14877,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="174" ht="37.5" hidden="1" spans="2:4">
+    <row r="174" ht="48" hidden="1" spans="2:4">
       <c r="B174" s="1" t="s">
         <v>520</v>
       </c>
@@ -14906,7 +14910,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="177" hidden="1" spans="1:4">
+    <row r="177" spans="1:4">
       <c r="A177" s="1">
         <v>0</v>
       </c>
@@ -14920,7 +14924,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="178" hidden="1" spans="2:4">
+    <row r="178" ht="48" hidden="1" spans="2:4">
       <c r="B178" s="1" t="s">
         <v>532</v>
       </c>
@@ -15008,7 +15012,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="186" hidden="1" spans="1:4">
+    <row r="186" spans="1:4">
       <c r="A186" s="1">
         <v>0</v>
       </c>
@@ -15044,7 +15048,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="189" hidden="1" spans="2:4">
+    <row r="189" ht="48" hidden="1" spans="2:4">
       <c r="B189" s="1" t="s">
         <v>564</v>
       </c>
@@ -15121,9 +15125,9 @@
         <v>584</v>
       </c>
     </row>
-    <row r="196" hidden="1" spans="1:4">
+    <row r="196" spans="1:4">
       <c r="A196" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>585</v>
@@ -15223,7 +15227,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="205" hidden="1" spans="2:4">
+    <row r="205" ht="48" hidden="1" spans="2:4">
       <c r="B205" s="1" t="s">
         <v>612</v>
       </c>
@@ -15234,7 +15238,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="206" hidden="1" spans="1:4">
+    <row r="206" spans="1:4">
       <c r="A206" s="1">
         <v>0</v>
       </c>
@@ -15259,7 +15263,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="208" ht="37.5" hidden="1" spans="2:4">
+    <row r="208" ht="48" hidden="1" spans="2:4">
       <c r="B208" s="1" t="s">
         <v>621</v>
       </c>
@@ -15303,7 +15307,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="212" hidden="1" spans="2:4">
+    <row r="212" ht="48" hidden="1" spans="2:4">
       <c r="B212" s="1" t="s">
         <v>633</v>
       </c>
@@ -15380,7 +15384,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="219" hidden="1" spans="1:4">
+    <row r="219" spans="1:4">
       <c r="A219" s="1">
         <v>0</v>
       </c>
@@ -15460,7 +15464,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="226" hidden="1" spans="1:4">
+    <row r="226" spans="1:4">
       <c r="A226" s="1">
         <v>0</v>
       </c>
@@ -15474,7 +15478,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="227" ht="37.5" hidden="1" spans="2:4">
+    <row r="227" ht="48" hidden="1" spans="2:4">
       <c r="B227" s="1" t="s">
         <v>678</v>
       </c>
@@ -15518,7 +15522,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="231" hidden="1" spans="1:4">
+    <row r="231" spans="1:4">
       <c r="A231" s="1">
         <v>0</v>
       </c>
@@ -15631,9 +15635,9 @@
         <v>719</v>
       </c>
     </row>
-    <row r="241" hidden="1" spans="1:4">
+    <row r="241" spans="1:4">
       <c r="A241" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>720</v>
@@ -15656,9 +15660,9 @@
         <v>725</v>
       </c>
     </row>
-    <row r="243" hidden="1" spans="1:4">
+    <row r="243" spans="1:4">
       <c r="A243" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>726</v>
@@ -15670,9 +15674,9 @@
         <v>728</v>
       </c>
     </row>
-    <row r="244" hidden="1" spans="1:4">
+    <row r="244" spans="1:4">
       <c r="A244" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>729</v>
@@ -15719,7 +15723,7 @@
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>741</v>
@@ -15786,7 +15790,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="254" hidden="1" spans="1:4">
+    <row r="254" spans="1:4">
       <c r="A254" s="1">
         <v>0</v>
       </c>
@@ -15802,7 +15806,7 @@
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>762</v>
@@ -15814,7 +15818,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="256" hidden="1" spans="1:4">
+    <row r="256" spans="1:4">
       <c r="A256" s="1">
         <v>0</v>
       </c>
@@ -15828,7 +15832,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="257" hidden="1" spans="1:4">
+    <row r="257" spans="1:4">
       <c r="A257" s="1">
         <v>0</v>
       </c>
@@ -15842,7 +15846,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="258" hidden="1" spans="1:4">
+    <row r="258" spans="1:4">
       <c r="A258" s="1">
         <v>0</v>
       </c>
@@ -15856,7 +15860,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="259" ht="37.5" hidden="1" spans="2:4">
+    <row r="259" ht="48" hidden="1" spans="2:4">
       <c r="B259" s="1" t="s">
         <v>774</v>
       </c>
@@ -15889,7 +15893,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="262" hidden="1" spans="1:4">
+    <row r="262" spans="1:4">
       <c r="A262" s="1">
         <v>0</v>
       </c>
@@ -15903,7 +15907,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="263" hidden="1" spans="1:4">
+    <row r="263" spans="1:4">
       <c r="A263" s="1">
         <v>0</v>
       </c>
@@ -15983,7 +15987,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="270" hidden="1" spans="1:4">
+    <row r="270" spans="1:4">
       <c r="A270" s="1">
         <v>1</v>
       </c>
@@ -16008,7 +16012,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="272" hidden="1" spans="1:4">
+    <row r="272" spans="1:4">
       <c r="A272" s="1">
         <v>0</v>
       </c>
@@ -16033,9 +16037,9 @@
         <v>818</v>
       </c>
     </row>
-    <row r="274" hidden="1" spans="1:4">
+    <row r="274" spans="1:4">
       <c r="A274" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>819</v>
@@ -16212,7 +16216,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="290" hidden="1" spans="1:4">
+    <row r="290" spans="1:4">
       <c r="A290" s="1">
         <v>0</v>
       </c>
@@ -16292,7 +16296,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="297" hidden="1" spans="1:4">
+    <row r="297" spans="1:4">
       <c r="A297" s="1">
         <v>0</v>
       </c>
@@ -16306,9 +16310,9 @@
         <v>890</v>
       </c>
     </row>
-    <row r="298" hidden="1" spans="1:4">
+    <row r="298" spans="1:4">
       <c r="A298" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>891</v>
@@ -16419,7 +16423,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="308" ht="37.5" hidden="1" spans="2:4">
+    <row r="308" ht="48" hidden="1" spans="2:4">
       <c r="B308" s="1" t="s">
         <v>921</v>
       </c>
@@ -16452,9 +16456,9 @@
         <v>929</v>
       </c>
     </row>
-    <row r="311" hidden="1" spans="1:4">
+    <row r="311" spans="1:4">
       <c r="A311" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>930</v>
@@ -16466,9 +16470,9 @@
         <v>932</v>
       </c>
     </row>
-    <row r="312" hidden="1" spans="1:4">
+    <row r="312" spans="1:4">
       <c r="A312" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>933</v>
@@ -16535,9 +16539,9 @@
         <v>950</v>
       </c>
     </row>
-    <row r="318" hidden="1" spans="1:4">
+    <row r="318" spans="1:4">
       <c r="A318" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>951</v>
@@ -16582,7 +16586,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="322" hidden="1" spans="1:4">
+    <row r="322" spans="1:4">
       <c r="A322" s="1">
         <v>0</v>
       </c>
@@ -16728,9 +16732,9 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="335" hidden="1" spans="1:4">
+    <row r="335" spans="1:4">
       <c r="A335" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>1002</v>
@@ -16764,7 +16768,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="338" hidden="1" spans="1:4">
+    <row r="338" spans="1:4">
       <c r="A338" s="1">
         <v>0</v>
       </c>
@@ -16800,7 +16804,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="341" hidden="1" spans="1:4">
+    <row r="341" spans="1:4">
       <c r="A341" s="1">
         <v>0</v>
       </c>
@@ -16814,7 +16818,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="342" hidden="1" spans="1:4">
+    <row r="342" spans="1:4">
       <c r="A342" s="1">
         <v>0</v>
       </c>
@@ -16905,7 +16909,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="350" hidden="1" spans="1:4">
+    <row r="350" spans="1:4">
       <c r="A350" s="1">
         <v>0</v>
       </c>
@@ -16930,7 +16934,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="352" hidden="1" spans="1:4">
+    <row r="352" spans="1:4">
       <c r="A352" s="1">
         <v>0</v>
       </c>
@@ -16977,7 +16981,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="356" hidden="1" spans="2:4">
+    <row r="356" ht="48" hidden="1" spans="2:4">
       <c r="B356" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17010,7 +17014,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="359" hidden="1" spans="1:4">
+    <row r="359" spans="1:4">
       <c r="A359" s="1">
         <v>0</v>
       </c>
@@ -17024,7 +17028,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="360" ht="37.5" hidden="1" spans="2:4">
+    <row r="360" ht="48" hidden="1" spans="2:4">
       <c r="B360" s="1" t="s">
         <v>1077</v>
       </c>
@@ -17057,7 +17061,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="363" hidden="1" spans="1:4">
+    <row r="363" spans="1:4">
       <c r="A363" s="1">
         <v>0</v>
       </c>
@@ -17071,9 +17075,9 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="364" hidden="1" spans="1:4">
+    <row r="364" spans="1:4">
       <c r="A364" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>1089</v>
@@ -17096,7 +17100,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="366" hidden="1" spans="1:4">
+    <row r="366" spans="1:4">
       <c r="A366" s="1">
         <v>0</v>
       </c>
@@ -17110,7 +17114,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="367" hidden="1" spans="1:4">
+    <row r="367" spans="1:4">
       <c r="A367" s="1">
         <v>0</v>
       </c>
@@ -17124,7 +17128,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="368" hidden="1" spans="1:4">
+    <row r="368" spans="1:4">
       <c r="A368" s="1">
         <v>0</v>
       </c>
@@ -17204,9 +17208,9 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="375" hidden="1" spans="1:4">
+    <row r="375" spans="1:4">
       <c r="A375" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B375" s="1" t="s">
         <v>1121</v>
@@ -17229,7 +17233,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="377" hidden="1" spans="1:4">
+    <row r="377" spans="1:4">
       <c r="A377" s="1">
         <v>0</v>
       </c>
@@ -17265,7 +17269,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="380" ht="37.5" hidden="1" spans="1:4">
+    <row r="380" ht="48" spans="1:4">
       <c r="A380" s="1">
         <v>0</v>
       </c>
@@ -17356,7 +17360,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="388" hidden="1" spans="1:4">
+    <row r="388" spans="1:4">
       <c r="A388" s="1">
         <v>0</v>
       </c>
@@ -17414,7 +17418,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="393" hidden="1" spans="1:4">
+    <row r="393" spans="1:4">
       <c r="A393" s="1">
         <v>0</v>
       </c>
@@ -17736,7 +17740,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="422" hidden="1" spans="1:4">
+    <row r="422" spans="1:4">
       <c r="A422" s="1">
         <v>0</v>
       </c>
@@ -17849,7 +17853,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="432" hidden="1" spans="1:4">
+    <row r="432" spans="1:4">
       <c r="A432" s="1">
         <v>0</v>
       </c>
@@ -17863,9 +17867,9 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="433" hidden="1" spans="1:4">
+    <row r="433" spans="1:4">
       <c r="A433" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B433" s="1" t="s">
         <v>1294</v>
@@ -17888,7 +17892,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="435" hidden="1" spans="1:4">
+    <row r="435" spans="1:4">
       <c r="A435" s="1">
         <v>0</v>
       </c>
@@ -17902,9 +17906,9 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="436" hidden="1" spans="1:4">
+    <row r="436" spans="1:4">
       <c r="A436" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B436" s="1" t="s">
         <v>1303</v>
@@ -17938,9 +17942,9 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="439" hidden="1" spans="1:4">
+    <row r="439" spans="1:4">
       <c r="A439" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B439" s="1" t="s">
         <v>1312</v>
@@ -17974,7 +17978,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="442" hidden="1" spans="1:4">
+    <row r="442" spans="1:4">
       <c r="A442" s="1">
         <v>0</v>
       </c>
@@ -18098,9 +18102,9 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="453" hidden="1" spans="1:4">
+    <row r="453" spans="1:4">
       <c r="A453" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B453" s="1" t="s">
         <v>1354</v>
@@ -18145,9 +18149,9 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="457" hidden="1" spans="1:4">
+    <row r="457" spans="1:4">
       <c r="A457" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B457" s="1" t="s">
         <v>1366</v>
@@ -18170,7 +18174,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="459" hidden="1" spans="1:4">
+    <row r="459" spans="1:4">
       <c r="A459" s="1">
         <v>0</v>
       </c>
@@ -18206,7 +18210,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="462" hidden="1" spans="1:4">
+    <row r="462" spans="1:4">
       <c r="A462" s="1">
         <v>0</v>
       </c>
@@ -18231,7 +18235,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="464" hidden="1" spans="1:4">
+    <row r="464" spans="1:4">
       <c r="A464" s="1">
         <v>0</v>
       </c>
@@ -18267,7 +18271,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="467" hidden="1" spans="1:4">
+    <row r="467" spans="1:4">
       <c r="A467" s="1">
         <v>0</v>
       </c>
@@ -18281,7 +18285,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="468" hidden="1" spans="1:4">
+    <row r="468" spans="1:4">
       <c r="A468" s="1">
         <v>0</v>
       </c>
@@ -18416,7 +18420,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="480" hidden="1" spans="1:4">
+    <row r="480" spans="1:4">
       <c r="A480" s="1">
         <v>0</v>
       </c>
@@ -18430,7 +18434,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="481" hidden="1" spans="1:4">
+    <row r="481" spans="1:4">
       <c r="A481" s="1">
         <v>0</v>
       </c>
@@ -18512,7 +18516,7 @@
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B488" s="1" t="s">
         <v>1459</v>
@@ -18546,7 +18550,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="491" hidden="1" spans="1:4">
+    <row r="491" spans="1:4">
       <c r="A491" s="1">
         <v>1</v>
       </c>
@@ -18615,7 +18619,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="497" ht="37.5" hidden="1" spans="2:4">
+    <row r="497" ht="48" hidden="1" spans="2:4">
       <c r="B497" s="1" t="s">
         <v>1486</v>
       </c>
@@ -18650,7 +18654,7 @@
     </row>
     <row r="500" spans="1:4">
       <c r="A500" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B500" s="1" t="s">
         <v>1495</v>
@@ -18673,7 +18677,10 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="502" hidden="1" spans="2:4">
+    <row r="502" spans="1:4">
+      <c r="A502" s="1">
+        <v>1</v>
+      </c>
       <c r="B502" s="1" t="s">
         <v>1501</v>
       </c>
@@ -18728,7 +18735,10 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="507" hidden="1" spans="2:4">
+    <row r="507" spans="1:4">
+      <c r="A507" s="1">
+        <v>1</v>
+      </c>
       <c r="B507" s="1" t="s">
         <v>1516</v>
       </c>
@@ -18816,7 +18826,10 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="515" ht="37.5" hidden="1" spans="2:4">
+    <row r="515" ht="48" spans="1:4">
+      <c r="A515" s="1">
+        <v>0</v>
+      </c>
       <c r="B515" s="1" t="s">
         <v>1540</v>
       </c>
@@ -18882,7 +18895,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="521" ht="37.5" hidden="1" spans="2:4">
+    <row r="521" ht="48" hidden="1" spans="2:4">
       <c r="B521" s="1" t="s">
         <v>1558</v>
       </c>
@@ -18915,7 +18928,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="524" ht="37.5" hidden="1" spans="2:4">
+    <row r="524" ht="48" hidden="1" spans="2:4">
       <c r="B524" s="1" t="s">
         <v>1567</v>
       </c>
@@ -18948,7 +18961,10 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="527" hidden="1" spans="2:4">
+    <row r="527" spans="1:4">
+      <c r="A527" s="1">
+        <v>1</v>
+      </c>
       <c r="B527" s="1" t="s">
         <v>1576</v>
       </c>
@@ -19069,7 +19085,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="538" hidden="1" spans="2:4">
+    <row r="538" ht="48" hidden="1" spans="2:4">
       <c r="B538" s="1" t="s">
         <v>1609</v>
       </c>
@@ -19080,7 +19096,10 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="539" hidden="1" spans="2:4">
+    <row r="539" spans="1:4">
+      <c r="A539" s="1">
+        <v>0</v>
+      </c>
       <c r="B539" s="1" t="s">
         <v>1612</v>
       </c>
@@ -19212,7 +19231,10 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="551" hidden="1" spans="2:4">
+    <row r="551" spans="1:4">
+      <c r="A551" s="1">
+        <v>1</v>
+      </c>
       <c r="B551" s="1" t="s">
         <v>1648</v>
       </c>
@@ -19278,7 +19300,10 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="557" hidden="1" spans="2:4">
+    <row r="557" spans="1:4">
+      <c r="A557" s="1">
+        <v>1</v>
+      </c>
       <c r="B557" s="1" t="s">
         <v>1666</v>
       </c>
@@ -19311,7 +19336,10 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="560" hidden="1" spans="2:4">
+    <row r="560" spans="1:4">
+      <c r="A560" s="1">
+        <v>1</v>
+      </c>
       <c r="B560" s="1" t="s">
         <v>1675</v>
       </c>
@@ -19322,7 +19350,10 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="561" hidden="1" spans="2:4">
+    <row r="561" spans="1:4">
+      <c r="A561" s="1">
+        <v>1</v>
+      </c>
       <c r="B561" s="1" t="s">
         <v>1678</v>
       </c>
@@ -19344,7 +19375,10 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="563" hidden="1" spans="2:4">
+    <row r="563" spans="1:4">
+      <c r="A563" s="1">
+        <v>1</v>
+      </c>
       <c r="B563" s="1" t="s">
         <v>1684</v>
       </c>
@@ -19421,7 +19455,10 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="570" hidden="1" spans="2:4">
+    <row r="570" spans="1:4">
+      <c r="A570" s="1">
+        <v>1</v>
+      </c>
       <c r="B570" s="1" t="s">
         <v>1705</v>
       </c>
@@ -19465,7 +19502,10 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="574" hidden="1" spans="2:4">
+    <row r="574" spans="1:4">
+      <c r="A574" s="1">
+        <v>0</v>
+      </c>
       <c r="B574" s="1" t="s">
         <v>1717</v>
       </c>
@@ -19476,7 +19516,10 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="575" hidden="1" spans="2:4">
+    <row r="575" spans="1:4">
+      <c r="A575" s="1">
+        <v>1</v>
+      </c>
       <c r="B575" s="1" t="s">
         <v>1720</v>
       </c>
@@ -19487,7 +19530,10 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="576" hidden="1" spans="2:4">
+    <row r="576" spans="1:4">
+      <c r="A576" s="1">
+        <v>1</v>
+      </c>
       <c r="B576" s="1" t="s">
         <v>1723</v>
       </c>
@@ -19498,7 +19544,10 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="577" hidden="1" spans="2:4">
+    <row r="577" spans="1:4">
+      <c r="A577" s="1">
+        <v>1</v>
+      </c>
       <c r="B577" s="1" t="s">
         <v>1726</v>
       </c>
@@ -19542,7 +19591,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="581" hidden="1" spans="2:4">
+    <row r="581" ht="48" hidden="1" spans="2:4">
       <c r="B581" s="1" t="s">
         <v>1738</v>
       </c>
@@ -19553,7 +19602,10 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="582" hidden="1" spans="2:4">
+    <row r="582" spans="1:4">
+      <c r="A582" s="1">
+        <v>1</v>
+      </c>
       <c r="B582" s="1" t="s">
         <v>1741</v>
       </c>
@@ -19564,7 +19616,10 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="583" hidden="1" spans="2:4">
+    <row r="583" spans="1:4">
+      <c r="A583" s="1">
+        <v>1</v>
+      </c>
       <c r="B583" s="1" t="s">
         <v>1744</v>
       </c>
@@ -19608,7 +19663,10 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="587" hidden="1" spans="2:4">
+    <row r="587" spans="1:4">
+      <c r="A587" s="1">
+        <v>1</v>
+      </c>
       <c r="B587" s="1" t="s">
         <v>1756</v>
       </c>
@@ -19674,7 +19732,10 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="593" hidden="1" spans="2:4">
+    <row r="593" spans="1:4">
+      <c r="A593" s="1">
+        <v>0</v>
+      </c>
       <c r="B593" s="1" t="s">
         <v>1774</v>
       </c>
@@ -19751,7 +19812,10 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="600" hidden="1" spans="2:4">
+    <row r="600" spans="1:4">
+      <c r="A600" s="1">
+        <v>1</v>
+      </c>
       <c r="B600" s="1" t="s">
         <v>1795</v>
       </c>
@@ -19762,7 +19826,10 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="601" hidden="1" spans="2:4">
+    <row r="601" spans="1:4">
+      <c r="A601" s="1">
+        <v>1</v>
+      </c>
       <c r="B601" s="1" t="s">
         <v>1798</v>
       </c>
@@ -19817,7 +19884,10 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="606" hidden="1" spans="2:4">
+    <row r="606" spans="1:4">
+      <c r="A606" s="1">
+        <v>1</v>
+      </c>
       <c r="B606" s="1" t="s">
         <v>1813</v>
       </c>
@@ -19828,7 +19898,10 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="607" hidden="1" spans="2:4">
+    <row r="607" spans="1:4">
+      <c r="A607" s="1">
+        <v>1</v>
+      </c>
       <c r="B607" s="1" t="s">
         <v>1816</v>
       </c>
@@ -19839,7 +19912,10 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="608" hidden="1" spans="2:4">
+    <row r="608" spans="1:4">
+      <c r="A608" s="1">
+        <v>1</v>
+      </c>
       <c r="B608" s="1" t="s">
         <v>1819</v>
       </c>
@@ -19883,7 +19959,10 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="612" hidden="1" spans="2:4">
+    <row r="612" spans="1:4">
+      <c r="A612" s="1">
+        <v>1</v>
+      </c>
       <c r="B612" s="1" t="s">
         <v>1831</v>
       </c>
@@ -19905,7 +19984,10 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="614" hidden="1" spans="2:4">
+    <row r="614" spans="1:4">
+      <c r="A614" s="1">
+        <v>1</v>
+      </c>
       <c r="B614" s="1" t="s">
         <v>1837</v>
       </c>
@@ -20048,7 +20130,10 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="627" hidden="1" spans="2:4">
+    <row r="627" spans="1:4">
+      <c r="A627" s="1">
+        <v>1</v>
+      </c>
       <c r="B627" s="1" t="s">
         <v>1876</v>
       </c>
@@ -20092,7 +20177,10 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="631" ht="30" hidden="1" spans="2:4">
+    <row r="631" ht="48" spans="1:4">
+      <c r="A631" s="1">
+        <v>1</v>
+      </c>
       <c r="B631" s="1" t="s">
         <v>1888</v>
       </c>
@@ -20125,7 +20213,10 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="634" hidden="1" spans="2:4">
+    <row r="634" spans="1:4">
+      <c r="A634" s="1">
+        <v>1</v>
+      </c>
       <c r="B634" s="1" t="s">
         <v>1897</v>
       </c>
@@ -20169,7 +20260,10 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="638" hidden="1" spans="2:4">
+    <row r="638" spans="1:4">
+      <c r="A638" s="1">
+        <v>1</v>
+      </c>
       <c r="B638" s="1" t="s">
         <v>1909</v>
       </c>
@@ -20224,7 +20318,10 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="643" hidden="1" spans="2:4">
+    <row r="643" spans="1:4">
+      <c r="A643" s="1">
+        <v>1</v>
+      </c>
       <c r="B643" s="1" t="s">
         <v>1924</v>
       </c>
@@ -20246,7 +20343,10 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="645" hidden="1" spans="2:4">
+    <row r="645" spans="1:4">
+      <c r="A645" s="1">
+        <v>1</v>
+      </c>
       <c r="B645" s="1" t="s">
         <v>1930</v>
       </c>
@@ -20345,7 +20445,10 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="654" hidden="1" spans="2:4">
+    <row r="654" spans="1:4">
+      <c r="A654" s="1">
+        <v>1</v>
+      </c>
       <c r="B654" s="1" t="s">
         <v>1956</v>
       </c>
@@ -20367,7 +20470,10 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="656" hidden="1" spans="2:4">
+    <row r="656" spans="1:4">
+      <c r="A656" s="1">
+        <v>1</v>
+      </c>
       <c r="B656" s="1" t="s">
         <v>1962</v>
       </c>
@@ -20400,7 +20506,10 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="659" hidden="1" spans="2:4">
+    <row r="659" spans="1:4">
+      <c r="A659" s="1">
+        <v>1</v>
+      </c>
       <c r="B659" s="1" t="s">
         <v>1971</v>
       </c>
@@ -20411,7 +20520,10 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="660" hidden="1" spans="2:4">
+    <row r="660" spans="1:4">
+      <c r="A660" s="1">
+        <v>1</v>
+      </c>
       <c r="B660" s="1" t="s">
         <v>1974</v>
       </c>
@@ -20532,7 +20644,10 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="671" hidden="1" spans="2:4">
+    <row r="671" spans="1:4">
+      <c r="A671" s="1">
+        <v>1</v>
+      </c>
       <c r="B671" s="1" t="s">
         <v>2007</v>
       </c>
@@ -20576,7 +20691,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="675" hidden="1" spans="2:4">
+    <row r="675" ht="48" hidden="1" spans="2:4">
       <c r="B675" s="1" t="s">
         <v>2019</v>
       </c>
@@ -20587,7 +20702,10 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="676" hidden="1" spans="2:4">
+    <row r="676" spans="1:4">
+      <c r="A676" s="1">
+        <v>1</v>
+      </c>
       <c r="B676" s="1" t="s">
         <v>2022</v>
       </c>
@@ -20741,7 +20859,10 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="690" hidden="1" spans="2:4">
+    <row r="690" spans="1:4">
+      <c r="A690" s="1">
+        <v>1</v>
+      </c>
       <c r="B690" s="1" t="s">
         <v>2064</v>
       </c>
@@ -20763,7 +20884,10 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="692" hidden="1" spans="2:4">
+    <row r="692" spans="1:4">
+      <c r="A692" s="1">
+        <v>2</v>
+      </c>
       <c r="B692" s="1" t="s">
         <v>2070</v>
       </c>
@@ -20807,7 +20931,10 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="696" hidden="1" spans="2:4">
+    <row r="696" spans="1:4">
+      <c r="A696" s="1">
+        <v>1</v>
+      </c>
       <c r="B696" s="1" t="s">
         <v>2082</v>
       </c>
@@ -20939,7 +21066,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="708" hidden="1" spans="2:4">
+    <row r="708" ht="48" hidden="1" spans="2:4">
       <c r="B708" s="1" t="s">
         <v>2118</v>
       </c>
@@ -20950,7 +21077,10 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="709" hidden="1" spans="2:4">
+    <row r="709" spans="1:4">
+      <c r="A709" s="1">
+        <v>2</v>
+      </c>
       <c r="B709" s="1" t="s">
         <v>2121</v>
       </c>
@@ -21434,7 +21564,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="753" ht="37.5" hidden="1" spans="2:4">
+    <row r="753" ht="48" hidden="1" spans="2:4">
       <c r="B753" s="1" t="s">
         <v>2253</v>
       </c>
@@ -21522,7 +21652,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="761" ht="37.5" hidden="1" spans="2:4">
+    <row r="761" ht="48" hidden="1" spans="2:4">
       <c r="B761" s="1" t="s">
         <v>2277</v>
       </c>
@@ -22204,7 +22334,7 @@
         <v>2462</v>
       </c>
     </row>
-    <row r="823" ht="37.5" hidden="1" spans="2:4">
+    <row r="823" ht="48" hidden="1" spans="2:4">
       <c r="B823" s="1" t="s">
         <v>2463</v>
       </c>
@@ -22270,7 +22400,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="829" ht="37.5" hidden="1" spans="2:4">
+    <row r="829" ht="48" hidden="1" spans="2:4">
       <c r="B829" s="1" t="s">
         <v>2481</v>
       </c>
@@ -22622,7 +22752,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="861" ht="37.5" hidden="1" spans="2:4">
+    <row r="861" ht="48" hidden="1" spans="2:4">
       <c r="B861" s="1" t="s">
         <v>2576</v>
       </c>
@@ -22787,7 +22917,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="876" ht="37.5" hidden="1" spans="2:4">
+    <row r="876" ht="48" hidden="1" spans="2:4">
       <c r="B876" s="1" t="s">
         <v>2621</v>
       </c>
@@ -22996,7 +23126,7 @@
         <v>2677</v>
       </c>
     </row>
-    <row r="895" ht="37.5" hidden="1" spans="2:4">
+    <row r="895" ht="48" hidden="1" spans="2:4">
       <c r="B895" s="1" t="s">
         <v>2678</v>
       </c>
@@ -23029,7 +23159,7 @@
         <v>2686</v>
       </c>
     </row>
-    <row r="898" ht="37.5" hidden="1" spans="2:4">
+    <row r="898" ht="48" hidden="1" spans="2:4">
       <c r="B898" s="1" t="s">
         <v>2687</v>
       </c>
@@ -23139,7 +23269,7 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="908" ht="37.5" hidden="1" spans="2:4">
+    <row r="908" ht="48" hidden="1" spans="2:4">
       <c r="B908" s="1" t="s">
         <v>2717</v>
       </c>
@@ -23150,7 +23280,7 @@
         <v>2719</v>
       </c>
     </row>
-    <row r="909" hidden="1" spans="2:4">
+    <row r="909" ht="48" hidden="1" spans="2:4">
       <c r="B909" s="1" t="s">
         <v>2720</v>
       </c>
@@ -23161,7 +23291,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="910" hidden="1" spans="2:4">
+    <row r="910" ht="48" hidden="1" spans="2:4">
       <c r="B910" s="1" t="s">
         <v>2723</v>
       </c>
@@ -23381,7 +23511,7 @@
         <v>2782</v>
       </c>
     </row>
-    <row r="930" hidden="1" spans="2:4">
+    <row r="930" ht="48" hidden="1" spans="2:4">
       <c r="B930" s="1" t="s">
         <v>2783</v>
       </c>
@@ -23557,7 +23687,7 @@
         <v>2830</v>
       </c>
     </row>
-    <row r="946" hidden="1" spans="2:4">
+    <row r="946" ht="48" hidden="1" spans="2:4">
       <c r="B946" s="1" t="s">
         <v>2831</v>
       </c>
@@ -23634,7 +23764,7 @@
         <v>2851</v>
       </c>
     </row>
-    <row r="953" hidden="1" spans="2:4">
+    <row r="953" ht="48" hidden="1" spans="2:4">
       <c r="B953" s="1" t="s">
         <v>2852</v>
       </c>
@@ -23887,7 +24017,7 @@
         <v>2920</v>
       </c>
     </row>
-    <row r="976" ht="37.5" hidden="1" spans="2:4">
+    <row r="976" ht="48" hidden="1" spans="2:4">
       <c r="B976" s="1" t="s">
         <v>2921</v>
       </c>
@@ -23942,7 +24072,7 @@
         <v>2935</v>
       </c>
     </row>
-    <row r="981" ht="37.5" hidden="1" spans="2:4">
+    <row r="981" ht="48" hidden="1" spans="2:4">
       <c r="B981" s="1" t="s">
         <v>2936</v>
       </c>
@@ -24305,7 +24435,7 @@
         <v>3034</v>
       </c>
     </row>
-    <row r="1014" hidden="1" spans="2:4">
+    <row r="1014" ht="48" hidden="1" spans="2:4">
       <c r="B1014" s="1" t="s">
         <v>3035</v>
       </c>
@@ -24547,7 +24677,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="1036" ht="30" hidden="1" spans="2:4">
+    <row r="1036" ht="48" hidden="1" spans="2:4">
       <c r="B1036" s="1" t="s">
         <v>3101</v>
       </c>
@@ -24734,7 +24864,7 @@
         <v>3151</v>
       </c>
     </row>
-    <row r="1053" ht="37.5" hidden="1" spans="2:4">
+    <row r="1053" ht="48" hidden="1" spans="2:4">
       <c r="B1053" s="1" t="s">
         <v>3152</v>
       </c>
@@ -25064,7 +25194,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="1083" ht="37.5" hidden="1" spans="2:4">
+    <row r="1083" ht="48" hidden="1" spans="2:4">
       <c r="B1083" s="1" t="s">
         <v>3241</v>
       </c>
@@ -25141,7 +25271,7 @@
         <v>3261</v>
       </c>
     </row>
-    <row r="1090" ht="37.5" hidden="1" spans="2:4">
+    <row r="1090" ht="48" hidden="1" spans="2:4">
       <c r="B1090" s="1" t="s">
         <v>3262</v>
       </c>
@@ -25405,7 +25535,7 @@
         <v>3332</v>
       </c>
     </row>
-    <row r="1114" ht="37.5" hidden="1" spans="2:4">
+    <row r="1114" ht="48" hidden="1" spans="2:4">
       <c r="B1114" s="1" t="s">
         <v>3333</v>
       </c>
@@ -25548,7 +25678,7 @@
         <v>3371</v>
       </c>
     </row>
-    <row r="1127" ht="37.5" hidden="1" spans="2:4">
+    <row r="1127" ht="48" hidden="1" spans="2:4">
       <c r="B1127" s="1" t="s">
         <v>3372</v>
       </c>
@@ -26384,7 +26514,7 @@
         <v>3595</v>
       </c>
     </row>
-    <row r="1203" hidden="1" spans="2:4">
+    <row r="1203" ht="48" hidden="1" spans="2:4">
       <c r="B1203" s="1" t="s">
         <v>3596</v>
       </c>
@@ -26406,7 +26536,7 @@
         <v>3601</v>
       </c>
     </row>
-    <row r="1205" hidden="1" spans="2:4">
+    <row r="1205" ht="48" hidden="1" spans="2:4">
       <c r="B1205" s="1" t="s">
         <v>3602</v>
       </c>
@@ -26549,7 +26679,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="1218" hidden="1" spans="2:4">
+    <row r="1218" ht="48" hidden="1" spans="2:4">
       <c r="B1218" s="1" t="s">
         <v>3641</v>
       </c>
@@ -27410,10 +27540,12 @@
   </sheetData>
   <autoFilter ref="A1:A1295">
     <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="equal" val="2"/>
-        <customFilter operator="equal" val="3"/>
-      </customFilters>
+      <filters>
+        <filter val="0"/>
+        <filter val="1"/>
+        <filter val="2"/>
+        <filter val="3"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <sortState ref="A2:D1295">

--- a/Level 1.xlsx
+++ b/Level 1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17220" tabRatio="500"/>
+    <workbookView windowWidth="19410" windowHeight="8655" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -11855,10 +11855,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -11896,6 +11896,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -11910,8 +11917,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11949,9 +11964,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11965,9 +11980,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11981,6 +11995,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -11989,37 +12010,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12058,13 +12058,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12076,73 +12166,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12160,49 +12190,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12214,13 +12202,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12243,15 +12243,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -12267,17 +12258,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12297,11 +12291,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12334,142 +12334,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -12540,11 +12540,6 @@
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -12580,7 +12575,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2425700" y="5791200"/>
+          <a:off x="2728595" y="238125"/>
           <a:ext cx="190500" cy="139700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12623,7 +12618,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>6074</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>723</xdr:row>
       <xdr:rowOff>57426</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12647,8 +12642,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9805670" y="304800"/>
-          <a:ext cx="4806315" cy="2190750"/>
+          <a:off x="11031220" y="238125"/>
+          <a:ext cx="5406390" cy="1724025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12665,7 +12660,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -12912,6 +12907,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -12920,16 +12916,16 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D1295"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="A800" sqref="A800"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="10.8333333333333" style="1"/>
+    <col min="1" max="1" width="10.8296296296296" style="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="22.35" customWidth="1"/>
-    <col min="4" max="4" width="38.5" customWidth="1"/>
+    <col min="3" max="3" width="22.3481481481481" customWidth="1"/>
+    <col min="4" max="4" width="38.5037037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -12946,7 +12942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="48" hidden="1" spans="2:4">
+    <row r="2" ht="37.5" hidden="1" spans="2:4">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -12957,7 +12953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="48" hidden="1" spans="2:4">
+    <row r="3" ht="37.5" hidden="1" spans="2:4">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -12968,7 +12964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="48" hidden="1" spans="2:4">
+    <row r="4" ht="37.5" hidden="1" spans="2:4">
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
@@ -12979,7 +12975,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="48" spans="1:4">
+    <row r="5" ht="37.5" hidden="1" spans="1:4">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -12993,9 +12989,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="48" spans="1:4">
+    <row r="6" ht="37.5" hidden="1" spans="1:4">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>16</v>
@@ -13007,7 +13003,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="48" hidden="1" spans="2:4">
+    <row r="7" ht="37.5" hidden="1" spans="2:4">
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
@@ -13018,7 +13014,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" ht="48" hidden="1" spans="2:4">
+    <row r="8" ht="37.5" hidden="1" spans="2:4">
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -13029,7 +13025,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" ht="48" hidden="1" spans="2:4">
+    <row r="9" ht="37.5" hidden="1" spans="2:4">
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
@@ -13040,7 +13036,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" ht="48" hidden="1" spans="2:4">
+    <row r="10" ht="37.5" hidden="1" spans="2:4">
       <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
@@ -13051,7 +13047,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" ht="48" hidden="1" spans="2:4">
+    <row r="11" ht="37.5" hidden="1" spans="2:4">
       <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
@@ -13062,7 +13058,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" ht="48" hidden="1" spans="2:4">
+    <row r="12" ht="37.5" hidden="1" spans="2:4">
       <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
@@ -13073,7 +13069,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" ht="48" hidden="1" spans="2:4">
+    <row r="13" ht="37.5" hidden="1" spans="2:4">
       <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
@@ -13084,7 +13080,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" ht="48" hidden="1" spans="2:4">
+    <row r="14" ht="37.5" hidden="1" spans="2:4">
       <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
@@ -13095,7 +13091,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" ht="48" hidden="1" spans="2:4">
+    <row r="15" ht="37.5" hidden="1" spans="2:4">
       <c r="B15" s="1" t="s">
         <v>43</v>
       </c>
@@ -13315,7 +13311,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" hidden="1" spans="1:4">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -13329,7 +13325,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" hidden="1" spans="1:4">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -13552,7 +13548,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" ht="48" hidden="1" spans="2:4">
+    <row r="56" hidden="1" spans="2:4">
       <c r="B56" s="1" t="s">
         <v>166</v>
       </c>
@@ -13893,7 +13889,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="87" ht="48" hidden="1" spans="2:4">
+    <row r="87" hidden="1" spans="2:4">
       <c r="B87" s="1" t="s">
         <v>259</v>
       </c>
@@ -13937,7 +13933,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" hidden="1" spans="1:4">
       <c r="A91" s="1">
         <v>0</v>
       </c>
@@ -14028,7 +14024,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="99" ht="48" hidden="1" spans="2:4">
+    <row r="99" hidden="1" spans="2:4">
       <c r="B99" s="1" t="s">
         <v>295</v>
       </c>
@@ -14061,7 +14057,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="102" ht="48" hidden="1" spans="2:4">
+    <row r="102" hidden="1" spans="2:4">
       <c r="B102" s="1" t="s">
         <v>304</v>
       </c>
@@ -14083,7 +14079,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" hidden="1" spans="1:4">
       <c r="A104" s="1">
         <v>0</v>
       </c>
@@ -14163,7 +14159,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" hidden="1" spans="1:4">
       <c r="A111" s="1">
         <v>0</v>
       </c>
@@ -14265,7 +14261,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" hidden="1" spans="1:4">
       <c r="A120" s="1">
         <v>0</v>
       </c>
@@ -14312,7 +14308,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" hidden="1" spans="1:4">
       <c r="A124" s="1">
         <v>0</v>
       </c>
@@ -14425,7 +14421,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="134" ht="48" hidden="1" spans="2:4">
+    <row r="134" hidden="1" spans="2:4">
       <c r="B134" s="1" t="s">
         <v>400</v>
       </c>
@@ -14568,7 +14564,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" hidden="1" spans="1:4">
       <c r="A147" s="1">
         <v>0</v>
       </c>
@@ -14615,7 +14611,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="151" ht="48" hidden="1" spans="2:4">
+    <row r="151" hidden="1" spans="2:4">
       <c r="B151" s="1" t="s">
         <v>451</v>
       </c>
@@ -14670,7 +14666,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" hidden="1" spans="1:4">
       <c r="A156" s="1">
         <v>0</v>
       </c>
@@ -14684,7 +14680,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" hidden="1" spans="1:4">
       <c r="A157" s="1">
         <v>0</v>
       </c>
@@ -14709,7 +14705,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="159" ht="48" hidden="1" spans="2:4">
+    <row r="159" hidden="1" spans="2:4">
       <c r="B159" s="1" t="s">
         <v>475</v>
       </c>
@@ -14742,7 +14738,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" hidden="1" spans="1:4">
       <c r="A162" s="1">
         <v>0</v>
       </c>
@@ -14877,7 +14873,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="174" ht="48" hidden="1" spans="2:4">
+    <row r="174" ht="37.5" hidden="1" spans="2:4">
       <c r="B174" s="1" t="s">
         <v>520</v>
       </c>
@@ -14910,7 +14906,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" hidden="1" spans="1:4">
       <c r="A177" s="1">
         <v>0</v>
       </c>
@@ -14924,7 +14920,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="178" ht="48" hidden="1" spans="2:4">
+    <row r="178" hidden="1" spans="2:4">
       <c r="B178" s="1" t="s">
         <v>532</v>
       </c>
@@ -15012,7 +15008,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" hidden="1" spans="1:4">
       <c r="A186" s="1">
         <v>0</v>
       </c>
@@ -15048,7 +15044,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="189" ht="48" hidden="1" spans="2:4">
+    <row r="189" hidden="1" spans="2:4">
       <c r="B189" s="1" t="s">
         <v>564</v>
       </c>
@@ -15125,7 +15121,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" hidden="1" spans="1:4">
       <c r="A196" s="1">
         <v>0</v>
       </c>
@@ -15227,7 +15223,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="205" ht="48" hidden="1" spans="2:4">
+    <row r="205" hidden="1" spans="2:4">
       <c r="B205" s="1" t="s">
         <v>612</v>
       </c>
@@ -15238,7 +15234,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" hidden="1" spans="1:4">
       <c r="A206" s="1">
         <v>0</v>
       </c>
@@ -15263,7 +15259,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="208" ht="48" hidden="1" spans="2:4">
+    <row r="208" ht="37.5" hidden="1" spans="2:4">
       <c r="B208" s="1" t="s">
         <v>621</v>
       </c>
@@ -15307,7 +15303,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="212" ht="48" hidden="1" spans="2:4">
+    <row r="212" hidden="1" spans="2:4">
       <c r="B212" s="1" t="s">
         <v>633</v>
       </c>
@@ -15384,7 +15380,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" hidden="1" spans="1:4">
       <c r="A219" s="1">
         <v>0</v>
       </c>
@@ -15464,7 +15460,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" hidden="1" spans="1:4">
       <c r="A226" s="1">
         <v>0</v>
       </c>
@@ -15478,7 +15474,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="227" ht="48" hidden="1" spans="2:4">
+    <row r="227" ht="37.5" hidden="1" spans="2:4">
       <c r="B227" s="1" t="s">
         <v>678</v>
       </c>
@@ -15522,7 +15518,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" hidden="1" spans="1:4">
       <c r="A231" s="1">
         <v>0</v>
       </c>
@@ -15635,7 +15631,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" hidden="1" spans="1:4">
       <c r="A241" s="1">
         <v>0</v>
       </c>
@@ -15660,7 +15656,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" hidden="1" spans="1:4">
       <c r="A243" s="1">
         <v>0</v>
       </c>
@@ -15674,7 +15670,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" hidden="1" spans="1:4">
       <c r="A244" s="1">
         <v>0</v>
       </c>
@@ -15721,9 +15717,9 @@
         <v>740</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" hidden="1" spans="1:4">
       <c r="A248" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>741</v>
@@ -15790,7 +15786,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" hidden="1" spans="1:4">
       <c r="A254" s="1">
         <v>0</v>
       </c>
@@ -15804,9 +15800,9 @@
         <v>761</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" hidden="1" spans="1:4">
       <c r="A255" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>762</v>
@@ -15818,7 +15814,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" hidden="1" spans="1:4">
       <c r="A256" s="1">
         <v>0</v>
       </c>
@@ -15832,7 +15828,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" hidden="1" spans="1:4">
       <c r="A257" s="1">
         <v>0</v>
       </c>
@@ -15846,7 +15842,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" hidden="1" spans="1:4">
       <c r="A258" s="1">
         <v>0</v>
       </c>
@@ -15860,7 +15856,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="259" ht="48" hidden="1" spans="2:4">
+    <row r="259" ht="37.5" hidden="1" spans="2:4">
       <c r="B259" s="1" t="s">
         <v>774</v>
       </c>
@@ -15893,7 +15889,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" hidden="1" spans="1:4">
       <c r="A262" s="1">
         <v>0</v>
       </c>
@@ -15907,7 +15903,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" hidden="1" spans="1:4">
       <c r="A263" s="1">
         <v>0</v>
       </c>
@@ -15987,9 +15983,9 @@
         <v>806</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" hidden="1" spans="1:4">
       <c r="A270" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>807</v>
@@ -16012,7 +16008,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" hidden="1" spans="1:4">
       <c r="A272" s="1">
         <v>0</v>
       </c>
@@ -16039,7 +16035,7 @@
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>819</v>
@@ -16216,7 +16212,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" hidden="1" spans="1:4">
       <c r="A290" s="1">
         <v>0</v>
       </c>
@@ -16296,7 +16292,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" hidden="1" spans="1:4">
       <c r="A297" s="1">
         <v>0</v>
       </c>
@@ -16423,7 +16419,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="308" ht="48" hidden="1" spans="2:4">
+    <row r="308" ht="37.5" hidden="1" spans="2:4">
       <c r="B308" s="1" t="s">
         <v>921</v>
       </c>
@@ -16456,7 +16452,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" hidden="1" spans="1:4">
       <c r="A311" s="1">
         <v>0</v>
       </c>
@@ -16470,7 +16466,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" hidden="1" spans="1:4">
       <c r="A312" s="1">
         <v>0</v>
       </c>
@@ -16539,7 +16535,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" hidden="1" spans="1:4">
       <c r="A318" s="1">
         <v>0</v>
       </c>
@@ -16586,7 +16582,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" hidden="1" spans="1:4">
       <c r="A322" s="1">
         <v>0</v>
       </c>
@@ -16732,7 +16728,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" hidden="1" spans="1:4">
       <c r="A335" s="1">
         <v>0</v>
       </c>
@@ -16768,7 +16764,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" hidden="1" spans="1:4">
       <c r="A338" s="1">
         <v>0</v>
       </c>
@@ -16804,7 +16800,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" hidden="1" spans="1:4">
       <c r="A341" s="1">
         <v>0</v>
       </c>
@@ -16818,7 +16814,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" hidden="1" spans="1:4">
       <c r="A342" s="1">
         <v>0</v>
       </c>
@@ -16909,7 +16905,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" hidden="1" spans="1:4">
       <c r="A350" s="1">
         <v>0</v>
       </c>
@@ -16934,7 +16930,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" hidden="1" spans="1:4">
       <c r="A352" s="1">
         <v>0</v>
       </c>
@@ -16981,7 +16977,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="356" ht="48" hidden="1" spans="2:4">
+    <row r="356" hidden="1" spans="2:4">
       <c r="B356" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17014,7 +17010,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" hidden="1" spans="1:4">
       <c r="A359" s="1">
         <v>0</v>
       </c>
@@ -17028,7 +17024,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="360" ht="48" hidden="1" spans="2:4">
+    <row r="360" ht="37.5" hidden="1" spans="2:4">
       <c r="B360" s="1" t="s">
         <v>1077</v>
       </c>
@@ -17061,7 +17057,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" hidden="1" spans="1:4">
       <c r="A363" s="1">
         <v>0</v>
       </c>
@@ -17100,7 +17096,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" hidden="1" spans="1:4">
       <c r="A366" s="1">
         <v>0</v>
       </c>
@@ -17114,7 +17110,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" hidden="1" spans="1:4">
       <c r="A367" s="1">
         <v>0</v>
       </c>
@@ -17128,7 +17124,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" hidden="1" spans="1:4">
       <c r="A368" s="1">
         <v>0</v>
       </c>
@@ -17208,7 +17204,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" hidden="1" spans="1:4">
       <c r="A375" s="1">
         <v>0</v>
       </c>
@@ -17233,7 +17229,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" hidden="1" spans="1:4">
       <c r="A377" s="1">
         <v>0</v>
       </c>
@@ -17269,7 +17265,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="380" ht="48" spans="1:4">
+    <row r="380" ht="37.5" hidden="1" spans="1:4">
       <c r="A380" s="1">
         <v>0</v>
       </c>
@@ -17360,7 +17356,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" hidden="1" spans="1:4">
       <c r="A388" s="1">
         <v>0</v>
       </c>
@@ -17418,7 +17414,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" hidden="1" spans="1:4">
       <c r="A393" s="1">
         <v>0</v>
       </c>
@@ -17740,7 +17736,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" hidden="1" spans="1:4">
       <c r="A422" s="1">
         <v>0</v>
       </c>
@@ -17853,7 +17849,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" hidden="1" spans="1:4">
       <c r="A432" s="1">
         <v>0</v>
       </c>
@@ -17867,7 +17863,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" hidden="1" spans="1:4">
       <c r="A433" s="1">
         <v>0</v>
       </c>
@@ -17892,7 +17888,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" hidden="1" spans="1:4">
       <c r="A435" s="1">
         <v>0</v>
       </c>
@@ -17906,7 +17902,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" hidden="1" spans="1:4">
       <c r="A436" s="1">
         <v>0</v>
       </c>
@@ -17942,7 +17938,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" hidden="1" spans="1:4">
       <c r="A439" s="1">
         <v>0</v>
       </c>
@@ -17978,7 +17974,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" hidden="1" spans="1:4">
       <c r="A442" s="1">
         <v>0</v>
       </c>
@@ -18102,7 +18098,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" hidden="1" spans="1:4">
       <c r="A453" s="1">
         <v>0</v>
       </c>
@@ -18149,7 +18145,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" hidden="1" spans="1:4">
       <c r="A457" s="1">
         <v>0</v>
       </c>
@@ -18174,7 +18170,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
+    <row r="459" hidden="1" spans="1:4">
       <c r="A459" s="1">
         <v>0</v>
       </c>
@@ -18210,7 +18206,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
+    <row r="462" hidden="1" spans="1:4">
       <c r="A462" s="1">
         <v>0</v>
       </c>
@@ -18235,7 +18231,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
+    <row r="464" hidden="1" spans="1:4">
       <c r="A464" s="1">
         <v>0</v>
       </c>
@@ -18271,7 +18267,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
+    <row r="467" hidden="1" spans="1:4">
       <c r="A467" s="1">
         <v>0</v>
       </c>
@@ -18285,7 +18281,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
+    <row r="468" hidden="1" spans="1:4">
       <c r="A468" s="1">
         <v>0</v>
       </c>
@@ -18420,7 +18416,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="480" spans="1:4">
+    <row r="480" hidden="1" spans="1:4">
       <c r="A480" s="1">
         <v>0</v>
       </c>
@@ -18434,7 +18430,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="481" spans="1:4">
+    <row r="481" hidden="1" spans="1:4">
       <c r="A481" s="1">
         <v>0</v>
       </c>
@@ -18514,9 +18510,9 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
+    <row r="488" hidden="1" spans="1:4">
       <c r="A488" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B488" s="1" t="s">
         <v>1459</v>
@@ -18550,9 +18546,9 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
+    <row r="491" hidden="1" spans="1:4">
       <c r="A491" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B491" s="1" t="s">
         <v>1468</v>
@@ -18619,7 +18615,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="497" ht="48" hidden="1" spans="2:4">
+    <row r="497" ht="37.5" hidden="1" spans="2:4">
       <c r="B497" s="1" t="s">
         <v>1486</v>
       </c>
@@ -18652,9 +18648,9 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="500" spans="1:4">
+    <row r="500" hidden="1" spans="1:4">
       <c r="A500" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B500" s="1" t="s">
         <v>1495</v>
@@ -18677,9 +18673,9 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="502" spans="1:4">
+    <row r="502" hidden="1" spans="1:4">
       <c r="A502" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B502" s="1" t="s">
         <v>1501</v>
@@ -18735,9 +18731,9 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="507" spans="1:4">
+    <row r="507" hidden="1" spans="1:4">
       <c r="A507" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B507" s="1" t="s">
         <v>1516</v>
@@ -18826,7 +18822,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="515" ht="48" spans="1:4">
+    <row r="515" ht="37.5" hidden="1" spans="1:4">
       <c r="A515" s="1">
         <v>0</v>
       </c>
@@ -18895,7 +18891,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="521" ht="48" hidden="1" spans="2:4">
+    <row r="521" ht="37.5" hidden="1" spans="2:4">
       <c r="B521" s="1" t="s">
         <v>1558</v>
       </c>
@@ -18928,7 +18924,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="524" ht="48" hidden="1" spans="2:4">
+    <row r="524" ht="37.5" hidden="1" spans="2:4">
       <c r="B524" s="1" t="s">
         <v>1567</v>
       </c>
@@ -18961,9 +18957,9 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="527" spans="1:4">
+    <row r="527" hidden="1" spans="1:4">
       <c r="A527" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B527" s="1" t="s">
         <v>1576</v>
@@ -19085,7 +19081,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="538" ht="48" hidden="1" spans="2:4">
+    <row r="538" hidden="1" spans="2:4">
       <c r="B538" s="1" t="s">
         <v>1609</v>
       </c>
@@ -19096,7 +19092,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="539" spans="1:4">
+    <row r="539" hidden="1" spans="1:4">
       <c r="A539" s="1">
         <v>0</v>
       </c>
@@ -19231,9 +19227,9 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="551" spans="1:4">
+    <row r="551" hidden="1" spans="1:4">
       <c r="A551" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B551" s="1" t="s">
         <v>1648</v>
@@ -19336,9 +19332,9 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="560" spans="1:4">
+    <row r="560" hidden="1" spans="1:4">
       <c r="A560" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B560" s="1" t="s">
         <v>1675</v>
@@ -19350,9 +19346,9 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="561" spans="1:4">
+    <row r="561" hidden="1" spans="1:4">
       <c r="A561" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B561" s="1" t="s">
         <v>1678</v>
@@ -19375,9 +19371,9 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="563" spans="1:4">
+    <row r="563" hidden="1" spans="1:4">
       <c r="A563" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B563" s="1" t="s">
         <v>1684</v>
@@ -19455,9 +19451,9 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="570" spans="1:4">
+    <row r="570" hidden="1" spans="1:4">
       <c r="A570" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B570" s="1" t="s">
         <v>1705</v>
@@ -19502,7 +19498,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="574" spans="1:4">
+    <row r="574" hidden="1" spans="1:4">
       <c r="A574" s="1">
         <v>0</v>
       </c>
@@ -19516,9 +19512,9 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="575" spans="1:4">
+    <row r="575" hidden="1" spans="1:4">
       <c r="A575" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B575" s="1" t="s">
         <v>1720</v>
@@ -19530,9 +19526,9 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="576" spans="1:4">
+    <row r="576" hidden="1" spans="1:4">
       <c r="A576" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B576" s="1" t="s">
         <v>1723</v>
@@ -19544,9 +19540,9 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="577" spans="1:4">
+    <row r="577" hidden="1" spans="1:4">
       <c r="A577" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B577" s="1" t="s">
         <v>1726</v>
@@ -19591,7 +19587,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="581" ht="48" hidden="1" spans="2:4">
+    <row r="581" hidden="1" spans="2:4">
       <c r="B581" s="1" t="s">
         <v>1738</v>
       </c>
@@ -19602,9 +19598,9 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="582" spans="1:4">
+    <row r="582" hidden="1" spans="1:4">
       <c r="A582" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B582" s="1" t="s">
         <v>1741</v>
@@ -19616,9 +19612,9 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="583" spans="1:4">
+    <row r="583" hidden="1" spans="1:4">
       <c r="A583" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B583" s="1" t="s">
         <v>1744</v>
@@ -19663,9 +19659,9 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="587" spans="1:4">
+    <row r="587" hidden="1" spans="1:4">
       <c r="A587" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B587" s="1" t="s">
         <v>1756</v>
@@ -19732,7 +19728,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="593" spans="1:4">
+    <row r="593" hidden="1" spans="1:4">
       <c r="A593" s="1">
         <v>0</v>
       </c>
@@ -19812,9 +19808,9 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="600" spans="1:4">
+    <row r="600" hidden="1" spans="1:4">
       <c r="A600" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B600" s="1" t="s">
         <v>1795</v>
@@ -19826,9 +19822,9 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="601" spans="1:4">
+    <row r="601" hidden="1" spans="1:4">
       <c r="A601" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B601" s="1" t="s">
         <v>1798</v>
@@ -19884,9 +19880,9 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="606" spans="1:4">
+    <row r="606" hidden="1" spans="1:4">
       <c r="A606" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B606" s="1" t="s">
         <v>1813</v>
@@ -19898,9 +19894,9 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="607" spans="1:4">
+    <row r="607" hidden="1" spans="1:4">
       <c r="A607" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B607" s="1" t="s">
         <v>1816</v>
@@ -19912,9 +19908,9 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="608" spans="1:4">
+    <row r="608" hidden="1" spans="1:4">
       <c r="A608" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B608" s="1" t="s">
         <v>1819</v>
@@ -19959,9 +19955,9 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="612" spans="1:4">
+    <row r="612" hidden="1" spans="1:4">
       <c r="A612" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B612" s="1" t="s">
         <v>1831</v>
@@ -19984,9 +19980,9 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="614" spans="1:4">
+    <row r="614" hidden="1" spans="1:4">
       <c r="A614" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B614" s="1" t="s">
         <v>1837</v>
@@ -20130,9 +20126,9 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="627" spans="1:4">
+    <row r="627" hidden="1" spans="1:4">
       <c r="A627" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B627" s="1" t="s">
         <v>1876</v>
@@ -20177,9 +20173,9 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="631" ht="48" spans="1:4">
+    <row r="631" hidden="1" spans="1:4">
       <c r="A631" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B631" s="1" t="s">
         <v>1888</v>
@@ -20213,9 +20209,9 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="634" spans="1:4">
+    <row r="634" hidden="1" spans="1:4">
       <c r="A634" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B634" s="1" t="s">
         <v>1897</v>
@@ -20260,9 +20256,9 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="638" spans="1:4">
+    <row r="638" hidden="1" spans="1:4">
       <c r="A638" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B638" s="1" t="s">
         <v>1909</v>
@@ -20318,9 +20314,9 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="643" spans="1:4">
+    <row r="643" hidden="1" spans="1:4">
       <c r="A643" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B643" s="1" t="s">
         <v>1924</v>
@@ -20343,9 +20339,9 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="645" spans="1:4">
+    <row r="645" hidden="1" spans="1:4">
       <c r="A645" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B645" s="1" t="s">
         <v>1930</v>
@@ -20445,9 +20441,9 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="654" spans="1:4">
+    <row r="654" hidden="1" spans="1:4">
       <c r="A654" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B654" s="1" t="s">
         <v>1956</v>
@@ -20470,9 +20466,9 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="656" spans="1:4">
+    <row r="656" hidden="1" spans="1:4">
       <c r="A656" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B656" s="1" t="s">
         <v>1962</v>
@@ -20506,9 +20502,9 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="659" spans="1:4">
+    <row r="659" hidden="1" spans="1:4">
       <c r="A659" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B659" s="1" t="s">
         <v>1971</v>
@@ -20520,9 +20516,9 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="660" spans="1:4">
+    <row r="660" hidden="1" spans="1:4">
       <c r="A660" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B660" s="1" t="s">
         <v>1974</v>
@@ -20644,9 +20640,9 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="671" spans="1:4">
+    <row r="671" hidden="1" spans="1:4">
       <c r="A671" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B671" s="1" t="s">
         <v>2007</v>
@@ -20691,7 +20687,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="675" ht="48" hidden="1" spans="2:4">
+    <row r="675" hidden="1" spans="2:4">
       <c r="B675" s="1" t="s">
         <v>2019</v>
       </c>
@@ -20702,9 +20698,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="676" spans="1:4">
+    <row r="676" hidden="1" spans="1:4">
       <c r="A676" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B676" s="1" t="s">
         <v>2022</v>
@@ -20859,9 +20855,9 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="690" spans="1:4">
+    <row r="690" hidden="1" spans="1:4">
       <c r="A690" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B690" s="1" t="s">
         <v>2064</v>
@@ -20884,7 +20880,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="692" spans="1:4">
+    <row r="692" hidden="1" spans="1:4">
       <c r="A692" s="1">
         <v>2</v>
       </c>
@@ -20931,9 +20927,9 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="696" spans="1:4">
+    <row r="696" hidden="1" spans="1:4">
       <c r="A696" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B696" s="1" t="s">
         <v>2082</v>
@@ -21066,7 +21062,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="708" ht="48" hidden="1" spans="2:4">
+    <row r="708" hidden="1" spans="2:4">
       <c r="B708" s="1" t="s">
         <v>2118</v>
       </c>
@@ -21077,9 +21073,9 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="709" spans="1:4">
+    <row r="709" hidden="1" spans="1:4">
       <c r="A709" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B709" s="1" t="s">
         <v>2121</v>
@@ -21113,7 +21109,10 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="712" hidden="1" spans="2:4">
+    <row r="712" spans="1:4">
+      <c r="A712" s="1">
+        <v>1</v>
+      </c>
       <c r="B712" s="1" t="s">
         <v>2130</v>
       </c>
@@ -21146,7 +21145,10 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="715" hidden="1" spans="2:4">
+    <row r="715" spans="1:4">
+      <c r="A715" s="1">
+        <v>1</v>
+      </c>
       <c r="B715" s="1" t="s">
         <v>2139</v>
       </c>
@@ -21190,7 +21192,10 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="719" hidden="1" spans="2:4">
+    <row r="719" spans="1:4">
+      <c r="A719" s="1">
+        <v>1</v>
+      </c>
       <c r="B719" s="1" t="s">
         <v>2151</v>
       </c>
@@ -21245,7 +21250,10 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="724" hidden="1" spans="2:4">
+    <row r="724" spans="1:4">
+      <c r="A724" s="1">
+        <v>1</v>
+      </c>
       <c r="B724" s="1" t="s">
         <v>2166</v>
       </c>
@@ -21256,7 +21264,10 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="725" hidden="1" spans="2:4">
+    <row r="725" spans="1:4">
+      <c r="A725" s="1">
+        <v>1</v>
+      </c>
       <c r="B725" s="1" t="s">
         <v>2169</v>
       </c>
@@ -21289,7 +21300,10 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="728" hidden="1" spans="2:4">
+    <row r="728" spans="1:4">
+      <c r="A728" s="1">
+        <v>1</v>
+      </c>
       <c r="B728" s="1" t="s">
         <v>2178</v>
       </c>
@@ -21300,7 +21314,10 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="729" hidden="1" spans="2:4">
+    <row r="729" spans="1:4">
+      <c r="A729" s="1">
+        <v>1</v>
+      </c>
       <c r="B729" s="1" t="s">
         <v>2181</v>
       </c>
@@ -21344,7 +21361,10 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="733" hidden="1" spans="2:4">
+    <row r="733" spans="1:4">
+      <c r="A733" s="1">
+        <v>1</v>
+      </c>
       <c r="B733" s="1" t="s">
         <v>2193</v>
       </c>
@@ -21377,7 +21397,10 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="736" hidden="1" spans="2:4">
+    <row r="736" spans="1:4">
+      <c r="A736" s="1">
+        <v>1</v>
+      </c>
       <c r="B736" s="1" t="s">
         <v>2202</v>
       </c>
@@ -21443,7 +21466,10 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="742" hidden="1" spans="2:4">
+    <row r="742" spans="1:4">
+      <c r="A742" s="1">
+        <v>1</v>
+      </c>
       <c r="B742" s="1" t="s">
         <v>2220</v>
       </c>
@@ -21520,7 +21546,10 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="749" hidden="1" spans="2:4">
+    <row r="749" spans="1:4">
+      <c r="A749" s="1">
+        <v>1</v>
+      </c>
       <c r="B749" s="1" t="s">
         <v>2241</v>
       </c>
@@ -21564,7 +21593,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="753" ht="48" hidden="1" spans="2:4">
+    <row r="753" ht="37.5" hidden="1" spans="2:4">
       <c r="B753" s="1" t="s">
         <v>2253</v>
       </c>
@@ -21652,7 +21681,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="761" ht="48" hidden="1" spans="2:4">
+    <row r="761" ht="37.5" hidden="1" spans="2:4">
       <c r="B761" s="1" t="s">
         <v>2277</v>
       </c>
@@ -21784,7 +21813,10 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="773" hidden="1" spans="2:4">
+    <row r="773" spans="1:4">
+      <c r="A773" s="1">
+        <v>1</v>
+      </c>
       <c r="B773" s="1" t="s">
         <v>2313</v>
       </c>
@@ -21839,7 +21871,10 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="778" hidden="1" spans="2:4">
+    <row r="778" spans="1:4">
+      <c r="A778" s="1">
+        <v>1</v>
+      </c>
       <c r="B778" s="1" t="s">
         <v>2328</v>
       </c>
@@ -21850,7 +21885,10 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="779" hidden="1" spans="2:4">
+    <row r="779" spans="1:4">
+      <c r="A779" s="1">
+        <v>1</v>
+      </c>
       <c r="B779" s="1" t="s">
         <v>2331</v>
       </c>
@@ -21861,7 +21899,10 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="780" hidden="1" spans="2:4">
+    <row r="780" spans="1:4">
+      <c r="A780" s="1">
+        <v>1</v>
+      </c>
       <c r="B780" s="1" t="s">
         <v>2334</v>
       </c>
@@ -21916,7 +21957,10 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="785" hidden="1" spans="2:4">
+    <row r="785" spans="1:4">
+      <c r="A785" s="1">
+        <v>1</v>
+      </c>
       <c r="B785" s="1" t="s">
         <v>2349</v>
       </c>
@@ -21938,7 +21982,10 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="787" hidden="1" spans="2:4">
+    <row r="787" spans="1:4">
+      <c r="A787" s="1">
+        <v>1</v>
+      </c>
       <c r="B787" s="1" t="s">
         <v>2355</v>
       </c>
@@ -22026,7 +22073,10 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="795" hidden="1" spans="2:4">
+    <row r="795" spans="1:4">
+      <c r="A795" s="1">
+        <v>1</v>
+      </c>
       <c r="B795" s="1" t="s">
         <v>2379</v>
       </c>
@@ -22070,7 +22120,10 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="799" hidden="1" spans="2:4">
+    <row r="799" spans="1:4">
+      <c r="A799" s="1">
+        <v>1</v>
+      </c>
       <c r="B799" s="1" t="s">
         <v>2391</v>
       </c>
@@ -22081,7 +22134,10 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="800" hidden="1" spans="2:4">
+    <row r="800" spans="1:4">
+      <c r="A800" s="1">
+        <v>1</v>
+      </c>
       <c r="B800" s="1" t="s">
         <v>2394</v>
       </c>
@@ -22334,7 +22390,7 @@
         <v>2462</v>
       </c>
     </row>
-    <row r="823" ht="48" hidden="1" spans="2:4">
+    <row r="823" ht="37.5" hidden="1" spans="2:4">
       <c r="B823" s="1" t="s">
         <v>2463</v>
       </c>
@@ -22400,7 +22456,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="829" ht="48" hidden="1" spans="2:4">
+    <row r="829" ht="37.5" hidden="1" spans="2:4">
       <c r="B829" s="1" t="s">
         <v>2481</v>
       </c>
@@ -22752,7 +22808,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="861" ht="48" hidden="1" spans="2:4">
+    <row r="861" ht="37.5" hidden="1" spans="2:4">
       <c r="B861" s="1" t="s">
         <v>2576</v>
       </c>
@@ -22917,7 +22973,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="876" ht="48" hidden="1" spans="2:4">
+    <row r="876" ht="37.5" hidden="1" spans="2:4">
       <c r="B876" s="1" t="s">
         <v>2621</v>
       </c>
@@ -23126,7 +23182,7 @@
         <v>2677</v>
       </c>
     </row>
-    <row r="895" ht="48" hidden="1" spans="2:4">
+    <row r="895" ht="37.5" hidden="1" spans="2:4">
       <c r="B895" s="1" t="s">
         <v>2678</v>
       </c>
@@ -23159,7 +23215,7 @@
         <v>2686</v>
       </c>
     </row>
-    <row r="898" ht="48" hidden="1" spans="2:4">
+    <row r="898" ht="37.5" hidden="1" spans="2:4">
       <c r="B898" s="1" t="s">
         <v>2687</v>
       </c>
@@ -23269,7 +23325,7 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="908" ht="48" hidden="1" spans="2:4">
+    <row r="908" ht="37.5" hidden="1" spans="2:4">
       <c r="B908" s="1" t="s">
         <v>2717</v>
       </c>
@@ -23280,7 +23336,7 @@
         <v>2719</v>
       </c>
     </row>
-    <row r="909" ht="48" hidden="1" spans="2:4">
+    <row r="909" hidden="1" spans="2:4">
       <c r="B909" s="1" t="s">
         <v>2720</v>
       </c>
@@ -23291,7 +23347,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="910" ht="48" hidden="1" spans="2:4">
+    <row r="910" hidden="1" spans="2:4">
       <c r="B910" s="1" t="s">
         <v>2723</v>
       </c>
@@ -23511,7 +23567,7 @@
         <v>2782</v>
       </c>
     </row>
-    <row r="930" ht="48" hidden="1" spans="2:4">
+    <row r="930" hidden="1" spans="2:4">
       <c r="B930" s="1" t="s">
         <v>2783</v>
       </c>
@@ -23687,7 +23743,7 @@
         <v>2830</v>
       </c>
     </row>
-    <row r="946" ht="48" hidden="1" spans="2:4">
+    <row r="946" hidden="1" spans="2:4">
       <c r="B946" s="1" t="s">
         <v>2831</v>
       </c>
@@ -23764,7 +23820,7 @@
         <v>2851</v>
       </c>
     </row>
-    <row r="953" ht="48" hidden="1" spans="2:4">
+    <row r="953" hidden="1" spans="2:4">
       <c r="B953" s="1" t="s">
         <v>2852</v>
       </c>
@@ -24017,7 +24073,7 @@
         <v>2920</v>
       </c>
     </row>
-    <row r="976" ht="48" hidden="1" spans="2:4">
+    <row r="976" ht="37.5" hidden="1" spans="2:4">
       <c r="B976" s="1" t="s">
         <v>2921</v>
       </c>
@@ -24072,7 +24128,7 @@
         <v>2935</v>
       </c>
     </row>
-    <row r="981" ht="48" hidden="1" spans="2:4">
+    <row r="981" ht="37.5" hidden="1" spans="2:4">
       <c r="B981" s="1" t="s">
         <v>2936</v>
       </c>
@@ -24435,7 +24491,7 @@
         <v>3034</v>
       </c>
     </row>
-    <row r="1014" ht="48" hidden="1" spans="2:4">
+    <row r="1014" hidden="1" spans="2:4">
       <c r="B1014" s="1" t="s">
         <v>3035</v>
       </c>
@@ -24677,7 +24733,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="1036" ht="48" hidden="1" spans="2:4">
+    <row r="1036" hidden="1" spans="2:4">
       <c r="B1036" s="1" t="s">
         <v>3101</v>
       </c>
@@ -24864,7 +24920,7 @@
         <v>3151</v>
       </c>
     </row>
-    <row r="1053" ht="48" hidden="1" spans="2:4">
+    <row r="1053" ht="37.5" hidden="1" spans="2:4">
       <c r="B1053" s="1" t="s">
         <v>3152</v>
       </c>
@@ -25194,7 +25250,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="1083" ht="48" hidden="1" spans="2:4">
+    <row r="1083" ht="37.5" hidden="1" spans="2:4">
       <c r="B1083" s="1" t="s">
         <v>3241</v>
       </c>
@@ -25271,7 +25327,7 @@
         <v>3261</v>
       </c>
     </row>
-    <row r="1090" ht="48" hidden="1" spans="2:4">
+    <row r="1090" ht="37.5" hidden="1" spans="2:4">
       <c r="B1090" s="1" t="s">
         <v>3262</v>
       </c>
@@ -25535,7 +25591,7 @@
         <v>3332</v>
       </c>
     </row>
-    <row r="1114" ht="48" hidden="1" spans="2:4">
+    <row r="1114" ht="37.5" hidden="1" spans="2:4">
       <c r="B1114" s="1" t="s">
         <v>3333</v>
       </c>
@@ -25678,7 +25734,7 @@
         <v>3371</v>
       </c>
     </row>
-    <row r="1127" ht="48" hidden="1" spans="2:4">
+    <row r="1127" ht="37.5" hidden="1" spans="2:4">
       <c r="B1127" s="1" t="s">
         <v>3372</v>
       </c>
@@ -26514,7 +26570,7 @@
         <v>3595</v>
       </c>
     </row>
-    <row r="1203" ht="48" hidden="1" spans="2:4">
+    <row r="1203" hidden="1" spans="2:4">
       <c r="B1203" s="1" t="s">
         <v>3596</v>
       </c>
@@ -26536,7 +26592,7 @@
         <v>3601</v>
       </c>
     </row>
-    <row r="1205" ht="48" hidden="1" spans="2:4">
+    <row r="1205" hidden="1" spans="2:4">
       <c r="B1205" s="1" t="s">
         <v>3602</v>
       </c>
@@ -26679,7 +26735,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="1218" ht="48" hidden="1" spans="2:4">
+    <row r="1218" hidden="1" spans="2:4">
       <c r="B1218" s="1" t="s">
         <v>3641</v>
       </c>
@@ -27540,12 +27596,9 @@
   </sheetData>
   <autoFilter ref="A1:A1295">
     <filterColumn colId="0">
-      <filters>
-        <filter val="0"/>
-        <filter val="1"/>
-        <filter val="2"/>
-        <filter val="3"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="equal" val="1"/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <sortState ref="A2:D1295">

--- a/Level 1.xlsx
+++ b/Level 1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19410" windowHeight="8655" tabRatio="500"/>
+    <workbookView windowHeight="17220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -11855,10 +11855,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -11882,21 +11882,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11917,6 +11927,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -11926,15 +11943,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11956,11 +11965,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -11972,16 +11980,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12004,7 +12004,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12012,14 +12019,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12046,60 +12046,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -12112,7 +12058,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12124,7 +12106,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12136,13 +12124,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12154,31 +12190,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12190,19 +12202,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12214,7 +12214,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12237,8 +12237,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12261,17 +12276,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12287,6 +12293,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12308,174 +12325,157 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -12540,6 +12540,11 @@
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -12575,7 +12580,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2728595" y="238125"/>
+          <a:off x="2425700" y="304800"/>
           <a:ext cx="190500" cy="139700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12618,7 +12623,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>6074</xdr:colOff>
-      <xdr:row>723</xdr:row>
+      <xdr:row>904</xdr:row>
       <xdr:rowOff>57426</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12642,8 +12647,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11031220" y="238125"/>
-          <a:ext cx="5406390" cy="1724025"/>
+          <a:off x="9805670" y="304800"/>
+          <a:ext cx="4806315" cy="2190750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12660,7 +12665,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4C4C4C"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -12907,7 +12912,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -12916,16 +12920,16 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D1295"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="A800" sqref="A800"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H960" sqref="H960"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="10.8296296296296" style="1"/>
+    <col min="1" max="1" width="10.8333333333333" style="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="22.3481481481481" customWidth="1"/>
-    <col min="4" max="4" width="38.5037037037037" customWidth="1"/>
+    <col min="3" max="3" width="22.35" customWidth="1"/>
+    <col min="4" max="4" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -12942,7 +12946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="37.5" hidden="1" spans="2:4">
+    <row r="2" ht="48" hidden="1" spans="2:4">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -12953,7 +12957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="37.5" hidden="1" spans="2:4">
+    <row r="3" ht="48" hidden="1" spans="2:4">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -12964,7 +12968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="37.5" hidden="1" spans="2:4">
+    <row r="4" ht="48" hidden="1" spans="2:4">
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
@@ -12975,7 +12979,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="37.5" hidden="1" spans="1:4">
+    <row r="5" ht="48" hidden="1" spans="1:4">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -12989,7 +12993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="37.5" hidden="1" spans="1:4">
+    <row r="6" ht="48" hidden="1" spans="1:4">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -13003,7 +13007,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="37.5" hidden="1" spans="2:4">
+    <row r="7" ht="48" hidden="1" spans="2:4">
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
@@ -13014,7 +13018,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" ht="37.5" hidden="1" spans="2:4">
+    <row r="8" ht="48" hidden="1" spans="2:4">
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -13025,7 +13029,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" ht="37.5" hidden="1" spans="2:4">
+    <row r="9" ht="48" hidden="1" spans="2:4">
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
@@ -13036,7 +13040,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" ht="37.5" hidden="1" spans="2:4">
+    <row r="10" ht="48" hidden="1" spans="2:4">
       <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
@@ -13047,7 +13051,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" ht="37.5" hidden="1" spans="2:4">
+    <row r="11" ht="48" hidden="1" spans="2:4">
       <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
@@ -13058,7 +13062,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" ht="37.5" hidden="1" spans="2:4">
+    <row r="12" ht="48" hidden="1" spans="2:4">
       <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
@@ -13069,7 +13073,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" ht="37.5" hidden="1" spans="2:4">
+    <row r="13" ht="48" hidden="1" spans="2:4">
       <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
@@ -13080,7 +13084,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" ht="37.5" hidden="1" spans="2:4">
+    <row r="14" ht="48" hidden="1" spans="2:4">
       <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
@@ -13091,7 +13095,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" ht="37.5" hidden="1" spans="2:4">
+    <row r="15" ht="48" hidden="1" spans="2:4">
       <c r="B15" s="1" t="s">
         <v>43</v>
       </c>
@@ -13548,7 +13552,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" hidden="1" spans="2:4">
+    <row r="56" ht="48" hidden="1" spans="2:4">
       <c r="B56" s="1" t="s">
         <v>166</v>
       </c>
@@ -13889,7 +13893,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="87" hidden="1" spans="2:4">
+    <row r="87" ht="48" hidden="1" spans="2:4">
       <c r="B87" s="1" t="s">
         <v>259</v>
       </c>
@@ -14024,7 +14028,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="99" hidden="1" spans="2:4">
+    <row r="99" ht="48" hidden="1" spans="2:4">
       <c r="B99" s="1" t="s">
         <v>295</v>
       </c>
@@ -14057,7 +14061,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="102" hidden="1" spans="2:4">
+    <row r="102" ht="48" hidden="1" spans="2:4">
       <c r="B102" s="1" t="s">
         <v>304</v>
       </c>
@@ -14421,7 +14425,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="134" hidden="1" spans="2:4">
+    <row r="134" ht="48" hidden="1" spans="2:4">
       <c r="B134" s="1" t="s">
         <v>400</v>
       </c>
@@ -14611,7 +14615,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="151" hidden="1" spans="2:4">
+    <row r="151" ht="48" hidden="1" spans="2:4">
       <c r="B151" s="1" t="s">
         <v>451</v>
       </c>
@@ -14705,7 +14709,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="159" hidden="1" spans="2:4">
+    <row r="159" ht="48" hidden="1" spans="2:4">
       <c r="B159" s="1" t="s">
         <v>475</v>
       </c>
@@ -14873,7 +14877,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="174" ht="37.5" hidden="1" spans="2:4">
+    <row r="174" ht="48" hidden="1" spans="2:4">
       <c r="B174" s="1" t="s">
         <v>520</v>
       </c>
@@ -14920,7 +14924,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="178" hidden="1" spans="2:4">
+    <row r="178" ht="48" hidden="1" spans="2:4">
       <c r="B178" s="1" t="s">
         <v>532</v>
       </c>
@@ -15044,7 +15048,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="189" hidden="1" spans="2:4">
+    <row r="189" ht="48" hidden="1" spans="2:4">
       <c r="B189" s="1" t="s">
         <v>564</v>
       </c>
@@ -15223,7 +15227,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="205" hidden="1" spans="2:4">
+    <row r="205" ht="48" hidden="1" spans="2:4">
       <c r="B205" s="1" t="s">
         <v>612</v>
       </c>
@@ -15259,7 +15263,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="208" ht="37.5" hidden="1" spans="2:4">
+    <row r="208" ht="48" hidden="1" spans="2:4">
       <c r="B208" s="1" t="s">
         <v>621</v>
       </c>
@@ -15303,7 +15307,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="212" hidden="1" spans="2:4">
+    <row r="212" ht="48" hidden="1" spans="2:4">
       <c r="B212" s="1" t="s">
         <v>633</v>
       </c>
@@ -15474,7 +15478,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="227" ht="37.5" hidden="1" spans="2:4">
+    <row r="227" ht="48" hidden="1" spans="2:4">
       <c r="B227" s="1" t="s">
         <v>678</v>
       </c>
@@ -15856,7 +15860,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="259" ht="37.5" hidden="1" spans="2:4">
+    <row r="259" ht="48" hidden="1" spans="2:4">
       <c r="B259" s="1" t="s">
         <v>774</v>
       </c>
@@ -16306,9 +16310,9 @@
         <v>890</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" hidden="1" spans="1:4">
       <c r="A298" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>891</v>
@@ -16419,7 +16423,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="308" ht="37.5" hidden="1" spans="2:4">
+    <row r="308" ht="48" hidden="1" spans="2:4">
       <c r="B308" s="1" t="s">
         <v>921</v>
       </c>
@@ -16977,7 +16981,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="356" hidden="1" spans="2:4">
+    <row r="356" ht="48" hidden="1" spans="2:4">
       <c r="B356" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17024,7 +17028,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="360" ht="37.5" hidden="1" spans="2:4">
+    <row r="360" ht="48" hidden="1" spans="2:4">
       <c r="B360" s="1" t="s">
         <v>1077</v>
       </c>
@@ -17071,9 +17075,9 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" hidden="1" spans="1:4">
       <c r="A364" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>1089</v>
@@ -17265,7 +17269,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="380" ht="37.5" hidden="1" spans="1:4">
+    <row r="380" ht="48" hidden="1" spans="1:4">
       <c r="A380" s="1">
         <v>0</v>
       </c>
@@ -18615,7 +18619,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="497" ht="37.5" hidden="1" spans="2:4">
+    <row r="497" ht="48" hidden="1" spans="2:4">
       <c r="B497" s="1" t="s">
         <v>1486</v>
       </c>
@@ -18822,7 +18826,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="515" ht="37.5" hidden="1" spans="1:4">
+    <row r="515" ht="48" hidden="1" spans="1:4">
       <c r="A515" s="1">
         <v>0</v>
       </c>
@@ -18891,7 +18895,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="521" ht="37.5" hidden="1" spans="2:4">
+    <row r="521" ht="48" hidden="1" spans="2:4">
       <c r="B521" s="1" t="s">
         <v>1558</v>
       </c>
@@ -18924,7 +18928,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="524" ht="37.5" hidden="1" spans="2:4">
+    <row r="524" ht="48" hidden="1" spans="2:4">
       <c r="B524" s="1" t="s">
         <v>1567</v>
       </c>
@@ -19081,7 +19085,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="538" hidden="1" spans="2:4">
+    <row r="538" ht="48" hidden="1" spans="2:4">
       <c r="B538" s="1" t="s">
         <v>1609</v>
       </c>
@@ -19296,9 +19300,9 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="557" spans="1:4">
+    <row r="557" hidden="1" spans="1:4">
       <c r="A557" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B557" s="1" t="s">
         <v>1666</v>
@@ -19587,7 +19591,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="581" hidden="1" spans="2:4">
+    <row r="581" ht="48" hidden="1" spans="2:4">
       <c r="B581" s="1" t="s">
         <v>1738</v>
       </c>
@@ -20173,7 +20177,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="631" hidden="1" spans="1:4">
+    <row r="631" ht="48" hidden="1" spans="1:4">
       <c r="A631" s="1">
         <v>0</v>
       </c>
@@ -20687,7 +20691,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="675" hidden="1" spans="2:4">
+    <row r="675" ht="48" hidden="1" spans="2:4">
       <c r="B675" s="1" t="s">
         <v>2019</v>
       </c>
@@ -20880,9 +20884,9 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="692" hidden="1" spans="1:4">
+    <row r="692" spans="1:4">
       <c r="A692" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B692" s="1" t="s">
         <v>2070</v>
@@ -21062,7 +21066,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="708" hidden="1" spans="2:4">
+    <row r="708" ht="48" hidden="1" spans="2:4">
       <c r="B708" s="1" t="s">
         <v>2118</v>
       </c>
@@ -21109,9 +21113,9 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="712" spans="1:4">
+    <row r="712" hidden="1" spans="1:4">
       <c r="A712" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B712" s="1" t="s">
         <v>2130</v>
@@ -21145,9 +21149,9 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="715" spans="1:4">
+    <row r="715" hidden="1" spans="1:4">
       <c r="A715" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B715" s="1" t="s">
         <v>2139</v>
@@ -21192,9 +21196,9 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="719" spans="1:4">
+    <row r="719" hidden="1" spans="1:4">
       <c r="A719" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B719" s="1" t="s">
         <v>2151</v>
@@ -21264,9 +21268,9 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="725" spans="1:4">
+    <row r="725" hidden="1" spans="1:4">
       <c r="A725" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B725" s="1" t="s">
         <v>2169</v>
@@ -21300,9 +21304,9 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="728" spans="1:4">
+    <row r="728" hidden="1" spans="1:4">
       <c r="A728" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B728" s="1" t="s">
         <v>2178</v>
@@ -21314,9 +21318,9 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="729" spans="1:4">
+    <row r="729" hidden="1" spans="1:4">
       <c r="A729" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B729" s="1" t="s">
         <v>2181</v>
@@ -21361,9 +21365,9 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="733" spans="1:4">
+    <row r="733" hidden="1" spans="1:4">
       <c r="A733" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B733" s="1" t="s">
         <v>2193</v>
@@ -21397,9 +21401,9 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="736" spans="1:4">
+    <row r="736" hidden="1" spans="1:4">
       <c r="A736" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B736" s="1" t="s">
         <v>2202</v>
@@ -21466,9 +21470,9 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="742" spans="1:4">
+    <row r="742" hidden="1" spans="1:4">
       <c r="A742" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B742" s="1" t="s">
         <v>2220</v>
@@ -21593,7 +21597,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="753" ht="37.5" hidden="1" spans="2:4">
+    <row r="753" ht="48" hidden="1" spans="2:4">
       <c r="B753" s="1" t="s">
         <v>2253</v>
       </c>
@@ -21681,7 +21685,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="761" ht="37.5" hidden="1" spans="2:4">
+    <row r="761" ht="48" hidden="1" spans="2:4">
       <c r="B761" s="1" t="s">
         <v>2277</v>
       </c>
@@ -21871,9 +21875,9 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="778" spans="1:4">
+    <row r="778" hidden="1" spans="1:4">
       <c r="A778" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B778" s="1" t="s">
         <v>2328</v>
@@ -21885,9 +21889,9 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="779" spans="1:4">
+    <row r="779" hidden="1" spans="1:4">
       <c r="A779" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B779" s="1" t="s">
         <v>2331</v>
@@ -21899,9 +21903,9 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="780" spans="1:4">
+    <row r="780" hidden="1" spans="1:4">
       <c r="A780" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B780" s="1" t="s">
         <v>2334</v>
@@ -21957,9 +21961,9 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="785" spans="1:4">
+    <row r="785" hidden="1" spans="1:4">
       <c r="A785" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B785" s="1" t="s">
         <v>2349</v>
@@ -21982,9 +21986,9 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="787" spans="1:4">
+    <row r="787" hidden="1" spans="1:4">
       <c r="A787" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B787" s="1" t="s">
         <v>2355</v>
@@ -22073,9 +22077,9 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="795" spans="1:4">
+    <row r="795" hidden="1" spans="1:4">
       <c r="A795" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B795" s="1" t="s">
         <v>2379</v>
@@ -22120,9 +22124,9 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="799" spans="1:4">
+    <row r="799" hidden="1" spans="1:4">
       <c r="A799" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B799" s="1" t="s">
         <v>2391</v>
@@ -22134,9 +22138,9 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="800" spans="1:4">
+    <row r="800" hidden="1" spans="1:4">
       <c r="A800" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B800" s="1" t="s">
         <v>2394</v>
@@ -22390,7 +22394,7 @@
         <v>2462</v>
       </c>
     </row>
-    <row r="823" ht="37.5" hidden="1" spans="2:4">
+    <row r="823" ht="48" hidden="1" spans="2:4">
       <c r="B823" s="1" t="s">
         <v>2463</v>
       </c>
@@ -22456,7 +22460,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="829" ht="37.5" hidden="1" spans="2:4">
+    <row r="829" ht="48" hidden="1" spans="2:4">
       <c r="B829" s="1" t="s">
         <v>2481</v>
       </c>
@@ -22555,7 +22559,10 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="838" hidden="1" spans="2:4">
+    <row r="838" hidden="1" spans="1:4">
+      <c r="A838" s="1">
+        <v>0</v>
+      </c>
       <c r="B838" s="1" t="s">
         <v>2508</v>
       </c>
@@ -22632,7 +22639,10 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="845" hidden="1" spans="2:4">
+    <row r="845" hidden="1" spans="1:4">
+      <c r="A845" s="1">
+        <v>0</v>
+      </c>
       <c r="B845" s="1" t="s">
         <v>2528</v>
       </c>
@@ -22665,7 +22675,10 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="848" hidden="1" spans="2:4">
+    <row r="848" hidden="1" spans="1:4">
+      <c r="A848" s="1">
+        <v>0</v>
+      </c>
       <c r="B848" s="1" t="s">
         <v>2537</v>
       </c>
@@ -22676,7 +22689,10 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="849" hidden="1" spans="2:4">
+    <row r="849" hidden="1" spans="1:4">
+      <c r="A849" s="1">
+        <v>0</v>
+      </c>
       <c r="B849" s="1" t="s">
         <v>2540</v>
       </c>
@@ -22797,7 +22813,10 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="860" hidden="1" spans="2:4">
+    <row r="860" hidden="1" spans="1:4">
+      <c r="A860" s="1">
+        <v>0</v>
+      </c>
       <c r="B860" s="1" t="s">
         <v>2573</v>
       </c>
@@ -22808,7 +22827,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="861" ht="37.5" hidden="1" spans="2:4">
+    <row r="861" ht="48" hidden="1" spans="2:4">
       <c r="B861" s="1" t="s">
         <v>2576</v>
       </c>
@@ -22885,7 +22904,10 @@
         <v>2596</v>
       </c>
     </row>
-    <row r="868" hidden="1" spans="2:4">
+    <row r="868" hidden="1" spans="1:4">
+      <c r="A868" s="1">
+        <v>0</v>
+      </c>
       <c r="B868" s="1" t="s">
         <v>2597</v>
       </c>
@@ -22918,7 +22940,10 @@
         <v>2605</v>
       </c>
     </row>
-    <row r="871" hidden="1" spans="2:4">
+    <row r="871" hidden="1" spans="1:4">
+      <c r="A871" s="1">
+        <v>0</v>
+      </c>
       <c r="B871" s="1" t="s">
         <v>2606</v>
       </c>
@@ -22973,7 +22998,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="876" ht="37.5" hidden="1" spans="2:4">
+    <row r="876" ht="48" hidden="1" spans="2:4">
       <c r="B876" s="1" t="s">
         <v>2621</v>
       </c>
@@ -23061,7 +23086,10 @@
         <v>2644</v>
       </c>
     </row>
-    <row r="884" hidden="1" spans="2:4">
+    <row r="884" spans="1:4">
+      <c r="A884" s="1">
+        <v>1</v>
+      </c>
       <c r="B884" s="1" t="s">
         <v>2645</v>
       </c>
@@ -23072,7 +23100,10 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="885" hidden="1" spans="2:4">
+    <row r="885" hidden="1" spans="1:4">
+      <c r="A885" s="1">
+        <v>0</v>
+      </c>
       <c r="B885" s="1" t="s">
         <v>2648</v>
       </c>
@@ -23149,7 +23180,10 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="892" hidden="1" spans="2:4">
+    <row r="892" hidden="1" spans="1:4">
+      <c r="A892" s="1">
+        <v>2</v>
+      </c>
       <c r="B892" s="1" t="s">
         <v>2669</v>
       </c>
@@ -23182,7 +23216,7 @@
         <v>2677</v>
       </c>
     </row>
-    <row r="895" ht="37.5" hidden="1" spans="2:4">
+    <row r="895" ht="48" hidden="1" spans="2:4">
       <c r="B895" s="1" t="s">
         <v>2678</v>
       </c>
@@ -23193,7 +23227,10 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="896" hidden="1" spans="2:4">
+    <row r="896" hidden="1" spans="1:4">
+      <c r="A896" s="1">
+        <v>2</v>
+      </c>
       <c r="B896" s="1" t="s">
         <v>2681</v>
       </c>
@@ -23204,7 +23241,10 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="897" hidden="1" spans="2:4">
+    <row r="897" hidden="1" spans="1:4">
+      <c r="A897" s="1">
+        <v>2</v>
+      </c>
       <c r="B897" s="1" t="s">
         <v>2684</v>
       </c>
@@ -23215,7 +23255,7 @@
         <v>2686</v>
       </c>
     </row>
-    <row r="898" ht="37.5" hidden="1" spans="2:4">
+    <row r="898" ht="48" hidden="1" spans="2:4">
       <c r="B898" s="1" t="s">
         <v>2687</v>
       </c>
@@ -23226,7 +23266,10 @@
         <v>2689</v>
       </c>
     </row>
-    <row r="899" hidden="1" spans="2:4">
+    <row r="899" spans="1:4">
+      <c r="A899" s="1">
+        <v>1</v>
+      </c>
       <c r="B899" s="1" t="s">
         <v>2690</v>
       </c>
@@ -23292,7 +23335,10 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="905" hidden="1" spans="2:4">
+    <row r="905" spans="1:4">
+      <c r="A905" s="1">
+        <v>1</v>
+      </c>
       <c r="B905" s="1" t="s">
         <v>2708</v>
       </c>
@@ -23303,7 +23349,10 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="906" hidden="1" spans="2:4">
+    <row r="906" spans="1:4">
+      <c r="A906" s="1">
+        <v>1</v>
+      </c>
       <c r="B906" s="1" t="s">
         <v>2711</v>
       </c>
@@ -23314,7 +23363,10 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="907" hidden="1" spans="2:4">
+    <row r="907" spans="1:4">
+      <c r="A907" s="1">
+        <v>1</v>
+      </c>
       <c r="B907" s="1" t="s">
         <v>2714</v>
       </c>
@@ -23325,7 +23377,7 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="908" ht="37.5" hidden="1" spans="2:4">
+    <row r="908" ht="48" hidden="1" spans="2:4">
       <c r="B908" s="1" t="s">
         <v>2717</v>
       </c>
@@ -23336,7 +23388,7 @@
         <v>2719</v>
       </c>
     </row>
-    <row r="909" hidden="1" spans="2:4">
+    <row r="909" ht="48" hidden="1" spans="2:4">
       <c r="B909" s="1" t="s">
         <v>2720</v>
       </c>
@@ -23347,7 +23399,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="910" hidden="1" spans="2:4">
+    <row r="910" ht="48" hidden="1" spans="2:4">
       <c r="B910" s="1" t="s">
         <v>2723</v>
       </c>
@@ -23369,7 +23421,10 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="912" hidden="1" spans="2:4">
+    <row r="912" spans="1:4">
+      <c r="A912" s="1">
+        <v>1</v>
+      </c>
       <c r="B912" s="1" t="s">
         <v>2729</v>
       </c>
@@ -23556,7 +23611,10 @@
         <v>2779</v>
       </c>
     </row>
-    <row r="929" hidden="1" spans="2:4">
+    <row r="929" spans="1:4">
+      <c r="A929" s="1">
+        <v>1</v>
+      </c>
       <c r="B929" s="1" t="s">
         <v>2780</v>
       </c>
@@ -23567,7 +23625,10 @@
         <v>2782</v>
       </c>
     </row>
-    <row r="930" hidden="1" spans="2:4">
+    <row r="930" ht="48" spans="1:4">
+      <c r="A930" s="1">
+        <v>1</v>
+      </c>
       <c r="B930" s="1" t="s">
         <v>2783</v>
       </c>
@@ -23589,7 +23650,10 @@
         <v>2788</v>
       </c>
     </row>
-    <row r="932" hidden="1" spans="2:4">
+    <row r="932" spans="1:4">
+      <c r="A932" s="1">
+        <v>1</v>
+      </c>
       <c r="B932" s="1" t="s">
         <v>2789</v>
       </c>
@@ -23666,7 +23730,10 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="939" hidden="1" spans="2:4">
+    <row r="939" spans="1:4">
+      <c r="A939" s="1">
+        <v>1</v>
+      </c>
       <c r="B939" s="1" t="s">
         <v>2810</v>
       </c>
@@ -23743,7 +23810,7 @@
         <v>2830</v>
       </c>
     </row>
-    <row r="946" hidden="1" spans="2:4">
+    <row r="946" ht="48" hidden="1" spans="2:4">
       <c r="B946" s="1" t="s">
         <v>2831</v>
       </c>
@@ -23809,7 +23876,10 @@
         <v>2848</v>
       </c>
     </row>
-    <row r="952" hidden="1" spans="2:4">
+    <row r="952" spans="1:4">
+      <c r="A952" s="1">
+        <v>1</v>
+      </c>
       <c r="B952" s="1" t="s">
         <v>2849</v>
       </c>
@@ -23820,7 +23890,7 @@
         <v>2851</v>
       </c>
     </row>
-    <row r="953" hidden="1" spans="2:4">
+    <row r="953" ht="48" hidden="1" spans="2:4">
       <c r="B953" s="1" t="s">
         <v>2852</v>
       </c>
@@ -23864,7 +23934,10 @@
         <v>2863</v>
       </c>
     </row>
-    <row r="957" hidden="1" spans="2:4">
+    <row r="957" spans="1:4">
+      <c r="A957" s="1">
+        <v>1</v>
+      </c>
       <c r="B957" s="1" t="s">
         <v>2864</v>
       </c>
@@ -23886,7 +23959,10 @@
         <v>2869</v>
       </c>
     </row>
-    <row r="959" hidden="1" spans="2:4">
+    <row r="959" spans="1:4">
+      <c r="A959" s="1">
+        <v>1</v>
+      </c>
       <c r="B959" s="1" t="s">
         <v>2870</v>
       </c>
@@ -23897,7 +23973,10 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="960" hidden="1" spans="2:4">
+    <row r="960" spans="1:4">
+      <c r="A960" s="1">
+        <v>1</v>
+      </c>
       <c r="B960" s="1" t="s">
         <v>2873</v>
       </c>
@@ -24007,7 +24086,10 @@
         <v>2902</v>
       </c>
     </row>
-    <row r="970" hidden="1" spans="2:4">
+    <row r="970" spans="1:4">
+      <c r="A970" s="1">
+        <v>1</v>
+      </c>
       <c r="B970" s="1" t="s">
         <v>2903</v>
       </c>
@@ -24018,7 +24100,10 @@
         <v>2905</v>
       </c>
     </row>
-    <row r="971" hidden="1" spans="2:4">
+    <row r="971" spans="1:4">
+      <c r="A971" s="1">
+        <v>1</v>
+      </c>
       <c r="B971" s="1" t="s">
         <v>2906</v>
       </c>
@@ -24073,7 +24158,7 @@
         <v>2920</v>
       </c>
     </row>
-    <row r="976" ht="37.5" hidden="1" spans="2:4">
+    <row r="976" ht="48" hidden="1" spans="2:4">
       <c r="B976" s="1" t="s">
         <v>2921</v>
       </c>
@@ -24117,7 +24202,10 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="980" hidden="1" spans="2:4">
+    <row r="980" spans="1:4">
+      <c r="A980" s="1">
+        <v>1</v>
+      </c>
       <c r="B980" s="1" t="s">
         <v>2933</v>
       </c>
@@ -24128,7 +24216,7 @@
         <v>2935</v>
       </c>
     </row>
-    <row r="981" ht="37.5" hidden="1" spans="2:4">
+    <row r="981" ht="48" hidden="1" spans="2:4">
       <c r="B981" s="1" t="s">
         <v>2936</v>
       </c>
@@ -24150,7 +24238,10 @@
         <v>2941</v>
       </c>
     </row>
-    <row r="983" hidden="1" spans="2:4">
+    <row r="983" spans="1:4">
+      <c r="A983" s="1">
+        <v>1</v>
+      </c>
       <c r="B983" s="1" t="s">
         <v>2942</v>
       </c>
@@ -24172,7 +24263,10 @@
         <v>2947</v>
       </c>
     </row>
-    <row r="985" hidden="1" spans="2:4">
+    <row r="985" spans="1:4">
+      <c r="A985" s="1">
+        <v>1</v>
+      </c>
       <c r="B985" s="1" t="s">
         <v>2948</v>
       </c>
@@ -24227,7 +24321,10 @@
         <v>2962</v>
       </c>
     </row>
-    <row r="990" hidden="1" spans="2:4">
+    <row r="990" spans="1:4">
+      <c r="A990" s="1">
+        <v>1</v>
+      </c>
       <c r="B990" s="1" t="s">
         <v>2963</v>
       </c>
@@ -24260,7 +24357,10 @@
         <v>2971</v>
       </c>
     </row>
-    <row r="993" hidden="1" spans="2:4">
+    <row r="993" spans="1:4">
+      <c r="A993" s="1">
+        <v>1</v>
+      </c>
       <c r="B993" s="1" t="s">
         <v>2972</v>
       </c>
@@ -24304,7 +24404,10 @@
         <v>2983</v>
       </c>
     </row>
-    <row r="997" hidden="1" spans="2:4">
+    <row r="997" spans="1:4">
+      <c r="A997" s="1">
+        <v>1</v>
+      </c>
       <c r="B997" s="1" t="s">
         <v>2984</v>
       </c>
@@ -24315,7 +24418,10 @@
         <v>2986</v>
       </c>
     </row>
-    <row r="998" hidden="1" spans="2:4">
+    <row r="998" spans="1:4">
+      <c r="A998" s="1">
+        <v>1</v>
+      </c>
       <c r="B998" s="1" t="s">
         <v>2987</v>
       </c>
@@ -24491,7 +24597,7 @@
         <v>3034</v>
       </c>
     </row>
-    <row r="1014" hidden="1" spans="2:4">
+    <row r="1014" ht="48" hidden="1" spans="2:4">
       <c r="B1014" s="1" t="s">
         <v>3035</v>
       </c>
@@ -24733,7 +24839,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="1036" hidden="1" spans="2:4">
+    <row r="1036" ht="48" hidden="1" spans="2:4">
       <c r="B1036" s="1" t="s">
         <v>3101</v>
       </c>
@@ -24920,7 +25026,7 @@
         <v>3151</v>
       </c>
     </row>
-    <row r="1053" ht="37.5" hidden="1" spans="2:4">
+    <row r="1053" ht="48" hidden="1" spans="2:4">
       <c r="B1053" s="1" t="s">
         <v>3152</v>
       </c>
@@ -25250,7 +25356,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="1083" ht="37.5" hidden="1" spans="2:4">
+    <row r="1083" ht="48" hidden="1" spans="2:4">
       <c r="B1083" s="1" t="s">
         <v>3241</v>
       </c>
@@ -25327,7 +25433,7 @@
         <v>3261</v>
       </c>
     </row>
-    <row r="1090" ht="37.5" hidden="1" spans="2:4">
+    <row r="1090" ht="48" hidden="1" spans="2:4">
       <c r="B1090" s="1" t="s">
         <v>3262</v>
       </c>
@@ -25591,7 +25697,7 @@
         <v>3332</v>
       </c>
     </row>
-    <row r="1114" ht="37.5" hidden="1" spans="2:4">
+    <row r="1114" ht="48" hidden="1" spans="2:4">
       <c r="B1114" s="1" t="s">
         <v>3333</v>
       </c>
@@ -25734,7 +25840,7 @@
         <v>3371</v>
       </c>
     </row>
-    <row r="1127" ht="37.5" hidden="1" spans="2:4">
+    <row r="1127" ht="48" hidden="1" spans="2:4">
       <c r="B1127" s="1" t="s">
         <v>3372</v>
       </c>
@@ -26570,7 +26676,7 @@
         <v>3595</v>
       </c>
     </row>
-    <row r="1203" hidden="1" spans="2:4">
+    <row r="1203" ht="48" hidden="1" spans="2:4">
       <c r="B1203" s="1" t="s">
         <v>3596</v>
       </c>
@@ -26592,7 +26698,7 @@
         <v>3601</v>
       </c>
     </row>
-    <row r="1205" hidden="1" spans="2:4">
+    <row r="1205" ht="48" hidden="1" spans="2:4">
       <c r="B1205" s="1" t="s">
         <v>3602</v>
       </c>
@@ -26735,7 +26841,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="1218" hidden="1" spans="2:4">
+    <row r="1218" ht="48" hidden="1" spans="2:4">
       <c r="B1218" s="1" t="s">
         <v>3641</v>
       </c>

--- a/Level 1.xlsx
+++ b/Level 1.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17220" tabRatio="500"/>
+    <workbookView windowHeight="14920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$A$1295</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$D$1295</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -11855,10 +11855,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -11882,38 +11882,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11928,22 +11897,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11957,46 +11911,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12011,7 +11950,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12019,9 +11988,40 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -12040,19 +12040,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12070,7 +12064,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12082,7 +12076,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12094,43 +12142,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12142,43 +12184,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12190,7 +12202,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12202,25 +12214,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12237,7 +12237,66 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -12259,30 +12318,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -12296,186 +12331,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -12623,7 +12623,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>6074</xdr:colOff>
-      <xdr:row>904</xdr:row>
+      <xdr:row>708</xdr:row>
       <xdr:rowOff>57426</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12921,7 +12921,7 @@
   <dimension ref="A1:D1295"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H960" sqref="H960"/>
+      <selection activeCell="A1279" sqref="A1279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="3"/>
@@ -12981,7 +12981,7 @@
     </row>
     <row r="5" ht="48" hidden="1" spans="1:4">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -14083,10 +14083,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="104" hidden="1" spans="1:4">
-      <c r="A104" s="1">
-        <v>0</v>
-      </c>
+    <row r="104" hidden="1" spans="2:4">
       <c r="B104" s="1" t="s">
         <v>310</v>
       </c>
@@ -14742,10 +14739,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="162" hidden="1" spans="1:4">
-      <c r="A162" s="1">
-        <v>0</v>
-      </c>
+    <row r="162" hidden="1" spans="2:4">
       <c r="B162" s="1" t="s">
         <v>484</v>
       </c>
@@ -14912,7 +14906,7 @@
     </row>
     <row r="177" hidden="1" spans="1:4">
       <c r="A177" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>529</v>
@@ -15125,10 +15119,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="196" hidden="1" spans="1:4">
-      <c r="A196" s="1">
-        <v>0</v>
-      </c>
+    <row r="196" hidden="1" spans="2:4">
       <c r="B196" s="1" t="s">
         <v>585</v>
       </c>
@@ -15384,10 +15375,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="219" hidden="1" spans="1:4">
-      <c r="A219" s="1">
-        <v>0</v>
-      </c>
+    <row r="219" hidden="1" spans="2:4">
       <c r="B219" s="1" t="s">
         <v>654</v>
       </c>
@@ -15662,7 +15650,7 @@
     </row>
     <row r="243" hidden="1" spans="1:4">
       <c r="A243" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>726</v>
@@ -15721,9 +15709,9 @@
         <v>740</v>
       </c>
     </row>
-    <row r="248" hidden="1" spans="1:4">
+    <row r="248" spans="1:4">
       <c r="A248" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>741</v>
@@ -15834,7 +15822,7 @@
     </row>
     <row r="257" hidden="1" spans="1:4">
       <c r="A257" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>768</v>
@@ -15909,7 +15897,7 @@
     </row>
     <row r="263" hidden="1" spans="1:4">
       <c r="A263" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>786</v>
@@ -16770,7 +16758,7 @@
     </row>
     <row r="338" hidden="1" spans="1:4">
       <c r="A338" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>1011</v>
@@ -17271,7 +17259,7 @@
     </row>
     <row r="380" ht="48" hidden="1" spans="1:4">
       <c r="A380" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B380" s="1" t="s">
         <v>1136</v>
@@ -17867,9 +17855,9 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="433" hidden="1" spans="1:4">
+    <row r="433" spans="1:4">
       <c r="A433" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B433" s="1" t="s">
         <v>1294</v>
@@ -17906,9 +17894,9 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="436" hidden="1" spans="1:4">
+    <row r="436" spans="1:4">
       <c r="A436" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B436" s="1" t="s">
         <v>1303</v>
@@ -18652,9 +18640,9 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="500" hidden="1" spans="1:4">
+    <row r="500" spans="1:4">
       <c r="A500" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B500" s="1" t="s">
         <v>1495</v>
@@ -19602,9 +19590,9 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="582" hidden="1" spans="1:4">
+    <row r="582" spans="1:4">
       <c r="A582" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B582" s="1" t="s">
         <v>1741</v>
@@ -20130,9 +20118,9 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="627" hidden="1" spans="1:4">
+    <row r="627" spans="1:4">
       <c r="A627" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B627" s="1" t="s">
         <v>1876</v>
@@ -20884,9 +20872,9 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="692" spans="1:4">
+    <row r="692" hidden="1" spans="1:4">
       <c r="A692" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B692" s="1" t="s">
         <v>2070</v>
@@ -21077,9 +21065,9 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="709" hidden="1" spans="1:4">
+    <row r="709" spans="1:4">
       <c r="A709" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B709" s="1" t="s">
         <v>2121</v>
@@ -21254,9 +21242,9 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="724" spans="1:4">
+    <row r="724" hidden="1" spans="1:4">
       <c r="A724" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B724" s="1" t="s">
         <v>2166</v>
@@ -21306,7 +21294,7 @@
     </row>
     <row r="728" hidden="1" spans="1:4">
       <c r="A728" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B728" s="1" t="s">
         <v>2178</v>
@@ -21550,9 +21538,9 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="749" spans="1:4">
+    <row r="749" hidden="1" spans="1:4">
       <c r="A749" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B749" s="1" t="s">
         <v>2241</v>
@@ -21817,9 +21805,9 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="773" spans="1:4">
+    <row r="773" hidden="1" spans="1:4">
       <c r="A773" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B773" s="1" t="s">
         <v>2313</v>
@@ -21903,9 +21891,9 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="780" hidden="1" spans="1:4">
+    <row r="780" spans="1:4">
       <c r="A780" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B780" s="1" t="s">
         <v>2334</v>
@@ -21986,9 +21974,9 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="787" hidden="1" spans="1:4">
+    <row r="787" spans="1:4">
       <c r="A787" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B787" s="1" t="s">
         <v>2355</v>
@@ -22140,7 +22128,7 @@
     </row>
     <row r="800" hidden="1" spans="1:4">
       <c r="A800" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B800" s="1" t="s">
         <v>2394</v>
@@ -22559,9 +22547,9 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="838" hidden="1" spans="1:4">
+    <row r="838" spans="1:4">
       <c r="A838" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B838" s="1" t="s">
         <v>2508</v>
@@ -22689,9 +22677,9 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="849" hidden="1" spans="1:4">
+    <row r="849" spans="1:4">
       <c r="A849" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B849" s="1" t="s">
         <v>2540</v>
@@ -23086,9 +23074,9 @@
         <v>2644</v>
       </c>
     </row>
-    <row r="884" spans="1:4">
+    <row r="884" hidden="1" spans="1:4">
       <c r="A884" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B884" s="1" t="s">
         <v>2645</v>
@@ -23182,7 +23170,7 @@
     </row>
     <row r="892" hidden="1" spans="1:4">
       <c r="A892" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B892" s="1" t="s">
         <v>2669</v>
@@ -23227,9 +23215,9 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="896" hidden="1" spans="1:4">
+    <row r="896" spans="1:4">
       <c r="A896" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B896" s="1" t="s">
         <v>2681</v>
@@ -23241,9 +23229,9 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="897" hidden="1" spans="1:4">
+    <row r="897" spans="1:4">
       <c r="A897" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B897" s="1" t="s">
         <v>2684</v>
@@ -23266,9 +23254,9 @@
         <v>2689</v>
       </c>
     </row>
-    <row r="899" spans="1:4">
+    <row r="899" hidden="1" spans="1:4">
       <c r="A899" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B899" s="1" t="s">
         <v>2690</v>
@@ -23337,7 +23325,7 @@
     </row>
     <row r="905" spans="1:4">
       <c r="A905" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B905" s="1" t="s">
         <v>2708</v>
@@ -23349,9 +23337,9 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="906" spans="1:4">
+    <row r="906" hidden="1" spans="1:4">
       <c r="A906" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B906" s="1" t="s">
         <v>2711</v>
@@ -23363,9 +23351,9 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="907" spans="1:4">
+    <row r="907" hidden="1" spans="1:4">
       <c r="A907" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B907" s="1" t="s">
         <v>2714</v>
@@ -23421,9 +23409,9 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="912" spans="1:4">
+    <row r="912" hidden="1" spans="1:4">
       <c r="A912" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B912" s="1" t="s">
         <v>2729</v>
@@ -23611,9 +23599,9 @@
         <v>2779</v>
       </c>
     </row>
-    <row r="929" spans="1:4">
+    <row r="929" hidden="1" spans="1:4">
       <c r="A929" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B929" s="1" t="s">
         <v>2780</v>
@@ -23625,9 +23613,9 @@
         <v>2782</v>
       </c>
     </row>
-    <row r="930" ht="48" spans="1:4">
+    <row r="930" ht="48" hidden="1" spans="1:4">
       <c r="A930" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B930" s="1" t="s">
         <v>2783</v>
@@ -23650,9 +23638,9 @@
         <v>2788</v>
       </c>
     </row>
-    <row r="932" spans="1:4">
+    <row r="932" hidden="1" spans="1:4">
       <c r="A932" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B932" s="1" t="s">
         <v>2789</v>
@@ -23878,7 +23866,7 @@
     </row>
     <row r="952" spans="1:4">
       <c r="A952" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B952" s="1" t="s">
         <v>2849</v>
@@ -23934,9 +23922,9 @@
         <v>2863</v>
       </c>
     </row>
-    <row r="957" spans="1:4">
+    <row r="957" hidden="1" spans="1:4">
       <c r="A957" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B957" s="1" t="s">
         <v>2864</v>
@@ -23959,9 +23947,9 @@
         <v>2869</v>
       </c>
     </row>
-    <row r="959" spans="1:4">
+    <row r="959" hidden="1" spans="1:4">
       <c r="A959" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B959" s="1" t="s">
         <v>2870</v>
@@ -23973,9 +23961,9 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="960" spans="1:4">
+    <row r="960" hidden="1" spans="1:4">
       <c r="A960" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B960" s="1" t="s">
         <v>2873</v>
@@ -24086,9 +24074,9 @@
         <v>2902</v>
       </c>
     </row>
-    <row r="970" spans="1:4">
+    <row r="970" hidden="1" spans="1:4">
       <c r="A970" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B970" s="1" t="s">
         <v>2903</v>
@@ -24100,9 +24088,9 @@
         <v>2905</v>
       </c>
     </row>
-    <row r="971" spans="1:4">
+    <row r="971" hidden="1" spans="1:4">
       <c r="A971" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B971" s="1" t="s">
         <v>2906</v>
@@ -24202,9 +24190,9 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="980" spans="1:4">
+    <row r="980" hidden="1" spans="1:4">
       <c r="A980" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B980" s="1" t="s">
         <v>2933</v>
@@ -24238,9 +24226,9 @@
         <v>2941</v>
       </c>
     </row>
-    <row r="983" spans="1:4">
+    <row r="983" hidden="1" spans="1:4">
       <c r="A983" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B983" s="1" t="s">
         <v>2942</v>
@@ -24263,9 +24251,9 @@
         <v>2947</v>
       </c>
     </row>
-    <row r="985" spans="1:4">
+    <row r="985" hidden="1" spans="1:4">
       <c r="A985" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B985" s="1" t="s">
         <v>2948</v>
@@ -24321,9 +24309,9 @@
         <v>2962</v>
       </c>
     </row>
-    <row r="990" spans="1:4">
+    <row r="990" hidden="1" spans="1:4">
       <c r="A990" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B990" s="1" t="s">
         <v>2963</v>
@@ -24357,9 +24345,9 @@
         <v>2971</v>
       </c>
     </row>
-    <row r="993" spans="1:4">
+    <row r="993" hidden="1" spans="1:4">
       <c r="A993" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B993" s="1" t="s">
         <v>2972</v>
@@ -24404,9 +24392,9 @@
         <v>2983</v>
       </c>
     </row>
-    <row r="997" spans="1:4">
+    <row r="997" hidden="1" spans="1:4">
       <c r="A997" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B997" s="1" t="s">
         <v>2984</v>
@@ -24418,9 +24406,9 @@
         <v>2986</v>
       </c>
     </row>
-    <row r="998" spans="1:4">
+    <row r="998" hidden="1" spans="1:4">
       <c r="A998" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B998" s="1" t="s">
         <v>2987</v>
@@ -24476,7 +24464,10 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="1003" hidden="1" spans="2:4">
+    <row r="1003" hidden="1" spans="1:4">
+      <c r="A1003" s="1">
+        <v>0</v>
+      </c>
       <c r="B1003" s="1" t="s">
         <v>3002</v>
       </c>
@@ -24487,7 +24478,10 @@
         <v>3004</v>
       </c>
     </row>
-    <row r="1004" hidden="1" spans="2:4">
+    <row r="1004" hidden="1" spans="1:4">
+      <c r="A1004" s="1">
+        <v>0</v>
+      </c>
       <c r="B1004" s="1" t="s">
         <v>3005</v>
       </c>
@@ -24608,7 +24602,10 @@
         <v>3037</v>
       </c>
     </row>
-    <row r="1015" hidden="1" spans="2:4">
+    <row r="1015" hidden="1" spans="1:4">
+      <c r="A1015" s="1">
+        <v>0</v>
+      </c>
       <c r="B1015" s="1" t="s">
         <v>3038</v>
       </c>
@@ -24718,7 +24715,10 @@
         <v>3067</v>
       </c>
     </row>
-    <row r="1025" hidden="1" spans="2:4">
+    <row r="1025" hidden="1" spans="1:4">
+      <c r="A1025" s="1">
+        <v>0</v>
+      </c>
       <c r="B1025" s="1" t="s">
         <v>3068</v>
       </c>
@@ -24729,7 +24729,10 @@
         <v>3070</v>
       </c>
     </row>
-    <row r="1026" hidden="1" spans="2:4">
+    <row r="1026" hidden="1" spans="1:4">
+      <c r="A1026" s="1">
+        <v>0</v>
+      </c>
       <c r="B1026" s="1" t="s">
         <v>3071</v>
       </c>
@@ -24806,7 +24809,10 @@
         <v>3091</v>
       </c>
     </row>
-    <row r="1033" hidden="1" spans="2:4">
+    <row r="1033" hidden="1" spans="1:4">
+      <c r="A1033" s="1">
+        <v>0</v>
+      </c>
       <c r="B1033" s="1" t="s">
         <v>3092</v>
       </c>
@@ -24817,7 +24823,10 @@
         <v>3094</v>
       </c>
     </row>
-    <row r="1034" hidden="1" spans="2:4">
+    <row r="1034" hidden="1" spans="1:4">
+      <c r="A1034" s="1">
+        <v>0</v>
+      </c>
       <c r="B1034" s="1" t="s">
         <v>3095</v>
       </c>
@@ -24839,7 +24848,10 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="1036" ht="48" hidden="1" spans="2:4">
+    <row r="1036" ht="48" hidden="1" spans="1:4">
+      <c r="A1036" s="1">
+        <v>0</v>
+      </c>
       <c r="B1036" s="1" t="s">
         <v>3101</v>
       </c>
@@ -24894,7 +24906,10 @@
         <v>3115</v>
       </c>
     </row>
-    <row r="1041" hidden="1" spans="2:4">
+    <row r="1041" spans="1:4">
+      <c r="A1041" s="1">
+        <v>4</v>
+      </c>
       <c r="B1041" s="1" t="s">
         <v>3116</v>
       </c>
@@ -24938,7 +24953,10 @@
         <v>3127</v>
       </c>
     </row>
-    <row r="1045" hidden="1" spans="2:4">
+    <row r="1045" hidden="1" spans="1:4">
+      <c r="A1045" s="1">
+        <v>0</v>
+      </c>
       <c r="B1045" s="1" t="s">
         <v>3128</v>
       </c>
@@ -25114,7 +25132,10 @@
         <v>3174</v>
       </c>
     </row>
-    <row r="1061" hidden="1" spans="2:4">
+    <row r="1061" hidden="1" spans="1:4">
+      <c r="A1061" s="1">
+        <v>0</v>
+      </c>
       <c r="B1061" s="1" t="s">
         <v>3175</v>
       </c>
@@ -25136,7 +25157,10 @@
         <v>3180</v>
       </c>
     </row>
-    <row r="1063" hidden="1" spans="2:4">
+    <row r="1063" hidden="1" spans="1:4">
+      <c r="A1063" s="1">
+        <v>0</v>
+      </c>
       <c r="B1063" s="1" t="s">
         <v>3181</v>
       </c>
@@ -25158,7 +25182,10 @@
         <v>3186</v>
       </c>
     </row>
-    <row r="1065" hidden="1" spans="2:4">
+    <row r="1065" hidden="1" spans="1:4">
+      <c r="A1065" s="1">
+        <v>0</v>
+      </c>
       <c r="B1065" s="1" t="s">
         <v>3187</v>
       </c>
@@ -25213,7 +25240,10 @@
         <v>3201</v>
       </c>
     </row>
-    <row r="1070" hidden="1" spans="2:4">
+    <row r="1070" hidden="1" spans="1:4">
+      <c r="A1070" s="1">
+        <v>0</v>
+      </c>
       <c r="B1070" s="1" t="s">
         <v>3202</v>
       </c>
@@ -25268,7 +25298,10 @@
         <v>3216</v>
       </c>
     </row>
-    <row r="1075" hidden="1" spans="2:4">
+    <row r="1075" hidden="1" spans="1:4">
+      <c r="A1075" s="1">
+        <v>0</v>
+      </c>
       <c r="B1075" s="1" t="s">
         <v>3217</v>
       </c>
@@ -25290,7 +25323,10 @@
         <v>3222</v>
       </c>
     </row>
-    <row r="1077" hidden="1" spans="2:4">
+    <row r="1077" hidden="1" spans="1:4">
+      <c r="A1077" s="1">
+        <v>0</v>
+      </c>
       <c r="B1077" s="1" t="s">
         <v>3223</v>
       </c>
@@ -25323,7 +25359,10 @@
         <v>3231</v>
       </c>
     </row>
-    <row r="1080" hidden="1" spans="2:4">
+    <row r="1080" hidden="1" spans="1:4">
+      <c r="A1080" s="1">
+        <v>0</v>
+      </c>
       <c r="B1080" s="1" t="s">
         <v>3232</v>
       </c>
@@ -25367,7 +25406,10 @@
         <v>3243</v>
       </c>
     </row>
-    <row r="1084" hidden="1" spans="2:4">
+    <row r="1084" hidden="1" spans="1:4">
+      <c r="A1084" s="1">
+        <v>0</v>
+      </c>
       <c r="B1084" s="1" t="s">
         <v>3244</v>
       </c>
@@ -25411,7 +25453,10 @@
         <v>3255</v>
       </c>
     </row>
-    <row r="1088" hidden="1" spans="2:4">
+    <row r="1088" spans="1:4">
+      <c r="A1088" s="1">
+        <v>1</v>
+      </c>
       <c r="B1088" s="1" t="s">
         <v>3256</v>
       </c>
@@ -25433,7 +25478,10 @@
         <v>3261</v>
       </c>
     </row>
-    <row r="1090" ht="48" hidden="1" spans="2:4">
+    <row r="1090" ht="48" hidden="1" spans="1:4">
+      <c r="A1090" s="1">
+        <v>0</v>
+      </c>
       <c r="B1090" s="1" t="s">
         <v>3262</v>
       </c>
@@ -25444,7 +25492,10 @@
         <v>3264</v>
       </c>
     </row>
-    <row r="1091" hidden="1" spans="2:4">
+    <row r="1091" spans="1:4">
+      <c r="A1091" s="1">
+        <v>1</v>
+      </c>
       <c r="B1091" s="1" t="s">
         <v>3265</v>
       </c>
@@ -25543,7 +25594,10 @@
         <v>3291</v>
       </c>
     </row>
-    <row r="1100" hidden="1" spans="2:4">
+    <row r="1100" hidden="1" spans="1:4">
+      <c r="A1100" s="1">
+        <v>0</v>
+      </c>
       <c r="B1100" s="1" t="s">
         <v>3292</v>
       </c>
@@ -25554,7 +25608,10 @@
         <v>3294</v>
       </c>
     </row>
-    <row r="1101" hidden="1" spans="2:4">
+    <row r="1101" hidden="1" spans="1:4">
+      <c r="A1101" s="1">
+        <v>0</v>
+      </c>
       <c r="B1101" s="1" t="s">
         <v>3295</v>
       </c>
@@ -25609,7 +25666,10 @@
         <v>3308</v>
       </c>
     </row>
-    <row r="1106" hidden="1" spans="2:4">
+    <row r="1106" spans="1:4">
+      <c r="A1106" s="1">
+        <v>1</v>
+      </c>
       <c r="B1106" s="1" t="s">
         <v>3309</v>
       </c>
@@ -25620,7 +25680,10 @@
         <v>3311</v>
       </c>
     </row>
-    <row r="1107" hidden="1" spans="2:4">
+    <row r="1107" hidden="1" spans="1:4">
+      <c r="A1107" s="1">
+        <v>0</v>
+      </c>
       <c r="B1107" s="1" t="s">
         <v>3312</v>
       </c>
@@ -25631,7 +25694,10 @@
         <v>3314</v>
       </c>
     </row>
-    <row r="1108" hidden="1" spans="2:4">
+    <row r="1108" hidden="1" spans="1:4">
+      <c r="A1108" s="1">
+        <v>0</v>
+      </c>
       <c r="B1108" s="1" t="s">
         <v>3315</v>
       </c>
@@ -25653,7 +25719,10 @@
         <v>3320</v>
       </c>
     </row>
-    <row r="1110" hidden="1" spans="2:4">
+    <row r="1110" hidden="1" spans="1:4">
+      <c r="A1110" s="1">
+        <v>0</v>
+      </c>
       <c r="B1110" s="1" t="s">
         <v>3321</v>
       </c>
@@ -25686,7 +25755,10 @@
         <v>3329</v>
       </c>
     </row>
-    <row r="1113" hidden="1" spans="2:4">
+    <row r="1113" hidden="1" spans="1:4">
+      <c r="A1113" s="1">
+        <v>0</v>
+      </c>
       <c r="B1113" s="1" t="s">
         <v>3330</v>
       </c>
@@ -25774,7 +25846,10 @@
         <v>3353</v>
       </c>
     </row>
-    <row r="1121" hidden="1" spans="2:4">
+    <row r="1121" hidden="1" spans="1:4">
+      <c r="A1121" s="1">
+        <v>0</v>
+      </c>
       <c r="B1121" s="1" t="s">
         <v>3354</v>
       </c>
@@ -25785,7 +25860,10 @@
         <v>3356</v>
       </c>
     </row>
-    <row r="1122" hidden="1" spans="2:4">
+    <row r="1122" hidden="1" spans="1:4">
+      <c r="A1122" s="1">
+        <v>0</v>
+      </c>
       <c r="B1122" s="1" t="s">
         <v>3357</v>
       </c>
@@ -25917,7 +25995,10 @@
         <v>3391</v>
       </c>
     </row>
-    <row r="1134" hidden="1" spans="2:4">
+    <row r="1134" spans="1:4">
+      <c r="A1134" s="1">
+        <v>1</v>
+      </c>
       <c r="B1134" s="1" t="s">
         <v>3392</v>
       </c>
@@ -25928,7 +26009,10 @@
         <v>3394</v>
       </c>
     </row>
-    <row r="1135" hidden="1" spans="2:4">
+    <row r="1135" spans="1:4">
+      <c r="A1135" s="1">
+        <v>1</v>
+      </c>
       <c r="B1135" s="1" t="s">
         <v>3395</v>
       </c>
@@ -25950,7 +26034,10 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="1137" hidden="1" spans="2:4">
+    <row r="1137" hidden="1" spans="1:4">
+      <c r="A1137" s="1">
+        <v>0</v>
+      </c>
       <c r="B1137" s="1" t="s">
         <v>3401</v>
       </c>
@@ -26049,7 +26136,10 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="1146" hidden="1" spans="2:4">
+    <row r="1146" hidden="1" spans="1:4">
+      <c r="A1146" s="1">
+        <v>0</v>
+      </c>
       <c r="B1146" s="1" t="s">
         <v>3426</v>
       </c>
@@ -26071,7 +26161,10 @@
         <v>3431</v>
       </c>
     </row>
-    <row r="1148" hidden="1" spans="2:4">
+    <row r="1148" spans="1:4">
+      <c r="A1148" s="1">
+        <v>1</v>
+      </c>
       <c r="B1148" s="1" t="s">
         <v>3432</v>
       </c>
@@ -26082,7 +26175,10 @@
         <v>3434</v>
       </c>
     </row>
-    <row r="1149" hidden="1" spans="2:4">
+    <row r="1149" hidden="1" spans="1:4">
+      <c r="A1149" s="1">
+        <v>0</v>
+      </c>
       <c r="B1149" s="1" t="s">
         <v>3435</v>
       </c>
@@ -26093,7 +26189,10 @@
         <v>3437</v>
       </c>
     </row>
-    <row r="1150" hidden="1" spans="2:4">
+    <row r="1150" hidden="1" spans="1:4">
+      <c r="A1150" s="1">
+        <v>0</v>
+      </c>
       <c r="B1150" s="1" t="s">
         <v>3438</v>
       </c>
@@ -26159,7 +26258,10 @@
         <v>3455</v>
       </c>
     </row>
-    <row r="1156" hidden="1" spans="2:4">
+    <row r="1156" spans="1:4">
+      <c r="A1156" s="1">
+        <v>1</v>
+      </c>
       <c r="B1156" s="1" t="s">
         <v>3456</v>
       </c>
@@ -26192,7 +26294,10 @@
         <v>3464</v>
       </c>
     </row>
-    <row r="1159" hidden="1" spans="2:4">
+    <row r="1159" hidden="1" spans="1:4">
+      <c r="A1159" s="1">
+        <v>0</v>
+      </c>
       <c r="B1159" s="1" t="s">
         <v>3465</v>
       </c>
@@ -26225,7 +26330,10 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1162" hidden="1" spans="2:4">
+    <row r="1162" hidden="1" spans="1:4">
+      <c r="A1162" s="1">
+        <v>0</v>
+      </c>
       <c r="B1162" s="1" t="s">
         <v>3474</v>
       </c>
@@ -26258,7 +26366,10 @@
         <v>3481</v>
       </c>
     </row>
-    <row r="1165" hidden="1" spans="2:4">
+    <row r="1165" hidden="1" spans="1:4">
+      <c r="A1165" s="1">
+        <v>0</v>
+      </c>
       <c r="B1165" s="1" t="s">
         <v>3482</v>
       </c>
@@ -26434,7 +26545,10 @@
         <v>3529</v>
       </c>
     </row>
-    <row r="1181" hidden="1" spans="2:4">
+    <row r="1181" spans="1:4">
+      <c r="A1181" s="1">
+        <v>1</v>
+      </c>
       <c r="B1181" s="1" t="s">
         <v>3530</v>
       </c>
@@ -26533,7 +26647,10 @@
         <v>3556</v>
       </c>
     </row>
-    <row r="1190" hidden="1" spans="2:4">
+    <row r="1190" hidden="1" spans="1:4">
+      <c r="A1190" s="1">
+        <v>0</v>
+      </c>
       <c r="B1190" s="1" t="s">
         <v>3557</v>
       </c>
@@ -26654,7 +26771,10 @@
         <v>3589</v>
       </c>
     </row>
-    <row r="1201" hidden="1" spans="2:4">
+    <row r="1201" hidden="1" spans="1:4">
+      <c r="A1201" s="1">
+        <v>0</v>
+      </c>
       <c r="B1201" s="1" t="s">
         <v>3590</v>
       </c>
@@ -26665,7 +26785,10 @@
         <v>3592</v>
       </c>
     </row>
-    <row r="1202" hidden="1" spans="2:4">
+    <row r="1202" hidden="1" spans="1:4">
+      <c r="A1202" s="1">
+        <v>0</v>
+      </c>
       <c r="B1202" s="1" t="s">
         <v>3593</v>
       </c>
@@ -26709,7 +26832,10 @@
         <v>3604</v>
       </c>
     </row>
-    <row r="1206" hidden="1" spans="2:4">
+    <row r="1206" hidden="1" spans="1:4">
+      <c r="A1206" s="1">
+        <v>0</v>
+      </c>
       <c r="B1206" s="1" t="s">
         <v>3605</v>
       </c>
@@ -26841,7 +26967,10 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="1218" ht="48" hidden="1" spans="2:4">
+    <row r="1218" ht="48" hidden="1" spans="1:4">
+      <c r="A1218" s="1">
+        <v>0</v>
+      </c>
       <c r="B1218" s="1" t="s">
         <v>3641</v>
       </c>
@@ -26863,7 +26992,10 @@
         <v>3646</v>
       </c>
     </row>
-    <row r="1220" hidden="1" spans="2:4">
+    <row r="1220" hidden="1" spans="1:4">
+      <c r="A1220" s="1">
+        <v>0</v>
+      </c>
       <c r="B1220" s="1" t="s">
         <v>3647</v>
       </c>
@@ -26885,7 +27017,10 @@
         <v>3652</v>
       </c>
     </row>
-    <row r="1222" hidden="1" spans="2:4">
+    <row r="1222" hidden="1" spans="1:4">
+      <c r="A1222" s="1">
+        <v>0</v>
+      </c>
       <c r="B1222" s="1" t="s">
         <v>3653</v>
       </c>
@@ -27017,7 +27152,10 @@
         <v>3688</v>
       </c>
     </row>
-    <row r="1234" hidden="1" spans="2:4">
+    <row r="1234" spans="1:4">
+      <c r="A1234" s="1">
+        <v>4</v>
+      </c>
       <c r="B1234" s="1" t="s">
         <v>3689</v>
       </c>
@@ -27094,7 +27232,10 @@
         <v>3708</v>
       </c>
     </row>
-    <row r="1241" hidden="1" spans="2:4">
+    <row r="1241" hidden="1" spans="1:4">
+      <c r="A1241" s="1">
+        <v>0</v>
+      </c>
       <c r="B1241" s="1" t="s">
         <v>3709</v>
       </c>
@@ -27105,7 +27246,10 @@
         <v>3711</v>
       </c>
     </row>
-    <row r="1242" hidden="1" spans="2:4">
+    <row r="1242" hidden="1" spans="1:4">
+      <c r="A1242" s="1">
+        <v>0</v>
+      </c>
       <c r="B1242" s="1" t="s">
         <v>3712</v>
       </c>
@@ -27127,7 +27271,10 @@
         <v>3717</v>
       </c>
     </row>
-    <row r="1244" hidden="1" spans="2:4">
+    <row r="1244" hidden="1" spans="1:4">
+      <c r="A1244" s="1">
+        <v>0</v>
+      </c>
       <c r="B1244" s="1" t="s">
         <v>3718</v>
       </c>
@@ -27171,7 +27318,10 @@
         <v>3729</v>
       </c>
     </row>
-    <row r="1248" hidden="1" spans="2:4">
+    <row r="1248" hidden="1" spans="1:4">
+      <c r="A1248" s="1">
+        <v>0</v>
+      </c>
       <c r="B1248" s="1" t="s">
         <v>3730</v>
       </c>
@@ -27248,7 +27398,10 @@
         <v>3749</v>
       </c>
     </row>
-    <row r="1255" hidden="1" spans="2:4">
+    <row r="1255" hidden="1" spans="1:4">
+      <c r="A1255" s="1">
+        <v>0</v>
+      </c>
       <c r="B1255" s="1" t="s">
         <v>3750</v>
       </c>
@@ -27281,7 +27434,10 @@
         <v>3758</v>
       </c>
     </row>
-    <row r="1258" hidden="1" spans="2:4">
+    <row r="1258" hidden="1" spans="1:4">
+      <c r="A1258" s="1">
+        <v>0</v>
+      </c>
       <c r="B1258" s="1" t="s">
         <v>3759</v>
       </c>
@@ -27303,7 +27459,10 @@
         <v>3764</v>
       </c>
     </row>
-    <row r="1260" hidden="1" spans="2:4">
+    <row r="1260" spans="1:4">
+      <c r="A1260" s="1">
+        <v>1</v>
+      </c>
       <c r="B1260" s="1" t="s">
         <v>3765</v>
       </c>
@@ -27391,7 +27550,10 @@
         <v>3788</v>
       </c>
     </row>
-    <row r="1268" hidden="1" spans="2:4">
+    <row r="1268" hidden="1" spans="1:4">
+      <c r="A1268" s="1">
+        <v>0</v>
+      </c>
       <c r="B1268" s="1" t="s">
         <v>3789</v>
       </c>
@@ -27512,7 +27674,10 @@
         <v>3821</v>
       </c>
     </row>
-    <row r="1279" hidden="1" spans="2:4">
+    <row r="1279" spans="1:4">
+      <c r="A1279" s="1">
+        <v>1</v>
+      </c>
       <c r="B1279" s="1" t="s">
         <v>3822</v>
       </c>
@@ -27633,7 +27798,10 @@
         <v>3854</v>
       </c>
     </row>
-    <row r="1290" hidden="1" spans="2:4">
+    <row r="1290" hidden="1" spans="1:4">
+      <c r="A1290" s="1">
+        <v>0</v>
+      </c>
       <c r="B1290" s="1" t="s">
         <v>3855</v>
       </c>
@@ -27688,7 +27856,10 @@
         <v>3869</v>
       </c>
     </row>
-    <row r="1295" hidden="1" spans="2:4">
+    <row r="1295" hidden="1" spans="1:4">
+      <c r="A1295" s="1">
+        <v>0</v>
+      </c>
       <c r="B1295" s="1" t="s">
         <v>3870</v>
       </c>
@@ -27700,11 +27871,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A1295">
+  <autoFilter ref="A1:D1295">
     <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="equal" val="1"/>
-      </customFilters>
+      <filters>
+        <filter val="1"/>
+        <filter val="2"/>
+        <filter val="3"/>
+        <filter val="4"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <sortState ref="A2:D1295">

--- a/Level 1.xlsx
+++ b/Level 1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14920" tabRatio="500"/>
+    <workbookView windowWidth="16620" windowHeight="17220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -11888,18 +11888,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -11911,10 +11911,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -11927,15 +11928,30 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11956,17 +11972,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11979,8 +11986,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11988,7 +12004,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12003,25 +12019,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -12040,7 +12040,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12052,13 +12058,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12070,13 +12094,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12088,55 +12148,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12154,13 +12184,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12172,55 +12196,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12247,7 +12247,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12256,7 +12256,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12276,32 +12306,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -12317,102 +12321,98 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -12421,58 +12421,58 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -12921,7 +12921,7 @@
   <dimension ref="A1:D1295"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1279" sqref="A1279"/>
+      <selection activeCell="C896" sqref="C896"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="3"/>

--- a/Level 1.xlsx
+++ b/Level 1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16620" windowHeight="17220" tabRatio="500"/>
+    <workbookView windowWidth="19410" windowHeight="8655" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -11855,9 +11855,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -11882,32 +11882,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -11919,8 +11896,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11942,6 +11920,60 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -11952,14 +11984,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11980,7 +12004,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11988,23 +12012,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12012,14 +12020,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12046,7 +12046,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12058,7 +12064,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12070,13 +12100,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12088,19 +12160,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12112,49 +12178,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12166,49 +12202,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12220,7 +12214,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12237,71 +12237,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12331,151 +12268,214 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -12540,11 +12540,6 @@
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -12580,7 +12575,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2425700" y="304800"/>
+          <a:off x="2728595" y="238125"/>
           <a:ext cx="190500" cy="139700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12647,8 +12642,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9805670" y="304800"/>
-          <a:ext cx="4806315" cy="2190750"/>
+          <a:off x="11031220" y="238125"/>
+          <a:ext cx="5406390" cy="1724025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12665,7 +12660,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -12912,6 +12907,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -12920,16 +12916,16 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D1295"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C896" sqref="C896"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A582" workbookViewId="0">
+      <selection activeCell="A1296" sqref="A1296"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="10.8333333333333" style="1"/>
+    <col min="1" max="1" width="10.8296296296296" style="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="22.35" customWidth="1"/>
-    <col min="4" max="4" width="38.5" customWidth="1"/>
+    <col min="3" max="3" width="22.3481481481481" customWidth="1"/>
+    <col min="4" max="4" width="38.5037037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -12946,7 +12942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="48" hidden="1" spans="2:4">
+    <row r="2" ht="37.5" hidden="1" spans="2:4">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -12957,7 +12953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="48" hidden="1" spans="2:4">
+    <row r="3" ht="37.5" hidden="1" spans="2:4">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -12968,7 +12964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="48" hidden="1" spans="2:4">
+    <row r="4" ht="37.5" hidden="1" spans="2:4">
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
@@ -12979,7 +12975,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="48" hidden="1" spans="1:4">
+    <row r="5" ht="37.5" hidden="1" spans="1:4">
       <c r="A5" s="1">
         <v>-1</v>
       </c>
@@ -12993,7 +12989,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="48" hidden="1" spans="1:4">
+    <row r="6" ht="37.5" hidden="1" spans="1:4">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -13007,7 +13003,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="48" hidden="1" spans="2:4">
+    <row r="7" ht="37.5" hidden="1" spans="2:4">
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
@@ -13018,7 +13014,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" ht="48" hidden="1" spans="2:4">
+    <row r="8" ht="37.5" hidden="1" spans="2:4">
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -13029,7 +13025,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" ht="48" hidden="1" spans="2:4">
+    <row r="9" ht="37.5" hidden="1" spans="2:4">
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
@@ -13040,7 +13036,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" ht="48" hidden="1" spans="2:4">
+    <row r="10" ht="37.5" hidden="1" spans="2:4">
       <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
@@ -13051,7 +13047,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" ht="48" hidden="1" spans="2:4">
+    <row r="11" ht="37.5" hidden="1" spans="2:4">
       <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
@@ -13062,7 +13058,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" ht="48" hidden="1" spans="2:4">
+    <row r="12" ht="37.5" hidden="1" spans="2:4">
       <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
@@ -13073,7 +13069,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" ht="48" hidden="1" spans="2:4">
+    <row r="13" ht="37.5" hidden="1" spans="2:4">
       <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
@@ -13084,7 +13080,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" ht="48" hidden="1" spans="2:4">
+    <row r="14" ht="37.5" hidden="1" spans="2:4">
       <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
@@ -13095,7 +13091,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" ht="48" hidden="1" spans="2:4">
+    <row r="15" ht="37.5" hidden="1" spans="2:4">
       <c r="B15" s="1" t="s">
         <v>43</v>
       </c>
@@ -13552,7 +13548,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" ht="48" hidden="1" spans="2:4">
+    <row r="56" hidden="1" spans="2:4">
       <c r="B56" s="1" t="s">
         <v>166</v>
       </c>
@@ -13893,7 +13889,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="87" ht="48" hidden="1" spans="2:4">
+    <row r="87" hidden="1" spans="2:4">
       <c r="B87" s="1" t="s">
         <v>259</v>
       </c>
@@ -14028,7 +14024,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="99" ht="48" hidden="1" spans="2:4">
+    <row r="99" hidden="1" spans="2:4">
       <c r="B99" s="1" t="s">
         <v>295</v>
       </c>
@@ -14061,7 +14057,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="102" ht="48" hidden="1" spans="2:4">
+    <row r="102" hidden="1" spans="2:4">
       <c r="B102" s="1" t="s">
         <v>304</v>
       </c>
@@ -14422,7 +14418,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="134" ht="48" hidden="1" spans="2:4">
+    <row r="134" hidden="1" spans="2:4">
       <c r="B134" s="1" t="s">
         <v>400</v>
       </c>
@@ -14612,7 +14608,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="151" ht="48" hidden="1" spans="2:4">
+    <row r="151" hidden="1" spans="2:4">
       <c r="B151" s="1" t="s">
         <v>451</v>
       </c>
@@ -14706,7 +14702,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="159" ht="48" hidden="1" spans="2:4">
+    <row r="159" hidden="1" spans="2:4">
       <c r="B159" s="1" t="s">
         <v>475</v>
       </c>
@@ -14871,7 +14867,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="174" ht="48" hidden="1" spans="2:4">
+    <row r="174" ht="37.5" hidden="1" spans="2:4">
       <c r="B174" s="1" t="s">
         <v>520</v>
       </c>
@@ -14918,7 +14914,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="178" ht="48" hidden="1" spans="2:4">
+    <row r="178" hidden="1" spans="2:4">
       <c r="B178" s="1" t="s">
         <v>532</v>
       </c>
@@ -15042,7 +15038,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="189" ht="48" hidden="1" spans="2:4">
+    <row r="189" hidden="1" spans="2:4">
       <c r="B189" s="1" t="s">
         <v>564</v>
       </c>
@@ -15218,7 +15214,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="205" ht="48" hidden="1" spans="2:4">
+    <row r="205" hidden="1" spans="2:4">
       <c r="B205" s="1" t="s">
         <v>612</v>
       </c>
@@ -15254,7 +15250,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="208" ht="48" hidden="1" spans="2:4">
+    <row r="208" ht="37.5" hidden="1" spans="2:4">
       <c r="B208" s="1" t="s">
         <v>621</v>
       </c>
@@ -15298,7 +15294,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="212" ht="48" hidden="1" spans="2:4">
+    <row r="212" hidden="1" spans="2:4">
       <c r="B212" s="1" t="s">
         <v>633</v>
       </c>
@@ -15466,7 +15462,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="227" ht="48" hidden="1" spans="2:4">
+    <row r="227" ht="37.5" hidden="1" spans="2:4">
       <c r="B227" s="1" t="s">
         <v>678</v>
       </c>
@@ -15848,7 +15844,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="259" ht="48" hidden="1" spans="2:4">
+    <row r="259" ht="37.5" hidden="1" spans="2:4">
       <c r="B259" s="1" t="s">
         <v>774</v>
       </c>
@@ -16411,7 +16407,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="308" ht="48" hidden="1" spans="2:4">
+    <row r="308" ht="37.5" hidden="1" spans="2:4">
       <c r="B308" s="1" t="s">
         <v>921</v>
       </c>
@@ -16969,7 +16965,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="356" ht="48" hidden="1" spans="2:4">
+    <row r="356" hidden="1" spans="2:4">
       <c r="B356" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17016,7 +17012,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="360" ht="48" hidden="1" spans="2:4">
+    <row r="360" ht="37.5" hidden="1" spans="2:4">
       <c r="B360" s="1" t="s">
         <v>1077</v>
       </c>
@@ -17257,7 +17253,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="380" ht="48" hidden="1" spans="1:4">
+    <row r="380" ht="37.5" hidden="1" spans="1:4">
       <c r="A380" s="1">
         <v>-1</v>
       </c>
@@ -17857,7 +17853,7 @@
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B433" s="1" t="s">
         <v>1294</v>
@@ -18607,7 +18603,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="497" ht="48" hidden="1" spans="2:4">
+    <row r="497" ht="37.5" hidden="1" spans="2:4">
       <c r="B497" s="1" t="s">
         <v>1486</v>
       </c>
@@ -18814,7 +18810,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="515" ht="48" hidden="1" spans="1:4">
+    <row r="515" ht="37.5" hidden="1" spans="1:4">
       <c r="A515" s="1">
         <v>0</v>
       </c>
@@ -18883,7 +18879,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="521" ht="48" hidden="1" spans="2:4">
+    <row r="521" ht="37.5" hidden="1" spans="2:4">
       <c r="B521" s="1" t="s">
         <v>1558</v>
       </c>
@@ -18916,7 +18912,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="524" ht="48" hidden="1" spans="2:4">
+    <row r="524" ht="37.5" hidden="1" spans="2:4">
       <c r="B524" s="1" t="s">
         <v>1567</v>
       </c>
@@ -19073,7 +19069,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="538" ht="48" hidden="1" spans="2:4">
+    <row r="538" hidden="1" spans="2:4">
       <c r="B538" s="1" t="s">
         <v>1609</v>
       </c>
@@ -19579,7 +19575,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="581" ht="48" hidden="1" spans="2:4">
+    <row r="581" hidden="1" spans="2:4">
       <c r="B581" s="1" t="s">
         <v>1738</v>
       </c>
@@ -20120,7 +20116,7 @@
     </row>
     <row r="627" spans="1:4">
       <c r="A627" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B627" s="1" t="s">
         <v>1876</v>
@@ -20165,7 +20161,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="631" ht="48" hidden="1" spans="1:4">
+    <row r="631" hidden="1" spans="1:4">
       <c r="A631" s="1">
         <v>0</v>
       </c>
@@ -20679,7 +20675,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="675" ht="48" hidden="1" spans="2:4">
+    <row r="675" hidden="1" spans="2:4">
       <c r="B675" s="1" t="s">
         <v>2019</v>
       </c>
@@ -21054,7 +21050,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="708" ht="48" hidden="1" spans="2:4">
+    <row r="708" hidden="1" spans="2:4">
       <c r="B708" s="1" t="s">
         <v>2118</v>
       </c>
@@ -21585,7 +21581,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="753" ht="48" hidden="1" spans="2:4">
+    <row r="753" ht="37.5" hidden="1" spans="2:4">
       <c r="B753" s="1" t="s">
         <v>2253</v>
       </c>
@@ -21673,7 +21669,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="761" ht="48" hidden="1" spans="2:4">
+    <row r="761" ht="37.5" hidden="1" spans="2:4">
       <c r="B761" s="1" t="s">
         <v>2277</v>
       </c>
@@ -21976,7 +21972,7 @@
     </row>
     <row r="787" spans="1:4">
       <c r="A787" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B787" s="1" t="s">
         <v>2355</v>
@@ -22382,7 +22378,7 @@
         <v>2462</v>
       </c>
     </row>
-    <row r="823" ht="48" hidden="1" spans="2:4">
+    <row r="823" ht="37.5" hidden="1" spans="2:4">
       <c r="B823" s="1" t="s">
         <v>2463</v>
       </c>
@@ -22448,7 +22444,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="829" ht="48" hidden="1" spans="2:4">
+    <row r="829" ht="37.5" hidden="1" spans="2:4">
       <c r="B829" s="1" t="s">
         <v>2481</v>
       </c>
@@ -22679,7 +22675,7 @@
     </row>
     <row r="849" spans="1:4">
       <c r="A849" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B849" s="1" t="s">
         <v>2540</v>
@@ -22815,7 +22811,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="861" ht="48" hidden="1" spans="2:4">
+    <row r="861" ht="37.5" hidden="1" spans="2:4">
       <c r="B861" s="1" t="s">
         <v>2576</v>
       </c>
@@ -22986,7 +22982,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="876" ht="48" hidden="1" spans="2:4">
+    <row r="876" ht="37.5" hidden="1" spans="2:4">
       <c r="B876" s="1" t="s">
         <v>2621</v>
       </c>
@@ -23204,7 +23200,7 @@
         <v>2677</v>
       </c>
     </row>
-    <row r="895" ht="48" hidden="1" spans="2:4">
+    <row r="895" ht="37.5" hidden="1" spans="2:4">
       <c r="B895" s="1" t="s">
         <v>2678</v>
       </c>
@@ -23243,7 +23239,7 @@
         <v>2686</v>
       </c>
     </row>
-    <row r="898" ht="48" hidden="1" spans="2:4">
+    <row r="898" ht="37.5" hidden="1" spans="2:4">
       <c r="B898" s="1" t="s">
         <v>2687</v>
       </c>
@@ -23325,7 +23321,7 @@
     </row>
     <row r="905" spans="1:4">
       <c r="A905" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B905" s="1" t="s">
         <v>2708</v>
@@ -23365,7 +23361,7 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="908" ht="48" hidden="1" spans="2:4">
+    <row r="908" ht="37.5" hidden="1" spans="2:4">
       <c r="B908" s="1" t="s">
         <v>2717</v>
       </c>
@@ -23376,7 +23372,7 @@
         <v>2719</v>
       </c>
     </row>
-    <row r="909" ht="48" hidden="1" spans="2:4">
+    <row r="909" hidden="1" spans="2:4">
       <c r="B909" s="1" t="s">
         <v>2720</v>
       </c>
@@ -23387,7 +23383,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="910" ht="48" hidden="1" spans="2:4">
+    <row r="910" hidden="1" spans="2:4">
       <c r="B910" s="1" t="s">
         <v>2723</v>
       </c>
@@ -23613,7 +23609,7 @@
         <v>2782</v>
       </c>
     </row>
-    <row r="930" ht="48" hidden="1" spans="1:4">
+    <row r="930" hidden="1" spans="1:4">
       <c r="A930" s="1">
         <v>0</v>
       </c>
@@ -23798,7 +23794,7 @@
         <v>2830</v>
       </c>
     </row>
-    <row r="946" ht="48" hidden="1" spans="2:4">
+    <row r="946" hidden="1" spans="2:4">
       <c r="B946" s="1" t="s">
         <v>2831</v>
       </c>
@@ -23866,7 +23862,7 @@
     </row>
     <row r="952" spans="1:4">
       <c r="A952" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B952" s="1" t="s">
         <v>2849</v>
@@ -23878,7 +23874,7 @@
         <v>2851</v>
       </c>
     </row>
-    <row r="953" ht="48" hidden="1" spans="2:4">
+    <row r="953" hidden="1" spans="2:4">
       <c r="B953" s="1" t="s">
         <v>2852</v>
       </c>
@@ -24146,7 +24142,7 @@
         <v>2920</v>
       </c>
     </row>
-    <row r="976" ht="48" hidden="1" spans="2:4">
+    <row r="976" ht="37.5" hidden="1" spans="2:4">
       <c r="B976" s="1" t="s">
         <v>2921</v>
       </c>
@@ -24204,7 +24200,7 @@
         <v>2935</v>
       </c>
     </row>
-    <row r="981" ht="48" hidden="1" spans="2:4">
+    <row r="981" ht="37.5" hidden="1" spans="2:4">
       <c r="B981" s="1" t="s">
         <v>2936</v>
       </c>
@@ -24591,7 +24587,7 @@
         <v>3034</v>
       </c>
     </row>
-    <row r="1014" ht="48" hidden="1" spans="2:4">
+    <row r="1014" hidden="1" spans="2:4">
       <c r="B1014" s="1" t="s">
         <v>3035</v>
       </c>
@@ -24848,7 +24844,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="1036" ht="48" hidden="1" spans="1:4">
+    <row r="1036" hidden="1" spans="1:4">
       <c r="A1036" s="1">
         <v>0</v>
       </c>
@@ -24908,7 +24904,7 @@
     </row>
     <row r="1041" spans="1:4">
       <c r="A1041" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1041" s="1" t="s">
         <v>3116</v>
@@ -25044,7 +25040,7 @@
         <v>3151</v>
       </c>
     </row>
-    <row r="1053" ht="48" hidden="1" spans="2:4">
+    <row r="1053" ht="37.5" hidden="1" spans="2:4">
       <c r="B1053" s="1" t="s">
         <v>3152</v>
       </c>
@@ -25395,7 +25391,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="1083" ht="48" hidden="1" spans="2:4">
+    <row r="1083" ht="37.5" hidden="1" spans="2:4">
       <c r="B1083" s="1" t="s">
         <v>3241</v>
       </c>
@@ -25478,7 +25474,7 @@
         <v>3261</v>
       </c>
     </row>
-    <row r="1090" ht="48" hidden="1" spans="1:4">
+    <row r="1090" ht="37.5" hidden="1" spans="1:4">
       <c r="A1090" s="1">
         <v>0</v>
       </c>
@@ -25769,7 +25765,7 @@
         <v>3332</v>
       </c>
     </row>
-    <row r="1114" ht="48" hidden="1" spans="2:4">
+    <row r="1114" ht="37.5" hidden="1" spans="2:4">
       <c r="B1114" s="1" t="s">
         <v>3333</v>
       </c>
@@ -25918,7 +25914,7 @@
         <v>3371</v>
       </c>
     </row>
-    <row r="1127" ht="48" hidden="1" spans="2:4">
+    <row r="1127" ht="37.5" hidden="1" spans="2:4">
       <c r="B1127" s="1" t="s">
         <v>3372</v>
       </c>
@@ -26799,7 +26795,7 @@
         <v>3595</v>
       </c>
     </row>
-    <row r="1203" ht="48" hidden="1" spans="2:4">
+    <row r="1203" hidden="1" spans="2:4">
       <c r="B1203" s="1" t="s">
         <v>3596</v>
       </c>
@@ -26821,7 +26817,7 @@
         <v>3601</v>
       </c>
     </row>
-    <row r="1205" ht="48" hidden="1" spans="2:4">
+    <row r="1205" hidden="1" spans="2:4">
       <c r="B1205" s="1" t="s">
         <v>3602</v>
       </c>
@@ -26967,7 +26963,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="1218" ht="48" hidden="1" spans="1:4">
+    <row r="1218" hidden="1" spans="1:4">
       <c r="A1218" s="1">
         <v>0</v>
       </c>
@@ -27154,7 +27150,7 @@
     </row>
     <row r="1234" spans="1:4">
       <c r="A1234" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1234" s="1" t="s">
         <v>3689</v>

--- a/Level 1.xlsx
+++ b/Level 1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19410" windowHeight="8655" tabRatio="500"/>
+    <workbookView windowHeight="17220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -11855,10 +11855,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -11882,7 +11882,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11896,14 +11910,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -11913,7 +11919,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11921,6 +11927,14 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -11937,7 +11951,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11951,33 +11972,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -11989,8 +11996,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12004,22 +12019,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12046,7 +12046,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12058,7 +12058,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12070,7 +12076,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12082,13 +12166,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12100,43 +12184,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12148,79 +12214,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12237,34 +12237,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12273,31 +12247,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12331,151 +12281,201 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -12540,6 +12540,11 @@
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -12575,7 +12580,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2728595" y="238125"/>
+          <a:off x="2425700" y="304800"/>
           <a:ext cx="190500" cy="139700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12618,7 +12623,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>6074</xdr:colOff>
-      <xdr:row>708</xdr:row>
+      <xdr:row>779</xdr:row>
       <xdr:rowOff>57426</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12642,8 +12647,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11031220" y="238125"/>
-          <a:ext cx="5406390" cy="1724025"/>
+          <a:off x="9805670" y="304800"/>
+          <a:ext cx="4806315" cy="2190750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12660,7 +12665,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4C4C4C"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -12907,7 +12912,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -12916,16 +12920,16 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D1295"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A582" workbookViewId="0">
-      <selection activeCell="A1296" sqref="A1296"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="10.8296296296296" style="1"/>
+    <col min="1" max="1" width="10.8333333333333" style="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="22.3481481481481" customWidth="1"/>
-    <col min="4" max="4" width="38.5037037037037" customWidth="1"/>
+    <col min="3" max="3" width="22.35" customWidth="1"/>
+    <col min="4" max="4" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -12942,7 +12946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="37.5" hidden="1" spans="2:4">
+    <row r="2" ht="48" hidden="1" spans="2:4">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -12953,7 +12957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="37.5" hidden="1" spans="2:4">
+    <row r="3" ht="48" hidden="1" spans="2:4">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -12964,7 +12968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="37.5" hidden="1" spans="2:4">
+    <row r="4" ht="48" hidden="1" spans="2:4">
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
@@ -12975,7 +12979,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="37.5" hidden="1" spans="1:4">
+    <row r="5" ht="48" hidden="1" spans="1:4">
       <c r="A5" s="1">
         <v>-1</v>
       </c>
@@ -12989,7 +12993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="37.5" hidden="1" spans="1:4">
+    <row r="6" ht="48" hidden="1" spans="1:4">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -13003,7 +13007,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="37.5" hidden="1" spans="2:4">
+    <row r="7" ht="48" hidden="1" spans="2:4">
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
@@ -13014,7 +13018,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" ht="37.5" hidden="1" spans="2:4">
+    <row r="8" ht="48" hidden="1" spans="2:4">
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -13025,7 +13029,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" ht="37.5" hidden="1" spans="2:4">
+    <row r="9" ht="48" hidden="1" spans="2:4">
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
@@ -13036,7 +13040,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" ht="37.5" hidden="1" spans="2:4">
+    <row r="10" ht="48" hidden="1" spans="2:4">
       <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
@@ -13047,7 +13051,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" ht="37.5" hidden="1" spans="2:4">
+    <row r="11" ht="48" hidden="1" spans="2:4">
       <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
@@ -13058,7 +13062,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" ht="37.5" hidden="1" spans="2:4">
+    <row r="12" ht="48" hidden="1" spans="2:4">
       <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
@@ -13069,7 +13073,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" ht="37.5" hidden="1" spans="2:4">
+    <row r="13" ht="48" hidden="1" spans="2:4">
       <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
@@ -13080,7 +13084,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" ht="37.5" hidden="1" spans="2:4">
+    <row r="14" ht="48" hidden="1" spans="2:4">
       <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
@@ -13091,7 +13095,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" ht="37.5" hidden="1" spans="2:4">
+    <row r="15" ht="48" hidden="1" spans="2:4">
       <c r="B15" s="1" t="s">
         <v>43</v>
       </c>
@@ -13548,7 +13552,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" hidden="1" spans="2:4">
+    <row r="56" ht="48" hidden="1" spans="2:4">
       <c r="B56" s="1" t="s">
         <v>166</v>
       </c>
@@ -13889,7 +13893,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="87" hidden="1" spans="2:4">
+    <row r="87" ht="48" hidden="1" spans="2:4">
       <c r="B87" s="1" t="s">
         <v>259</v>
       </c>
@@ -14024,7 +14028,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="99" hidden="1" spans="2:4">
+    <row r="99" ht="48" hidden="1" spans="2:4">
       <c r="B99" s="1" t="s">
         <v>295</v>
       </c>
@@ -14057,7 +14061,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="102" hidden="1" spans="2:4">
+    <row r="102" ht="48" hidden="1" spans="2:4">
       <c r="B102" s="1" t="s">
         <v>304</v>
       </c>
@@ -14418,7 +14422,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="134" hidden="1" spans="2:4">
+    <row r="134" ht="48" hidden="1" spans="2:4">
       <c r="B134" s="1" t="s">
         <v>400</v>
       </c>
@@ -14608,7 +14612,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="151" hidden="1" spans="2:4">
+    <row r="151" ht="48" hidden="1" spans="2:4">
       <c r="B151" s="1" t="s">
         <v>451</v>
       </c>
@@ -14702,7 +14706,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="159" hidden="1" spans="2:4">
+    <row r="159" ht="48" hidden="1" spans="2:4">
       <c r="B159" s="1" t="s">
         <v>475</v>
       </c>
@@ -14867,7 +14871,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="174" ht="37.5" hidden="1" spans="2:4">
+    <row r="174" ht="48" hidden="1" spans="2:4">
       <c r="B174" s="1" t="s">
         <v>520</v>
       </c>
@@ -14914,7 +14918,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="178" hidden="1" spans="2:4">
+    <row r="178" ht="48" hidden="1" spans="2:4">
       <c r="B178" s="1" t="s">
         <v>532</v>
       </c>
@@ -15038,7 +15042,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="189" hidden="1" spans="2:4">
+    <row r="189" ht="48" hidden="1" spans="2:4">
       <c r="B189" s="1" t="s">
         <v>564</v>
       </c>
@@ -15214,7 +15218,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="205" hidden="1" spans="2:4">
+    <row r="205" ht="48" hidden="1" spans="2:4">
       <c r="B205" s="1" t="s">
         <v>612</v>
       </c>
@@ -15250,7 +15254,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="208" ht="37.5" hidden="1" spans="2:4">
+    <row r="208" ht="48" hidden="1" spans="2:4">
       <c r="B208" s="1" t="s">
         <v>621</v>
       </c>
@@ -15294,7 +15298,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="212" hidden="1" spans="2:4">
+    <row r="212" ht="48" hidden="1" spans="2:4">
       <c r="B212" s="1" t="s">
         <v>633</v>
       </c>
@@ -15462,7 +15466,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="227" ht="37.5" hidden="1" spans="2:4">
+    <row r="227" ht="48" hidden="1" spans="2:4">
       <c r="B227" s="1" t="s">
         <v>678</v>
       </c>
@@ -15705,9 +15709,9 @@
         <v>740</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" hidden="1" spans="1:4">
       <c r="A248" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>741</v>
@@ -15844,7 +15848,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="259" ht="37.5" hidden="1" spans="2:4">
+    <row r="259" ht="48" hidden="1" spans="2:4">
       <c r="B259" s="1" t="s">
         <v>774</v>
       </c>
@@ -16023,7 +16027,7 @@
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>819</v>
@@ -16407,7 +16411,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="308" ht="37.5" hidden="1" spans="2:4">
+    <row r="308" ht="48" hidden="1" spans="2:4">
       <c r="B308" s="1" t="s">
         <v>921</v>
       </c>
@@ -16965,7 +16969,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="356" hidden="1" spans="2:4">
+    <row r="356" ht="48" hidden="1" spans="2:4">
       <c r="B356" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17012,7 +17016,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="360" ht="37.5" hidden="1" spans="2:4">
+    <row r="360" ht="48" hidden="1" spans="2:4">
       <c r="B360" s="1" t="s">
         <v>1077</v>
       </c>
@@ -17253,7 +17257,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="380" ht="37.5" hidden="1" spans="1:4">
+    <row r="380" ht="48" hidden="1" spans="1:4">
       <c r="A380" s="1">
         <v>-1</v>
       </c>
@@ -18603,7 +18607,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="497" ht="37.5" hidden="1" spans="2:4">
+    <row r="497" ht="48" hidden="1" spans="2:4">
       <c r="B497" s="1" t="s">
         <v>1486</v>
       </c>
@@ -18810,7 +18814,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="515" ht="37.5" hidden="1" spans="1:4">
+    <row r="515" ht="48" hidden="1" spans="1:4">
       <c r="A515" s="1">
         <v>0</v>
       </c>
@@ -18879,7 +18883,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="521" ht="37.5" hidden="1" spans="2:4">
+    <row r="521" ht="48" hidden="1" spans="2:4">
       <c r="B521" s="1" t="s">
         <v>1558</v>
       </c>
@@ -18912,7 +18916,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="524" ht="37.5" hidden="1" spans="2:4">
+    <row r="524" ht="48" hidden="1" spans="2:4">
       <c r="B524" s="1" t="s">
         <v>1567</v>
       </c>
@@ -19069,7 +19073,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="538" hidden="1" spans="2:4">
+    <row r="538" ht="48" hidden="1" spans="2:4">
       <c r="B538" s="1" t="s">
         <v>1609</v>
       </c>
@@ -19575,7 +19579,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="581" hidden="1" spans="2:4">
+    <row r="581" ht="48" hidden="1" spans="2:4">
       <c r="B581" s="1" t="s">
         <v>1738</v>
       </c>
@@ -20161,7 +20165,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="631" hidden="1" spans="1:4">
+    <row r="631" ht="48" hidden="1" spans="1:4">
       <c r="A631" s="1">
         <v>0</v>
       </c>
@@ -20675,7 +20679,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="675" hidden="1" spans="2:4">
+    <row r="675" ht="48" hidden="1" spans="2:4">
       <c r="B675" s="1" t="s">
         <v>2019</v>
       </c>
@@ -21050,7 +21054,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="708" hidden="1" spans="2:4">
+    <row r="708" ht="48" hidden="1" spans="2:4">
       <c r="B708" s="1" t="s">
         <v>2118</v>
       </c>
@@ -21581,7 +21585,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="753" ht="37.5" hidden="1" spans="2:4">
+    <row r="753" ht="48" hidden="1" spans="2:4">
       <c r="B753" s="1" t="s">
         <v>2253</v>
       </c>
@@ -21669,7 +21673,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="761" ht="37.5" hidden="1" spans="2:4">
+    <row r="761" ht="48" hidden="1" spans="2:4">
       <c r="B761" s="1" t="s">
         <v>2277</v>
       </c>
@@ -21972,7 +21976,7 @@
     </row>
     <row r="787" spans="1:4">
       <c r="A787" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B787" s="1" t="s">
         <v>2355</v>
@@ -22378,7 +22382,7 @@
         <v>2462</v>
       </c>
     </row>
-    <row r="823" ht="37.5" hidden="1" spans="2:4">
+    <row r="823" ht="48" hidden="1" spans="2:4">
       <c r="B823" s="1" t="s">
         <v>2463</v>
       </c>
@@ -22444,7 +22448,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="829" ht="37.5" hidden="1" spans="2:4">
+    <row r="829" ht="48" hidden="1" spans="2:4">
       <c r="B829" s="1" t="s">
         <v>2481</v>
       </c>
@@ -22811,7 +22815,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="861" ht="37.5" hidden="1" spans="2:4">
+    <row r="861" ht="48" hidden="1" spans="2:4">
       <c r="B861" s="1" t="s">
         <v>2576</v>
       </c>
@@ -22982,7 +22986,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="876" ht="37.5" hidden="1" spans="2:4">
+    <row r="876" ht="48" hidden="1" spans="2:4">
       <c r="B876" s="1" t="s">
         <v>2621</v>
       </c>
@@ -23200,7 +23204,7 @@
         <v>2677</v>
       </c>
     </row>
-    <row r="895" ht="37.5" hidden="1" spans="2:4">
+    <row r="895" ht="48" hidden="1" spans="2:4">
       <c r="B895" s="1" t="s">
         <v>2678</v>
       </c>
@@ -23239,7 +23243,7 @@
         <v>2686</v>
       </c>
     </row>
-    <row r="898" ht="37.5" hidden="1" spans="2:4">
+    <row r="898" ht="48" hidden="1" spans="2:4">
       <c r="B898" s="1" t="s">
         <v>2687</v>
       </c>
@@ -23361,7 +23365,7 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="908" ht="37.5" hidden="1" spans="2:4">
+    <row r="908" ht="48" hidden="1" spans="2:4">
       <c r="B908" s="1" t="s">
         <v>2717</v>
       </c>
@@ -23372,7 +23376,7 @@
         <v>2719</v>
       </c>
     </row>
-    <row r="909" hidden="1" spans="2:4">
+    <row r="909" ht="48" hidden="1" spans="2:4">
       <c r="B909" s="1" t="s">
         <v>2720</v>
       </c>
@@ -23383,7 +23387,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="910" hidden="1" spans="2:4">
+    <row r="910" ht="48" hidden="1" spans="2:4">
       <c r="B910" s="1" t="s">
         <v>2723</v>
       </c>
@@ -23609,7 +23613,7 @@
         <v>2782</v>
       </c>
     </row>
-    <row r="930" hidden="1" spans="1:4">
+    <row r="930" ht="48" hidden="1" spans="1:4">
       <c r="A930" s="1">
         <v>0</v>
       </c>
@@ -23794,7 +23798,7 @@
         <v>2830</v>
       </c>
     </row>
-    <row r="946" hidden="1" spans="2:4">
+    <row r="946" ht="48" hidden="1" spans="2:4">
       <c r="B946" s="1" t="s">
         <v>2831</v>
       </c>
@@ -23862,7 +23866,7 @@
     </row>
     <row r="952" spans="1:4">
       <c r="A952" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B952" s="1" t="s">
         <v>2849</v>
@@ -23874,7 +23878,7 @@
         <v>2851</v>
       </c>
     </row>
-    <row r="953" hidden="1" spans="2:4">
+    <row r="953" ht="48" hidden="1" spans="2:4">
       <c r="B953" s="1" t="s">
         <v>2852</v>
       </c>
@@ -24142,7 +24146,7 @@
         <v>2920</v>
       </c>
     </row>
-    <row r="976" ht="37.5" hidden="1" spans="2:4">
+    <row r="976" ht="48" hidden="1" spans="2:4">
       <c r="B976" s="1" t="s">
         <v>2921</v>
       </c>
@@ -24200,7 +24204,7 @@
         <v>2935</v>
       </c>
     </row>
-    <row r="981" ht="37.5" hidden="1" spans="2:4">
+    <row r="981" ht="48" hidden="1" spans="2:4">
       <c r="B981" s="1" t="s">
         <v>2936</v>
       </c>
@@ -24587,7 +24591,7 @@
         <v>3034</v>
       </c>
     </row>
-    <row r="1014" hidden="1" spans="2:4">
+    <row r="1014" ht="48" hidden="1" spans="2:4">
       <c r="B1014" s="1" t="s">
         <v>3035</v>
       </c>
@@ -24844,7 +24848,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="1036" hidden="1" spans="1:4">
+    <row r="1036" ht="48" hidden="1" spans="1:4">
       <c r="A1036" s="1">
         <v>0</v>
       </c>
@@ -25040,7 +25044,7 @@
         <v>3151</v>
       </c>
     </row>
-    <row r="1053" ht="37.5" hidden="1" spans="2:4">
+    <row r="1053" ht="48" hidden="1" spans="2:4">
       <c r="B1053" s="1" t="s">
         <v>3152</v>
       </c>
@@ -25391,7 +25395,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="1083" ht="37.5" hidden="1" spans="2:4">
+    <row r="1083" ht="48" hidden="1" spans="2:4">
       <c r="B1083" s="1" t="s">
         <v>3241</v>
       </c>
@@ -25474,7 +25478,7 @@
         <v>3261</v>
       </c>
     </row>
-    <row r="1090" ht="37.5" hidden="1" spans="1:4">
+    <row r="1090" ht="48" hidden="1" spans="1:4">
       <c r="A1090" s="1">
         <v>0</v>
       </c>
@@ -25765,7 +25769,7 @@
         <v>3332</v>
       </c>
     </row>
-    <row r="1114" ht="37.5" hidden="1" spans="2:4">
+    <row r="1114" ht="48" hidden="1" spans="2:4">
       <c r="B1114" s="1" t="s">
         <v>3333</v>
       </c>
@@ -25914,7 +25918,7 @@
         <v>3371</v>
       </c>
     </row>
-    <row r="1127" ht="37.5" hidden="1" spans="2:4">
+    <row r="1127" ht="48" hidden="1" spans="2:4">
       <c r="B1127" s="1" t="s">
         <v>3372</v>
       </c>
@@ -26795,7 +26799,7 @@
         <v>3595</v>
       </c>
     </row>
-    <row r="1203" hidden="1" spans="2:4">
+    <row r="1203" ht="48" hidden="1" spans="2:4">
       <c r="B1203" s="1" t="s">
         <v>3596</v>
       </c>
@@ -26817,7 +26821,7 @@
         <v>3601</v>
       </c>
     </row>
-    <row r="1205" hidden="1" spans="2:4">
+    <row r="1205" ht="48" hidden="1" spans="2:4">
       <c r="B1205" s="1" t="s">
         <v>3602</v>
       </c>
@@ -26963,7 +26967,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="1218" hidden="1" spans="1:4">
+    <row r="1218" ht="48" hidden="1" spans="1:4">
       <c r="A1218" s="1">
         <v>0</v>
       </c>
@@ -27869,12 +27873,10 @@
   </sheetData>
   <autoFilter ref="A1:D1295">
     <filterColumn colId="0">
-      <filters>
-        <filter val="1"/>
-        <filter val="2"/>
-        <filter val="3"/>
-        <filter val="4"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="equal" val="1"/>
+        <customFilter operator="equal" val="2"/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <sortState ref="A2:D1295">

--- a/Level 1.xlsx
+++ b/Level 1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17220" tabRatio="500"/>
+    <workbookView windowWidth="19410" windowHeight="8655" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -11855,8 +11855,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -11902,6 +11902,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -11910,9 +11933,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11926,14 +11980,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -11941,9 +11987,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11951,7 +11996,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11966,23 +12011,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11990,36 +12019,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12052,157 +12052,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12220,7 +12082,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12243,15 +12243,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -12267,16 +12258,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -12297,6 +12306,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -12307,166 +12331,142 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -12540,11 +12540,6 @@
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -12580,7 +12575,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2425700" y="304800"/>
+          <a:off x="2728595" y="3810000"/>
           <a:ext cx="190500" cy="139700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12623,7 +12618,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>6074</xdr:colOff>
-      <xdr:row>779</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>57426</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12647,8 +12642,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9805670" y="304800"/>
-          <a:ext cx="4806315" cy="2190750"/>
+          <a:off x="11031220" y="238125"/>
+          <a:ext cx="5406390" cy="1724025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12665,7 +12660,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -12912,6 +12907,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -12920,16 +12916,16 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D1295"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A120" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="10.8333333333333" style="1"/>
+    <col min="1" max="1" width="10.8296296296296" style="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="22.35" customWidth="1"/>
-    <col min="4" max="4" width="38.5" customWidth="1"/>
+    <col min="3" max="3" width="22.3481481481481" customWidth="1"/>
+    <col min="4" max="4" width="38.5037037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -12946,7 +12942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="48" hidden="1" spans="2:4">
+    <row r="2" ht="37.5" hidden="1" spans="2:4">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -12957,7 +12953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="48" hidden="1" spans="2:4">
+    <row r="3" ht="37.5" hidden="1" spans="2:4">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -12968,7 +12964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="48" hidden="1" spans="2:4">
+    <row r="4" ht="37.5" hidden="1" spans="2:4">
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
@@ -12979,7 +12975,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="48" hidden="1" spans="1:4">
+    <row r="5" ht="37.5" spans="1:4">
       <c r="A5" s="1">
         <v>-1</v>
       </c>
@@ -12993,7 +12989,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="48" hidden="1" spans="1:4">
+    <row r="6" ht="37.5" spans="1:4">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -13007,7 +13003,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="48" hidden="1" spans="2:4">
+    <row r="7" ht="37.5" hidden="1" spans="2:4">
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
@@ -13018,7 +13014,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" ht="48" hidden="1" spans="2:4">
+    <row r="8" ht="37.5" hidden="1" spans="2:4">
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -13029,7 +13025,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" ht="48" hidden="1" spans="2:4">
+    <row r="9" ht="37.5" hidden="1" spans="2:4">
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
@@ -13040,7 +13036,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" ht="48" hidden="1" spans="2:4">
+    <row r="10" ht="37.5" hidden="1" spans="2:4">
       <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
@@ -13051,7 +13047,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" ht="48" hidden="1" spans="2:4">
+    <row r="11" ht="37.5" hidden="1" spans="2:4">
       <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
@@ -13062,7 +13058,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" ht="48" hidden="1" spans="2:4">
+    <row r="12" ht="37.5" hidden="1" spans="2:4">
       <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
@@ -13073,7 +13069,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" ht="48" hidden="1" spans="2:4">
+    <row r="13" ht="37.5" hidden="1" spans="2:4">
       <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
@@ -13084,7 +13080,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" ht="48" hidden="1" spans="2:4">
+    <row r="14" ht="37.5" hidden="1" spans="2:4">
       <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
@@ -13095,7 +13091,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" ht="48" hidden="1" spans="2:4">
+    <row r="15" ht="37.5" hidden="1" spans="2:4">
       <c r="B15" s="1" t="s">
         <v>43</v>
       </c>
@@ -13315,7 +13311,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" hidden="1" spans="1:4">
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -13329,7 +13325,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" hidden="1" spans="1:4">
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -13552,7 +13548,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" ht="48" hidden="1" spans="2:4">
+    <row r="56" hidden="1" spans="2:4">
       <c r="B56" s="1" t="s">
         <v>166</v>
       </c>
@@ -13893,7 +13889,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="87" ht="48" hidden="1" spans="2:4">
+    <row r="87" hidden="1" spans="2:4">
       <c r="B87" s="1" t="s">
         <v>259</v>
       </c>
@@ -13937,7 +13933,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="91" hidden="1" spans="1:4">
+    <row r="91" spans="1:4">
       <c r="A91" s="1">
         <v>0</v>
       </c>
@@ -14028,7 +14024,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="99" ht="48" hidden="1" spans="2:4">
+    <row r="99" hidden="1" spans="2:4">
       <c r="B99" s="1" t="s">
         <v>295</v>
       </c>
@@ -14061,7 +14057,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="102" ht="48" hidden="1" spans="2:4">
+    <row r="102" hidden="1" spans="2:4">
       <c r="B102" s="1" t="s">
         <v>304</v>
       </c>
@@ -14160,7 +14156,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="111" hidden="1" spans="1:4">
+    <row r="111" spans="1:4">
       <c r="A111" s="1">
         <v>0</v>
       </c>
@@ -14262,7 +14258,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="120" hidden="1" spans="1:4">
+    <row r="120" spans="1:4">
       <c r="A120" s="1">
         <v>0</v>
       </c>
@@ -14309,7 +14305,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="124" hidden="1" spans="1:4">
+    <row r="124" spans="1:4">
       <c r="A124" s="1">
         <v>0</v>
       </c>
@@ -14422,7 +14418,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="134" ht="48" hidden="1" spans="2:4">
+    <row r="134" hidden="1" spans="2:4">
       <c r="B134" s="1" t="s">
         <v>400</v>
       </c>
@@ -14565,7 +14561,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="147" hidden="1" spans="1:4">
+    <row r="147" spans="1:4">
       <c r="A147" s="1">
         <v>0</v>
       </c>
@@ -14612,7 +14608,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="151" ht="48" hidden="1" spans="2:4">
+    <row r="151" hidden="1" spans="2:4">
       <c r="B151" s="1" t="s">
         <v>451</v>
       </c>
@@ -14667,7 +14663,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="156" hidden="1" spans="1:4">
+    <row r="156" spans="1:4">
       <c r="A156" s="1">
         <v>0</v>
       </c>
@@ -14681,7 +14677,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="157" hidden="1" spans="1:4">
+    <row r="157" spans="1:4">
       <c r="A157" s="1">
         <v>0</v>
       </c>
@@ -14706,7 +14702,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="159" ht="48" hidden="1" spans="2:4">
+    <row r="159" hidden="1" spans="2:4">
       <c r="B159" s="1" t="s">
         <v>475</v>
       </c>
@@ -14871,7 +14867,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="174" ht="48" hidden="1" spans="2:4">
+    <row r="174" ht="37.5" hidden="1" spans="2:4">
       <c r="B174" s="1" t="s">
         <v>520</v>
       </c>
@@ -14904,7 +14900,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="177" hidden="1" spans="1:4">
+    <row r="177" spans="1:4">
       <c r="A177" s="1">
         <v>-1</v>
       </c>
@@ -14918,7 +14914,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="178" ht="48" hidden="1" spans="2:4">
+    <row r="178" hidden="1" spans="2:4">
       <c r="B178" s="1" t="s">
         <v>532</v>
       </c>
@@ -15006,7 +15002,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="186" hidden="1" spans="1:4">
+    <row r="186" spans="1:4">
       <c r="A186" s="1">
         <v>0</v>
       </c>
@@ -15042,7 +15038,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="189" ht="48" hidden="1" spans="2:4">
+    <row r="189" hidden="1" spans="2:4">
       <c r="B189" s="1" t="s">
         <v>564</v>
       </c>
@@ -15218,7 +15214,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="205" ht="48" hidden="1" spans="2:4">
+    <row r="205" hidden="1" spans="2:4">
       <c r="B205" s="1" t="s">
         <v>612</v>
       </c>
@@ -15229,7 +15225,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="206" hidden="1" spans="1:4">
+    <row r="206" spans="1:4">
       <c r="A206" s="1">
         <v>0</v>
       </c>
@@ -15254,7 +15250,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="208" ht="48" hidden="1" spans="2:4">
+    <row r="208" ht="37.5" hidden="1" spans="2:4">
       <c r="B208" s="1" t="s">
         <v>621</v>
       </c>
@@ -15298,7 +15294,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="212" ht="48" hidden="1" spans="2:4">
+    <row r="212" hidden="1" spans="2:4">
       <c r="B212" s="1" t="s">
         <v>633</v>
       </c>
@@ -15452,7 +15448,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="226" hidden="1" spans="1:4">
+    <row r="226" spans="1:4">
       <c r="A226" s="1">
         <v>0</v>
       </c>
@@ -15466,7 +15462,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="227" ht="48" hidden="1" spans="2:4">
+    <row r="227" ht="37.5" hidden="1" spans="2:4">
       <c r="B227" s="1" t="s">
         <v>678</v>
       </c>
@@ -15510,7 +15506,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="231" hidden="1" spans="1:4">
+    <row r="231" spans="1:4">
       <c r="A231" s="1">
         <v>0</v>
       </c>
@@ -15623,7 +15619,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="241" hidden="1" spans="1:4">
+    <row r="241" spans="1:4">
       <c r="A241" s="1">
         <v>0</v>
       </c>
@@ -15648,7 +15644,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="243" hidden="1" spans="1:4">
+    <row r="243" spans="1:4">
       <c r="A243" s="1">
         <v>-1</v>
       </c>
@@ -15662,7 +15658,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="244" hidden="1" spans="1:4">
+    <row r="244" spans="1:4">
       <c r="A244" s="1">
         <v>0</v>
       </c>
@@ -15709,7 +15705,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="248" hidden="1" spans="1:4">
+    <row r="248" spans="1:4">
       <c r="A248" s="1">
         <v>0</v>
       </c>
@@ -15778,7 +15774,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="254" hidden="1" spans="1:4">
+    <row r="254" spans="1:4">
       <c r="A254" s="1">
         <v>0</v>
       </c>
@@ -15792,7 +15788,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="255" hidden="1" spans="1:4">
+    <row r="255" spans="1:4">
       <c r="A255" s="1">
         <v>0</v>
       </c>
@@ -15806,7 +15802,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="256" hidden="1" spans="1:4">
+    <row r="256" spans="1:4">
       <c r="A256" s="1">
         <v>0</v>
       </c>
@@ -15820,7 +15816,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="257" hidden="1" spans="1:4">
+    <row r="257" spans="1:4">
       <c r="A257" s="1">
         <v>-1</v>
       </c>
@@ -15834,7 +15830,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="258" hidden="1" spans="1:4">
+    <row r="258" spans="1:4">
       <c r="A258" s="1">
         <v>0</v>
       </c>
@@ -15848,7 +15844,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="259" ht="48" hidden="1" spans="2:4">
+    <row r="259" ht="37.5" hidden="1" spans="2:4">
       <c r="B259" s="1" t="s">
         <v>774</v>
       </c>
@@ -15881,7 +15877,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="262" hidden="1" spans="1:4">
+    <row r="262" spans="1:4">
       <c r="A262" s="1">
         <v>0</v>
       </c>
@@ -15895,7 +15891,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="263" hidden="1" spans="1:4">
+    <row r="263" spans="1:4">
       <c r="A263" s="1">
         <v>-1</v>
       </c>
@@ -15975,7 +15971,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="270" hidden="1" spans="1:4">
+    <row r="270" spans="1:4">
       <c r="A270" s="1">
         <v>0</v>
       </c>
@@ -16000,7 +15996,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="272" hidden="1" spans="1:4">
+    <row r="272" spans="1:4">
       <c r="A272" s="1">
         <v>0</v>
       </c>
@@ -16204,7 +16200,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="290" hidden="1" spans="1:4">
+    <row r="290" spans="1:4">
       <c r="A290" s="1">
         <v>0</v>
       </c>
@@ -16284,7 +16280,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="297" hidden="1" spans="1:4">
+    <row r="297" spans="1:4">
       <c r="A297" s="1">
         <v>0</v>
       </c>
@@ -16298,7 +16294,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="298" hidden="1" spans="1:4">
+    <row r="298" spans="1:4">
       <c r="A298" s="1">
         <v>0</v>
       </c>
@@ -16411,7 +16407,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="308" ht="48" hidden="1" spans="2:4">
+    <row r="308" ht="37.5" hidden="1" spans="2:4">
       <c r="B308" s="1" t="s">
         <v>921</v>
       </c>
@@ -16444,7 +16440,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="311" hidden="1" spans="1:4">
+    <row r="311" spans="1:4">
       <c r="A311" s="1">
         <v>0</v>
       </c>
@@ -16458,7 +16454,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="312" hidden="1" spans="1:4">
+    <row r="312" spans="1:4">
       <c r="A312" s="1">
         <v>0</v>
       </c>
@@ -16527,7 +16523,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="318" hidden="1" spans="1:4">
+    <row r="318" spans="1:4">
       <c r="A318" s="1">
         <v>0</v>
       </c>
@@ -16574,7 +16570,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="322" hidden="1" spans="1:4">
+    <row r="322" spans="1:4">
       <c r="A322" s="1">
         <v>0</v>
       </c>
@@ -16720,7 +16716,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="335" hidden="1" spans="1:4">
+    <row r="335" spans="1:4">
       <c r="A335" s="1">
         <v>0</v>
       </c>
@@ -16756,7 +16752,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="338" hidden="1" spans="1:4">
+    <row r="338" spans="1:4">
       <c r="A338" s="1">
         <v>-1</v>
       </c>
@@ -16792,7 +16788,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="341" hidden="1" spans="1:4">
+    <row r="341" spans="1:4">
       <c r="A341" s="1">
         <v>0</v>
       </c>
@@ -16806,7 +16802,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="342" hidden="1" spans="1:4">
+    <row r="342" spans="1:4">
       <c r="A342" s="1">
         <v>0</v>
       </c>
@@ -16897,7 +16893,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="350" hidden="1" spans="1:4">
+    <row r="350" spans="1:4">
       <c r="A350" s="1">
         <v>0</v>
       </c>
@@ -16922,7 +16918,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="352" hidden="1" spans="1:4">
+    <row r="352" spans="1:4">
       <c r="A352" s="1">
         <v>0</v>
       </c>
@@ -16969,7 +16965,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="356" ht="48" hidden="1" spans="2:4">
+    <row r="356" hidden="1" spans="2:4">
       <c r="B356" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17002,7 +16998,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="359" hidden="1" spans="1:4">
+    <row r="359" spans="1:4">
       <c r="A359" s="1">
         <v>0</v>
       </c>
@@ -17016,7 +17012,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="360" ht="48" hidden="1" spans="2:4">
+    <row r="360" ht="37.5" hidden="1" spans="2:4">
       <c r="B360" s="1" t="s">
         <v>1077</v>
       </c>
@@ -17049,7 +17045,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="363" hidden="1" spans="1:4">
+    <row r="363" spans="1:4">
       <c r="A363" s="1">
         <v>0</v>
       </c>
@@ -17063,7 +17059,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="364" hidden="1" spans="1:4">
+    <row r="364" spans="1:4">
       <c r="A364" s="1">
         <v>0</v>
       </c>
@@ -17088,7 +17084,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="366" hidden="1" spans="1:4">
+    <row r="366" spans="1:4">
       <c r="A366" s="1">
         <v>0</v>
       </c>
@@ -17102,7 +17098,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="367" hidden="1" spans="1:4">
+    <row r="367" spans="1:4">
       <c r="A367" s="1">
         <v>0</v>
       </c>
@@ -17116,7 +17112,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="368" hidden="1" spans="1:4">
+    <row r="368" spans="1:4">
       <c r="A368" s="1">
         <v>0</v>
       </c>
@@ -17196,7 +17192,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="375" hidden="1" spans="1:4">
+    <row r="375" spans="1:4">
       <c r="A375" s="1">
         <v>0</v>
       </c>
@@ -17221,7 +17217,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="377" hidden="1" spans="1:4">
+    <row r="377" spans="1:4">
       <c r="A377" s="1">
         <v>0</v>
       </c>
@@ -17257,7 +17253,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="380" ht="48" hidden="1" spans="1:4">
+    <row r="380" ht="37.5" spans="1:4">
       <c r="A380" s="1">
         <v>-1</v>
       </c>
@@ -17348,7 +17344,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="388" hidden="1" spans="1:4">
+    <row r="388" spans="1:4">
       <c r="A388" s="1">
         <v>0</v>
       </c>
@@ -17406,7 +17402,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="393" hidden="1" spans="1:4">
+    <row r="393" spans="1:4">
       <c r="A393" s="1">
         <v>0</v>
       </c>
@@ -17728,7 +17724,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="422" hidden="1" spans="1:4">
+    <row r="422" spans="1:4">
       <c r="A422" s="1">
         <v>0</v>
       </c>
@@ -17841,7 +17837,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="432" hidden="1" spans="1:4">
+    <row r="432" spans="1:4">
       <c r="A432" s="1">
         <v>0</v>
       </c>
@@ -17880,7 +17876,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="435" hidden="1" spans="1:4">
+    <row r="435" spans="1:4">
       <c r="A435" s="1">
         <v>0</v>
       </c>
@@ -17930,7 +17926,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="439" hidden="1" spans="1:4">
+    <row r="439" spans="1:4">
       <c r="A439" s="1">
         <v>0</v>
       </c>
@@ -17966,7 +17962,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="442" hidden="1" spans="1:4">
+    <row r="442" spans="1:4">
       <c r="A442" s="1">
         <v>0</v>
       </c>
@@ -18090,7 +18086,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="453" hidden="1" spans="1:4">
+    <row r="453" spans="1:4">
       <c r="A453" s="1">
         <v>0</v>
       </c>
@@ -18137,7 +18133,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="457" hidden="1" spans="1:4">
+    <row r="457" spans="1:4">
       <c r="A457" s="1">
         <v>0</v>
       </c>
@@ -18162,7 +18158,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="459" hidden="1" spans="1:4">
+    <row r="459" spans="1:4">
       <c r="A459" s="1">
         <v>0</v>
       </c>
@@ -18198,7 +18194,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="462" hidden="1" spans="1:4">
+    <row r="462" spans="1:4">
       <c r="A462" s="1">
         <v>0</v>
       </c>
@@ -18223,7 +18219,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="464" hidden="1" spans="1:4">
+    <row r="464" spans="1:4">
       <c r="A464" s="1">
         <v>0</v>
       </c>
@@ -18259,7 +18255,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="467" hidden="1" spans="1:4">
+    <row r="467" spans="1:4">
       <c r="A467" s="1">
         <v>0</v>
       </c>
@@ -18273,7 +18269,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="468" hidden="1" spans="1:4">
+    <row r="468" spans="1:4">
       <c r="A468" s="1">
         <v>0</v>
       </c>
@@ -18408,7 +18404,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="480" hidden="1" spans="1:4">
+    <row r="480" spans="1:4">
       <c r="A480" s="1">
         <v>0</v>
       </c>
@@ -18422,7 +18418,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="481" hidden="1" spans="1:4">
+    <row r="481" spans="1:4">
       <c r="A481" s="1">
         <v>0</v>
       </c>
@@ -18502,7 +18498,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="488" hidden="1" spans="1:4">
+    <row r="488" spans="1:4">
       <c r="A488" s="1">
         <v>0</v>
       </c>
@@ -18538,7 +18534,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="491" hidden="1" spans="1:4">
+    <row r="491" spans="1:4">
       <c r="A491" s="1">
         <v>0</v>
       </c>
@@ -18607,7 +18603,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="497" ht="48" hidden="1" spans="2:4">
+    <row r="497" ht="37.5" hidden="1" spans="2:4">
       <c r="B497" s="1" t="s">
         <v>1486</v>
       </c>
@@ -18665,7 +18661,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="502" hidden="1" spans="1:4">
+    <row r="502" spans="1:4">
       <c r="A502" s="1">
         <v>0</v>
       </c>
@@ -18723,7 +18719,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="507" hidden="1" spans="1:4">
+    <row r="507" spans="1:4">
       <c r="A507" s="1">
         <v>0</v>
       </c>
@@ -18814,7 +18810,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="515" ht="48" hidden="1" spans="1:4">
+    <row r="515" ht="37.5" spans="1:4">
       <c r="A515" s="1">
         <v>0</v>
       </c>
@@ -18883,7 +18879,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="521" ht="48" hidden="1" spans="2:4">
+    <row r="521" ht="37.5" hidden="1" spans="2:4">
       <c r="B521" s="1" t="s">
         <v>1558</v>
       </c>
@@ -18916,7 +18912,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="524" ht="48" hidden="1" spans="2:4">
+    <row r="524" ht="37.5" hidden="1" spans="2:4">
       <c r="B524" s="1" t="s">
         <v>1567</v>
       </c>
@@ -18949,7 +18945,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="527" hidden="1" spans="1:4">
+    <row r="527" spans="1:4">
       <c r="A527" s="1">
         <v>0</v>
       </c>
@@ -19073,7 +19069,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="538" ht="48" hidden="1" spans="2:4">
+    <row r="538" hidden="1" spans="2:4">
       <c r="B538" s="1" t="s">
         <v>1609</v>
       </c>
@@ -19084,7 +19080,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="539" hidden="1" spans="1:4">
+    <row r="539" spans="1:4">
       <c r="A539" s="1">
         <v>0</v>
       </c>
@@ -19219,7 +19215,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="551" hidden="1" spans="1:4">
+    <row r="551" spans="1:4">
       <c r="A551" s="1">
         <v>0</v>
       </c>
@@ -19288,7 +19284,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="557" hidden="1" spans="1:4">
+    <row r="557" spans="1:4">
       <c r="A557" s="1">
         <v>0</v>
       </c>
@@ -19324,7 +19320,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="560" hidden="1" spans="1:4">
+    <row r="560" spans="1:4">
       <c r="A560" s="1">
         <v>0</v>
       </c>
@@ -19338,7 +19334,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="561" hidden="1" spans="1:4">
+    <row r="561" spans="1:4">
       <c r="A561" s="1">
         <v>0</v>
       </c>
@@ -19363,7 +19359,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="563" hidden="1" spans="1:4">
+    <row r="563" spans="1:4">
       <c r="A563" s="1">
         <v>0</v>
       </c>
@@ -19443,7 +19439,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="570" hidden="1" spans="1:4">
+    <row r="570" spans="1:4">
       <c r="A570" s="1">
         <v>0</v>
       </c>
@@ -19490,7 +19486,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="574" hidden="1" spans="1:4">
+    <row r="574" spans="1:4">
       <c r="A574" s="1">
         <v>0</v>
       </c>
@@ -19504,7 +19500,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="575" hidden="1" spans="1:4">
+    <row r="575" spans="1:4">
       <c r="A575" s="1">
         <v>0</v>
       </c>
@@ -19518,7 +19514,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="576" hidden="1" spans="1:4">
+    <row r="576" spans="1:4">
       <c r="A576" s="1">
         <v>0</v>
       </c>
@@ -19532,7 +19528,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="577" hidden="1" spans="1:4">
+    <row r="577" spans="1:4">
       <c r="A577" s="1">
         <v>0</v>
       </c>
@@ -19579,7 +19575,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="581" ht="48" hidden="1" spans="2:4">
+    <row r="581" hidden="1" spans="2:4">
       <c r="B581" s="1" t="s">
         <v>1738</v>
       </c>
@@ -19604,7 +19600,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="583" hidden="1" spans="1:4">
+    <row r="583" spans="1:4">
       <c r="A583" s="1">
         <v>0</v>
       </c>
@@ -19651,7 +19647,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="587" hidden="1" spans="1:4">
+    <row r="587" spans="1:4">
       <c r="A587" s="1">
         <v>0</v>
       </c>
@@ -19720,7 +19716,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="593" hidden="1" spans="1:4">
+    <row r="593" spans="1:4">
       <c r="A593" s="1">
         <v>0</v>
       </c>
@@ -19800,7 +19796,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="600" hidden="1" spans="1:4">
+    <row r="600" spans="1:4">
       <c r="A600" s="1">
         <v>0</v>
       </c>
@@ -19814,7 +19810,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="601" hidden="1" spans="1:4">
+    <row r="601" spans="1:4">
       <c r="A601" s="1">
         <v>0</v>
       </c>
@@ -19872,7 +19868,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="606" hidden="1" spans="1:4">
+    <row r="606" spans="1:4">
       <c r="A606" s="1">
         <v>0</v>
       </c>
@@ -19886,7 +19882,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="607" hidden="1" spans="1:4">
+    <row r="607" spans="1:4">
       <c r="A607" s="1">
         <v>0</v>
       </c>
@@ -19900,7 +19896,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="608" hidden="1" spans="1:4">
+    <row r="608" spans="1:4">
       <c r="A608" s="1">
         <v>0</v>
       </c>
@@ -19947,7 +19943,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="612" hidden="1" spans="1:4">
+    <row r="612" spans="1:4">
       <c r="A612" s="1">
         <v>0</v>
       </c>
@@ -19972,7 +19968,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="614" hidden="1" spans="1:4">
+    <row r="614" spans="1:4">
       <c r="A614" s="1">
         <v>0</v>
       </c>
@@ -20165,7 +20161,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="631" ht="48" hidden="1" spans="1:4">
+    <row r="631" spans="1:4">
       <c r="A631" s="1">
         <v>0</v>
       </c>
@@ -20201,7 +20197,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="634" hidden="1" spans="1:4">
+    <row r="634" spans="1:4">
       <c r="A634" s="1">
         <v>0</v>
       </c>
@@ -20248,7 +20244,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="638" hidden="1" spans="1:4">
+    <row r="638" spans="1:4">
       <c r="A638" s="1">
         <v>0</v>
       </c>
@@ -20306,7 +20302,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="643" hidden="1" spans="1:4">
+    <row r="643" spans="1:4">
       <c r="A643" s="1">
         <v>0</v>
       </c>
@@ -20331,7 +20327,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="645" hidden="1" spans="1:4">
+    <row r="645" spans="1:4">
       <c r="A645" s="1">
         <v>0</v>
       </c>
@@ -20433,7 +20429,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="654" hidden="1" spans="1:4">
+    <row r="654" spans="1:4">
       <c r="A654" s="1">
         <v>0</v>
       </c>
@@ -20458,7 +20454,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="656" hidden="1" spans="1:4">
+    <row r="656" spans="1:4">
       <c r="A656" s="1">
         <v>0</v>
       </c>
@@ -20494,7 +20490,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="659" hidden="1" spans="1:4">
+    <row r="659" spans="1:4">
       <c r="A659" s="1">
         <v>0</v>
       </c>
@@ -20508,7 +20504,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="660" hidden="1" spans="1:4">
+    <row r="660" spans="1:4">
       <c r="A660" s="1">
         <v>0</v>
       </c>
@@ -20632,7 +20628,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="671" hidden="1" spans="1:4">
+    <row r="671" spans="1:4">
       <c r="A671" s="1">
         <v>0</v>
       </c>
@@ -20679,7 +20675,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="675" ht="48" hidden="1" spans="2:4">
+    <row r="675" hidden="1" spans="2:4">
       <c r="B675" s="1" t="s">
         <v>2019</v>
       </c>
@@ -20690,7 +20686,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="676" hidden="1" spans="1:4">
+    <row r="676" spans="1:4">
       <c r="A676" s="1">
         <v>0</v>
       </c>
@@ -20847,7 +20843,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="690" hidden="1" spans="1:4">
+    <row r="690" spans="1:4">
       <c r="A690" s="1">
         <v>0</v>
       </c>
@@ -20872,7 +20868,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="692" hidden="1" spans="1:4">
+    <row r="692" spans="1:4">
       <c r="A692" s="1">
         <v>0</v>
       </c>
@@ -20919,7 +20915,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="696" hidden="1" spans="1:4">
+    <row r="696" spans="1:4">
       <c r="A696" s="1">
         <v>0</v>
       </c>
@@ -21054,7 +21050,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="708" ht="48" hidden="1" spans="2:4">
+    <row r="708" hidden="1" spans="2:4">
       <c r="B708" s="1" t="s">
         <v>2118</v>
       </c>
@@ -21101,7 +21097,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="712" hidden="1" spans="1:4">
+    <row r="712" spans="1:4">
       <c r="A712" s="1">
         <v>0</v>
       </c>
@@ -21137,7 +21133,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="715" hidden="1" spans="1:4">
+    <row r="715" spans="1:4">
       <c r="A715" s="1">
         <v>0</v>
       </c>
@@ -21184,7 +21180,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="719" hidden="1" spans="1:4">
+    <row r="719" spans="1:4">
       <c r="A719" s="1">
         <v>0</v>
       </c>
@@ -21242,7 +21238,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="724" hidden="1" spans="1:4">
+    <row r="724" spans="1:4">
       <c r="A724" s="1">
         <v>0</v>
       </c>
@@ -21256,7 +21252,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="725" hidden="1" spans="1:4">
+    <row r="725" spans="1:4">
       <c r="A725" s="1">
         <v>0</v>
       </c>
@@ -21292,7 +21288,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="728" hidden="1" spans="1:4">
+    <row r="728" spans="1:4">
       <c r="A728" s="1">
         <v>0</v>
       </c>
@@ -21306,7 +21302,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="729" hidden="1" spans="1:4">
+    <row r="729" spans="1:4">
       <c r="A729" s="1">
         <v>0</v>
       </c>
@@ -21353,7 +21349,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="733" hidden="1" spans="1:4">
+    <row r="733" spans="1:4">
       <c r="A733" s="1">
         <v>0</v>
       </c>
@@ -21389,7 +21385,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="736" hidden="1" spans="1:4">
+    <row r="736" spans="1:4">
       <c r="A736" s="1">
         <v>0</v>
       </c>
@@ -21458,7 +21454,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="742" hidden="1" spans="1:4">
+    <row r="742" spans="1:4">
       <c r="A742" s="1">
         <v>0</v>
       </c>
@@ -21538,7 +21534,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="749" hidden="1" spans="1:4">
+    <row r="749" spans="1:4">
       <c r="A749" s="1">
         <v>0</v>
       </c>
@@ -21585,7 +21581,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="753" ht="48" hidden="1" spans="2:4">
+    <row r="753" ht="37.5" hidden="1" spans="2:4">
       <c r="B753" s="1" t="s">
         <v>2253</v>
       </c>
@@ -21673,7 +21669,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="761" ht="48" hidden="1" spans="2:4">
+    <row r="761" ht="37.5" hidden="1" spans="2:4">
       <c r="B761" s="1" t="s">
         <v>2277</v>
       </c>
@@ -21805,7 +21801,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="773" hidden="1" spans="1:4">
+    <row r="773" spans="1:4">
       <c r="A773" s="1">
         <v>0</v>
       </c>
@@ -21863,7 +21859,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="778" hidden="1" spans="1:4">
+    <row r="778" spans="1:4">
       <c r="A778" s="1">
         <v>0</v>
       </c>
@@ -21877,7 +21873,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="779" hidden="1" spans="1:4">
+    <row r="779" spans="1:4">
       <c r="A779" s="1">
         <v>0</v>
       </c>
@@ -21949,7 +21945,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="785" hidden="1" spans="1:4">
+    <row r="785" spans="1:4">
       <c r="A785" s="1">
         <v>0</v>
       </c>
@@ -22065,7 +22061,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="795" hidden="1" spans="1:4">
+    <row r="795" spans="1:4">
       <c r="A795" s="1">
         <v>0</v>
       </c>
@@ -22112,7 +22108,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="799" hidden="1" spans="1:4">
+    <row r="799" spans="1:4">
       <c r="A799" s="1">
         <v>0</v>
       </c>
@@ -22126,7 +22122,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="800" hidden="1" spans="1:4">
+    <row r="800" spans="1:4">
       <c r="A800" s="1">
         <v>0</v>
       </c>
@@ -22382,7 +22378,7 @@
         <v>2462</v>
       </c>
     </row>
-    <row r="823" ht="48" hidden="1" spans="2:4">
+    <row r="823" ht="37.5" hidden="1" spans="2:4">
       <c r="B823" s="1" t="s">
         <v>2463</v>
       </c>
@@ -22448,7 +22444,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="829" ht="48" hidden="1" spans="2:4">
+    <row r="829" ht="37.5" hidden="1" spans="2:4">
       <c r="B829" s="1" t="s">
         <v>2481</v>
       </c>
@@ -22627,7 +22623,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="845" hidden="1" spans="1:4">
+    <row r="845" spans="1:4">
       <c r="A845" s="1">
         <v>0</v>
       </c>
@@ -22663,7 +22659,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="848" hidden="1" spans="1:4">
+    <row r="848" spans="1:4">
       <c r="A848" s="1">
         <v>0</v>
       </c>
@@ -22801,7 +22797,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="860" hidden="1" spans="1:4">
+    <row r="860" spans="1:4">
       <c r="A860" s="1">
         <v>0</v>
       </c>
@@ -22815,7 +22811,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="861" ht="48" hidden="1" spans="2:4">
+    <row r="861" ht="37.5" hidden="1" spans="2:4">
       <c r="B861" s="1" t="s">
         <v>2576</v>
       </c>
@@ -22892,7 +22888,7 @@
         <v>2596</v>
       </c>
     </row>
-    <row r="868" hidden="1" spans="1:4">
+    <row r="868" spans="1:4">
       <c r="A868" s="1">
         <v>0</v>
       </c>
@@ -22928,7 +22924,7 @@
         <v>2605</v>
       </c>
     </row>
-    <row r="871" hidden="1" spans="1:4">
+    <row r="871" spans="1:4">
       <c r="A871" s="1">
         <v>0</v>
       </c>
@@ -22986,7 +22982,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="876" ht="48" hidden="1" spans="2:4">
+    <row r="876" ht="37.5" hidden="1" spans="2:4">
       <c r="B876" s="1" t="s">
         <v>2621</v>
       </c>
@@ -23074,7 +23070,7 @@
         <v>2644</v>
       </c>
     </row>
-    <row r="884" hidden="1" spans="1:4">
+    <row r="884" spans="1:4">
       <c r="A884" s="1">
         <v>0</v>
       </c>
@@ -23088,7 +23084,7 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="885" hidden="1" spans="1:4">
+    <row r="885" spans="1:4">
       <c r="A885" s="1">
         <v>0</v>
       </c>
@@ -23168,7 +23164,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="892" hidden="1" spans="1:4">
+    <row r="892" spans="1:4">
       <c r="A892" s="1">
         <v>0</v>
       </c>
@@ -23204,7 +23200,7 @@
         <v>2677</v>
       </c>
     </row>
-    <row r="895" ht="48" hidden="1" spans="2:4">
+    <row r="895" ht="37.5" hidden="1" spans="2:4">
       <c r="B895" s="1" t="s">
         <v>2678</v>
       </c>
@@ -23243,7 +23239,7 @@
         <v>2686</v>
       </c>
     </row>
-    <row r="898" ht="48" hidden="1" spans="2:4">
+    <row r="898" ht="37.5" hidden="1" spans="2:4">
       <c r="B898" s="1" t="s">
         <v>2687</v>
       </c>
@@ -23254,7 +23250,7 @@
         <v>2689</v>
       </c>
     </row>
-    <row r="899" hidden="1" spans="1:4">
+    <row r="899" spans="1:4">
       <c r="A899" s="1">
         <v>0</v>
       </c>
@@ -23337,7 +23333,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="906" hidden="1" spans="1:4">
+    <row r="906" spans="1:4">
       <c r="A906" s="1">
         <v>0</v>
       </c>
@@ -23351,7 +23347,7 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="907" hidden="1" spans="1:4">
+    <row r="907" spans="1:4">
       <c r="A907" s="1">
         <v>0</v>
       </c>
@@ -23365,7 +23361,7 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="908" ht="48" hidden="1" spans="2:4">
+    <row r="908" ht="37.5" hidden="1" spans="2:4">
       <c r="B908" s="1" t="s">
         <v>2717</v>
       </c>
@@ -23376,7 +23372,7 @@
         <v>2719</v>
       </c>
     </row>
-    <row r="909" ht="48" hidden="1" spans="2:4">
+    <row r="909" hidden="1" spans="2:4">
       <c r="B909" s="1" t="s">
         <v>2720</v>
       </c>
@@ -23387,7 +23383,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="910" ht="48" hidden="1" spans="2:4">
+    <row r="910" hidden="1" spans="2:4">
       <c r="B910" s="1" t="s">
         <v>2723</v>
       </c>
@@ -23409,7 +23405,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="912" hidden="1" spans="1:4">
+    <row r="912" spans="1:4">
       <c r="A912" s="1">
         <v>0</v>
       </c>
@@ -23599,7 +23595,7 @@
         <v>2779</v>
       </c>
     </row>
-    <row r="929" hidden="1" spans="1:4">
+    <row r="929" spans="1:4">
       <c r="A929" s="1">
         <v>0</v>
       </c>
@@ -23613,7 +23609,7 @@
         <v>2782</v>
       </c>
     </row>
-    <row r="930" ht="48" hidden="1" spans="1:4">
+    <row r="930" spans="1:4">
       <c r="A930" s="1">
         <v>0</v>
       </c>
@@ -23638,7 +23634,7 @@
         <v>2788</v>
       </c>
     </row>
-    <row r="932" hidden="1" spans="1:4">
+    <row r="932" spans="1:4">
       <c r="A932" s="1">
         <v>0</v>
       </c>
@@ -23798,7 +23794,7 @@
         <v>2830</v>
       </c>
     </row>
-    <row r="946" ht="48" hidden="1" spans="2:4">
+    <row r="946" hidden="1" spans="2:4">
       <c r="B946" s="1" t="s">
         <v>2831</v>
       </c>
@@ -23878,7 +23874,7 @@
         <v>2851</v>
       </c>
     </row>
-    <row r="953" ht="48" hidden="1" spans="2:4">
+    <row r="953" hidden="1" spans="2:4">
       <c r="B953" s="1" t="s">
         <v>2852</v>
       </c>
@@ -23922,7 +23918,7 @@
         <v>2863</v>
       </c>
     </row>
-    <row r="957" hidden="1" spans="1:4">
+    <row r="957" spans="1:4">
       <c r="A957" s="1">
         <v>0</v>
       </c>
@@ -23947,7 +23943,7 @@
         <v>2869</v>
       </c>
     </row>
-    <row r="959" hidden="1" spans="1:4">
+    <row r="959" spans="1:4">
       <c r="A959" s="1">
         <v>0</v>
       </c>
@@ -23961,7 +23957,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="960" hidden="1" spans="1:4">
+    <row r="960" spans="1:4">
       <c r="A960" s="1">
         <v>0</v>
       </c>
@@ -24074,7 +24070,7 @@
         <v>2902</v>
       </c>
     </row>
-    <row r="970" hidden="1" spans="1:4">
+    <row r="970" spans="1:4">
       <c r="A970" s="1">
         <v>0</v>
       </c>
@@ -24088,7 +24084,7 @@
         <v>2905</v>
       </c>
     </row>
-    <row r="971" hidden="1" spans="1:4">
+    <row r="971" spans="1:4">
       <c r="A971" s="1">
         <v>0</v>
       </c>
@@ -24146,7 +24142,7 @@
         <v>2920</v>
       </c>
     </row>
-    <row r="976" ht="48" hidden="1" spans="2:4">
+    <row r="976" ht="37.5" hidden="1" spans="2:4">
       <c r="B976" s="1" t="s">
         <v>2921</v>
       </c>
@@ -24190,7 +24186,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="980" hidden="1" spans="1:4">
+    <row r="980" spans="1:4">
       <c r="A980" s="1">
         <v>0</v>
       </c>
@@ -24204,7 +24200,7 @@
         <v>2935</v>
       </c>
     </row>
-    <row r="981" ht="48" hidden="1" spans="2:4">
+    <row r="981" ht="37.5" hidden="1" spans="2:4">
       <c r="B981" s="1" t="s">
         <v>2936</v>
       </c>
@@ -24226,7 +24222,7 @@
         <v>2941</v>
       </c>
     </row>
-    <row r="983" hidden="1" spans="1:4">
+    <row r="983" spans="1:4">
       <c r="A983" s="1">
         <v>0</v>
       </c>
@@ -24251,7 +24247,7 @@
         <v>2947</v>
       </c>
     </row>
-    <row r="985" hidden="1" spans="1:4">
+    <row r="985" spans="1:4">
       <c r="A985" s="1">
         <v>0</v>
       </c>
@@ -24309,7 +24305,7 @@
         <v>2962</v>
       </c>
     </row>
-    <row r="990" hidden="1" spans="1:4">
+    <row r="990" spans="1:4">
       <c r="A990" s="1">
         <v>0</v>
       </c>
@@ -24345,7 +24341,7 @@
         <v>2971</v>
       </c>
     </row>
-    <row r="993" hidden="1" spans="1:4">
+    <row r="993" spans="1:4">
       <c r="A993" s="1">
         <v>0</v>
       </c>
@@ -24392,7 +24388,7 @@
         <v>2983</v>
       </c>
     </row>
-    <row r="997" hidden="1" spans="1:4">
+    <row r="997" spans="1:4">
       <c r="A997" s="1">
         <v>0</v>
       </c>
@@ -24406,7 +24402,7 @@
         <v>2986</v>
       </c>
     </row>
-    <row r="998" hidden="1" spans="1:4">
+    <row r="998" spans="1:4">
       <c r="A998" s="1">
         <v>0</v>
       </c>
@@ -24464,7 +24460,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="1003" hidden="1" spans="1:4">
+    <row r="1003" spans="1:4">
       <c r="A1003" s="1">
         <v>0</v>
       </c>
@@ -24478,7 +24474,7 @@
         <v>3004</v>
       </c>
     </row>
-    <row r="1004" hidden="1" spans="1:4">
+    <row r="1004" spans="1:4">
       <c r="A1004" s="1">
         <v>0</v>
       </c>
@@ -24591,7 +24587,7 @@
         <v>3034</v>
       </c>
     </row>
-    <row r="1014" ht="48" hidden="1" spans="2:4">
+    <row r="1014" hidden="1" spans="2:4">
       <c r="B1014" s="1" t="s">
         <v>3035</v>
       </c>
@@ -24602,7 +24598,7 @@
         <v>3037</v>
       </c>
     </row>
-    <row r="1015" hidden="1" spans="1:4">
+    <row r="1015" spans="1:4">
       <c r="A1015" s="1">
         <v>0</v>
       </c>
@@ -24715,7 +24711,7 @@
         <v>3067</v>
       </c>
     </row>
-    <row r="1025" hidden="1" spans="1:4">
+    <row r="1025" spans="1:4">
       <c r="A1025" s="1">
         <v>0</v>
       </c>
@@ -24729,7 +24725,7 @@
         <v>3070</v>
       </c>
     </row>
-    <row r="1026" hidden="1" spans="1:4">
+    <row r="1026" spans="1:4">
       <c r="A1026" s="1">
         <v>0</v>
       </c>
@@ -24809,7 +24805,7 @@
         <v>3091</v>
       </c>
     </row>
-    <row r="1033" hidden="1" spans="1:4">
+    <row r="1033" spans="1:4">
       <c r="A1033" s="1">
         <v>0</v>
       </c>
@@ -24823,7 +24819,7 @@
         <v>3094</v>
       </c>
     </row>
-    <row r="1034" hidden="1" spans="1:4">
+    <row r="1034" spans="1:4">
       <c r="A1034" s="1">
         <v>0</v>
       </c>
@@ -24848,7 +24844,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="1036" ht="48" hidden="1" spans="1:4">
+    <row r="1036" spans="1:4">
       <c r="A1036" s="1">
         <v>0</v>
       </c>
@@ -24953,7 +24949,7 @@
         <v>3127</v>
       </c>
     </row>
-    <row r="1045" hidden="1" spans="1:4">
+    <row r="1045" spans="1:4">
       <c r="A1045" s="1">
         <v>0</v>
       </c>
@@ -25044,7 +25040,7 @@
         <v>3151</v>
       </c>
     </row>
-    <row r="1053" ht="48" hidden="1" spans="2:4">
+    <row r="1053" ht="37.5" hidden="1" spans="2:4">
       <c r="B1053" s="1" t="s">
         <v>3152</v>
       </c>
@@ -25132,7 +25128,7 @@
         <v>3174</v>
       </c>
     </row>
-    <row r="1061" hidden="1" spans="1:4">
+    <row r="1061" spans="1:4">
       <c r="A1061" s="1">
         <v>0</v>
       </c>
@@ -25157,7 +25153,7 @@
         <v>3180</v>
       </c>
     </row>
-    <row r="1063" hidden="1" spans="1:4">
+    <row r="1063" spans="1:4">
       <c r="A1063" s="1">
         <v>0</v>
       </c>
@@ -25182,7 +25178,7 @@
         <v>3186</v>
       </c>
     </row>
-    <row r="1065" hidden="1" spans="1:4">
+    <row r="1065" spans="1:4">
       <c r="A1065" s="1">
         <v>0</v>
       </c>
@@ -25240,7 +25236,7 @@
         <v>3201</v>
       </c>
     </row>
-    <row r="1070" hidden="1" spans="1:4">
+    <row r="1070" spans="1:4">
       <c r="A1070" s="1">
         <v>0</v>
       </c>
@@ -25298,7 +25294,7 @@
         <v>3216</v>
       </c>
     </row>
-    <row r="1075" hidden="1" spans="1:4">
+    <row r="1075" spans="1:4">
       <c r="A1075" s="1">
         <v>0</v>
       </c>
@@ -25323,7 +25319,7 @@
         <v>3222</v>
       </c>
     </row>
-    <row r="1077" hidden="1" spans="1:4">
+    <row r="1077" spans="1:4">
       <c r="A1077" s="1">
         <v>0</v>
       </c>
@@ -25359,7 +25355,7 @@
         <v>3231</v>
       </c>
     </row>
-    <row r="1080" hidden="1" spans="1:4">
+    <row r="1080" spans="1:4">
       <c r="A1080" s="1">
         <v>0</v>
       </c>
@@ -25395,7 +25391,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="1083" ht="48" hidden="1" spans="2:4">
+    <row r="1083" ht="37.5" hidden="1" spans="2:4">
       <c r="B1083" s="1" t="s">
         <v>3241</v>
       </c>
@@ -25406,7 +25402,7 @@
         <v>3243</v>
       </c>
     </row>
-    <row r="1084" hidden="1" spans="1:4">
+    <row r="1084" spans="1:4">
       <c r="A1084" s="1">
         <v>0</v>
       </c>
@@ -25478,7 +25474,7 @@
         <v>3261</v>
       </c>
     </row>
-    <row r="1090" ht="48" hidden="1" spans="1:4">
+    <row r="1090" ht="37.5" spans="1:4">
       <c r="A1090" s="1">
         <v>0</v>
       </c>
@@ -25594,7 +25590,7 @@
         <v>3291</v>
       </c>
     </row>
-    <row r="1100" hidden="1" spans="1:4">
+    <row r="1100" spans="1:4">
       <c r="A1100" s="1">
         <v>0</v>
       </c>
@@ -25608,7 +25604,7 @@
         <v>3294</v>
       </c>
     </row>
-    <row r="1101" hidden="1" spans="1:4">
+    <row r="1101" spans="1:4">
       <c r="A1101" s="1">
         <v>0</v>
       </c>
@@ -25680,7 +25676,7 @@
         <v>3311</v>
       </c>
     </row>
-    <row r="1107" hidden="1" spans="1:4">
+    <row r="1107" spans="1:4">
       <c r="A1107" s="1">
         <v>0</v>
       </c>
@@ -25694,7 +25690,7 @@
         <v>3314</v>
       </c>
     </row>
-    <row r="1108" hidden="1" spans="1:4">
+    <row r="1108" spans="1:4">
       <c r="A1108" s="1">
         <v>0</v>
       </c>
@@ -25719,7 +25715,7 @@
         <v>3320</v>
       </c>
     </row>
-    <row r="1110" hidden="1" spans="1:4">
+    <row r="1110" spans="1:4">
       <c r="A1110" s="1">
         <v>0</v>
       </c>
@@ -25755,7 +25751,7 @@
         <v>3329</v>
       </c>
     </row>
-    <row r="1113" hidden="1" spans="1:4">
+    <row r="1113" spans="1:4">
       <c r="A1113" s="1">
         <v>0</v>
       </c>
@@ -25769,7 +25765,7 @@
         <v>3332</v>
       </c>
     </row>
-    <row r="1114" ht="48" hidden="1" spans="2:4">
+    <row r="1114" ht="37.5" hidden="1" spans="2:4">
       <c r="B1114" s="1" t="s">
         <v>3333</v>
       </c>
@@ -25846,7 +25842,7 @@
         <v>3353</v>
       </c>
     </row>
-    <row r="1121" hidden="1" spans="1:4">
+    <row r="1121" spans="1:4">
       <c r="A1121" s="1">
         <v>0</v>
       </c>
@@ -25860,7 +25856,7 @@
         <v>3356</v>
       </c>
     </row>
-    <row r="1122" hidden="1" spans="1:4">
+    <row r="1122" spans="1:4">
       <c r="A1122" s="1">
         <v>0</v>
       </c>
@@ -25918,7 +25914,7 @@
         <v>3371</v>
       </c>
     </row>
-    <row r="1127" ht="48" hidden="1" spans="2:4">
+    <row r="1127" ht="37.5" hidden="1" spans="2:4">
       <c r="B1127" s="1" t="s">
         <v>3372</v>
       </c>
@@ -26034,7 +26030,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="1137" hidden="1" spans="1:4">
+    <row r="1137" spans="1:4">
       <c r="A1137" s="1">
         <v>0</v>
       </c>
@@ -26136,7 +26132,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="1146" hidden="1" spans="1:4">
+    <row r="1146" spans="1:4">
       <c r="A1146" s="1">
         <v>0</v>
       </c>
@@ -26175,7 +26171,7 @@
         <v>3434</v>
       </c>
     </row>
-    <row r="1149" hidden="1" spans="1:4">
+    <row r="1149" spans="1:4">
       <c r="A1149" s="1">
         <v>0</v>
       </c>
@@ -26189,7 +26185,7 @@
         <v>3437</v>
       </c>
     </row>
-    <row r="1150" hidden="1" spans="1:4">
+    <row r="1150" spans="1:4">
       <c r="A1150" s="1">
         <v>0</v>
       </c>
@@ -26294,7 +26290,7 @@
         <v>3464</v>
       </c>
     </row>
-    <row r="1159" hidden="1" spans="1:4">
+    <row r="1159" spans="1:4">
       <c r="A1159" s="1">
         <v>0</v>
       </c>
@@ -26330,7 +26326,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1162" hidden="1" spans="1:4">
+    <row r="1162" spans="1:4">
       <c r="A1162" s="1">
         <v>0</v>
       </c>
@@ -26366,7 +26362,7 @@
         <v>3481</v>
       </c>
     </row>
-    <row r="1165" hidden="1" spans="1:4">
+    <row r="1165" spans="1:4">
       <c r="A1165" s="1">
         <v>0</v>
       </c>
@@ -26647,7 +26643,7 @@
         <v>3556</v>
       </c>
     </row>
-    <row r="1190" hidden="1" spans="1:4">
+    <row r="1190" spans="1:4">
       <c r="A1190" s="1">
         <v>0</v>
       </c>
@@ -26771,7 +26767,7 @@
         <v>3589</v>
       </c>
     </row>
-    <row r="1201" hidden="1" spans="1:4">
+    <row r="1201" spans="1:4">
       <c r="A1201" s="1">
         <v>0</v>
       </c>
@@ -26785,7 +26781,7 @@
         <v>3592</v>
       </c>
     </row>
-    <row r="1202" hidden="1" spans="1:4">
+    <row r="1202" spans="1:4">
       <c r="A1202" s="1">
         <v>0</v>
       </c>
@@ -26799,7 +26795,7 @@
         <v>3595</v>
       </c>
     </row>
-    <row r="1203" ht="48" hidden="1" spans="2:4">
+    <row r="1203" hidden="1" spans="2:4">
       <c r="B1203" s="1" t="s">
         <v>3596</v>
       </c>
@@ -26821,7 +26817,7 @@
         <v>3601</v>
       </c>
     </row>
-    <row r="1205" ht="48" hidden="1" spans="2:4">
+    <row r="1205" hidden="1" spans="2:4">
       <c r="B1205" s="1" t="s">
         <v>3602</v>
       </c>
@@ -26832,7 +26828,7 @@
         <v>3604</v>
       </c>
     </row>
-    <row r="1206" hidden="1" spans="1:4">
+    <row r="1206" spans="1:4">
       <c r="A1206" s="1">
         <v>0</v>
       </c>
@@ -26967,7 +26963,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="1218" ht="48" hidden="1" spans="1:4">
+    <row r="1218" spans="1:4">
       <c r="A1218" s="1">
         <v>0</v>
       </c>
@@ -26992,7 +26988,7 @@
         <v>3646</v>
       </c>
     </row>
-    <row r="1220" hidden="1" spans="1:4">
+    <row r="1220" spans="1:4">
       <c r="A1220" s="1">
         <v>0</v>
       </c>
@@ -27017,7 +27013,7 @@
         <v>3652</v>
       </c>
     </row>
-    <row r="1222" hidden="1" spans="1:4">
+    <row r="1222" spans="1:4">
       <c r="A1222" s="1">
         <v>0</v>
       </c>
@@ -27232,7 +27228,7 @@
         <v>3708</v>
       </c>
     </row>
-    <row r="1241" hidden="1" spans="1:4">
+    <row r="1241" spans="1:4">
       <c r="A1241" s="1">
         <v>0</v>
       </c>
@@ -27246,7 +27242,7 @@
         <v>3711</v>
       </c>
     </row>
-    <row r="1242" hidden="1" spans="1:4">
+    <row r="1242" spans="1:4">
       <c r="A1242" s="1">
         <v>0</v>
       </c>
@@ -27271,7 +27267,7 @@
         <v>3717</v>
       </c>
     </row>
-    <row r="1244" hidden="1" spans="1:4">
+    <row r="1244" spans="1:4">
       <c r="A1244" s="1">
         <v>0</v>
       </c>
@@ -27318,7 +27314,7 @@
         <v>3729</v>
       </c>
     </row>
-    <row r="1248" hidden="1" spans="1:4">
+    <row r="1248" spans="1:4">
       <c r="A1248" s="1">
         <v>0</v>
       </c>
@@ -27398,7 +27394,7 @@
         <v>3749</v>
       </c>
     </row>
-    <row r="1255" hidden="1" spans="1:4">
+    <row r="1255" spans="1:4">
       <c r="A1255" s="1">
         <v>0</v>
       </c>
@@ -27434,7 +27430,7 @@
         <v>3758</v>
       </c>
     </row>
-    <row r="1258" hidden="1" spans="1:4">
+    <row r="1258" spans="1:4">
       <c r="A1258" s="1">
         <v>0</v>
       </c>
@@ -27550,7 +27546,7 @@
         <v>3788</v>
       </c>
     </row>
-    <row r="1268" hidden="1" spans="1:4">
+    <row r="1268" spans="1:4">
       <c r="A1268" s="1">
         <v>0</v>
       </c>
@@ -27798,7 +27794,7 @@
         <v>3854</v>
       </c>
     </row>
-    <row r="1290" hidden="1" spans="1:4">
+    <row r="1290" spans="1:4">
       <c r="A1290" s="1">
         <v>0</v>
       </c>
@@ -27856,7 +27852,7 @@
         <v>3869</v>
       </c>
     </row>
-    <row r="1295" hidden="1" spans="1:4">
+    <row r="1295" spans="1:4">
       <c r="A1295" s="1">
         <v>0</v>
       </c>
@@ -27873,10 +27869,12 @@
   </sheetData>
   <autoFilter ref="A1:D1295">
     <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="equal" val="1"/>
-        <customFilter operator="equal" val="2"/>
-      </customFilters>
+      <filters>
+        <filter val="0"/>
+        <filter val="1"/>
+        <filter val="-1"/>
+        <filter val="2"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <sortState ref="A2:D1295">
